--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C11C1B2-0E04-F64B-8A0E-5745F9313E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE4C3BF-B928-3243-BDC7-197663E9459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6920" yWindow="0" windowWidth="21500" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plate counts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Strain</t>
   </si>
@@ -53,9 +53,6 @@
     <t>plated (uL)</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>Date (Overnights)</t>
   </si>
   <si>
@@ -107,23 +104,24 @@
     <t>TMTC</t>
   </si>
   <si>
-    <t>Contaminated</t>
-  </si>
-  <si>
-    <t>CFU/
-10 leaf discs
+    <t>Average CFU/100ul UD</t>
+  </si>
+  <si>
+    <t>field sample #17</t>
+  </si>
+  <si>
+    <t>Pseudomonas fluorescence</t>
+  </si>
+  <si>
+    <t>CFU/10 leaf discs
 (avg * dil * 10^2)</t>
-  </si>
-  <si>
-    <t>Dilution
-(30-300 CFU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,33 +151,36 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,31 +190,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,49 +210,49 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,456 +591,703 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="15" style="7"/>
+    <col min="1" max="1" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="15" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C2" s="4">
+        <v>194</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1">
-        <v>-80</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8">
+        <v>37</v>
+      </c>
+      <c r="L2" s="8">
+        <v>43</v>
+      </c>
+      <c r="M2" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="N2" s="7">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9">
+        <f>AVERAGE(K2:L2)*10^1</f>
+        <v>400</v>
+      </c>
+      <c r="P2" s="10">
+        <f>O2*10^2</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C3" s="4">
+        <v>194</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>100</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8">
+        <v>54</v>
+      </c>
+      <c r="L3" s="8">
+        <v>60</v>
+      </c>
+      <c r="M3" s="7">
+        <v>6</v>
+      </c>
+      <c r="N3" s="7">
+        <v>9</v>
+      </c>
+      <c r="O3" s="9">
+        <f>AVERAGE(K3:L3)*10^1</f>
+        <v>570</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P7" si="0">O3*10^2</f>
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C4" s="4">
+        <v>194</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8">
+        <v>108</v>
+      </c>
+      <c r="L4" s="8">
+        <v>128</v>
+      </c>
+      <c r="M4" s="8">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8">
+        <v>11</v>
+      </c>
+      <c r="O4" s="9">
+        <f>((AVERAGE(K4:L4)*10^1)+(AVERAGE(M4:N4)*10^2))/2</f>
+        <v>1365</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>136500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C5" s="4">
+        <v>194</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8">
+        <v>53</v>
+      </c>
+      <c r="L5" s="8">
+        <v>67</v>
+      </c>
+      <c r="M5" s="7">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6</v>
+      </c>
+      <c r="O5" s="9">
+        <f>AVERAGE(K5:L5)*10^1</f>
+        <v>600</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C6" s="4">
+        <v>194</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>132</v>
+      </c>
+      <c r="M6" s="8">
+        <v>13</v>
+      </c>
+      <c r="N6" s="8">
+        <v>19</v>
+      </c>
+      <c r="O6" s="9">
+        <f>((L6*10^1)+(AVERAGE(M6:N6)*10^2))/2</f>
+        <v>1460</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C7" s="4">
+        <v>194</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>103</v>
+      </c>
+      <c r="L7" s="8">
+        <v>102</v>
+      </c>
+      <c r="M7" s="8">
+        <v>16</v>
+      </c>
+      <c r="N7" s="8">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O7" s="9">
+        <f>((AVERAGE(K7:L7)*10^1)+(AVERAGE(M7:N7)*10^2))/2</f>
+        <v>1187.5</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>118750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C8" s="4">
+        <v>194</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C9" s="4">
+        <v>194</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C10" s="4">
+        <v>194</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C11" s="4">
+        <v>204</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C12" s="4">
+        <v>204</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>100</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5">
-        <v>37</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="12">
-        <f>(AVERAGE(J2:K2))*(10^1)*10^2</f>
-        <v>40000</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>194</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C13" s="4">
+        <v>204</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C14" s="4">
+        <v>204</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C15" s="4">
+        <v>204</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="E15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4">
+        <v>100</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C16" s="4">
+        <v>204</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>194</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
-        <v>108</v>
-      </c>
-      <c r="K4" s="5">
-        <v>128</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5">
-        <v>11</v>
-      </c>
-      <c r="N4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="12">
-        <f>(AVERAGE(J4:K4))*(10^1)*10^2</f>
-        <v>118000</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>194</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="5">
-        <v>53</v>
-      </c>
-      <c r="K5" s="5">
-        <v>67</v>
-      </c>
-      <c r="L5" s="5">
-        <v>8</v>
-      </c>
-      <c r="M5" s="5">
-        <v>6</v>
-      </c>
-      <c r="N5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="12">
-        <f>(AVERAGE(J5:K5))*(10^1)*10^2</f>
-        <v>60000</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>194</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>194</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>103</v>
-      </c>
-      <c r="K7" s="5">
-        <v>102</v>
-      </c>
-      <c r="L7" s="5">
-        <v>16</v>
-      </c>
-      <c r="M7" s="5">
-        <v>11</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="12">
-        <f>(AVERAGE(J7:K7))*(10^1)*10^2</f>
-        <v>102500</v>
-      </c>
-      <c r="P7" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D8" s="8"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D9" s="8"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D10" s="8"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D11" s="8"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D16" s="8"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D17" s="8"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D18" s="8"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D19" s="8"/>
-      <c r="Q19" s="9"/>
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
+        <v>100</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE4C3BF-B928-3243-BDC7-197663E9459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15AECAA-D0E0-8C4D-AF13-0A5671B3290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="0" windowWidth="21500" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="6920" yWindow="0" windowWidth="21500" windowHeight="17440" activeTab="1" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="96 Well Plate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Strain</t>
   </si>
@@ -115,13 +117,161 @@
   <si>
     <t>CFU/10 leaf discs
 (avg * dil * 10^2)</t>
+  </si>
+  <si>
+    <t>221 (1)</t>
+  </si>
+  <si>
+    <t>200 (1)
+221 (2)</t>
+  </si>
+  <si>
+    <t>6 (1)
+200 (2)</t>
+  </si>
+  <si>
+    <t>14 (1)
+6 (2)</t>
+  </si>
+  <si>
+    <t>204 (1)
+14 (2)</t>
+  </si>
+  <si>
+    <t>194 (1)
+204 (2)</t>
+  </si>
+  <si>
+    <t>194 (2)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Sample plants
+Plate samples</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Spray plants</t>
+  </si>
+  <si>
+    <t>Make overnights</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>10^-2
+194B3</t>
+  </si>
+  <si>
+    <t>10^-2
+194B2</t>
+  </si>
+  <si>
+    <t>10^-2
+194B1</t>
+  </si>
+  <si>
+    <t>10^-2
+194A3</t>
+  </si>
+  <si>
+    <t>10^-2
+194A2</t>
+  </si>
+  <si>
+    <t>10^-2
+194A1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>10^-1
+194B3</t>
+  </si>
+  <si>
+    <t>10^-1
+194B2</t>
+  </si>
+  <si>
+    <t>10^-1
+194B1</t>
+  </si>
+  <si>
+    <t>10^-1
+194A3</t>
+  </si>
+  <si>
+    <t>10^-1
+194A2</t>
+  </si>
+  <si>
+    <t>10^-1
+194A1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Undiluted 
+194B3</t>
+  </si>
+  <si>
+    <t>Undiluted 
+194B2</t>
+  </si>
+  <si>
+    <t>Undiluted 
+194B1</t>
+  </si>
+  <si>
+    <t>Undiluted 
+194A3</t>
+  </si>
+  <si>
+    <t>Undiluted 
+194A2</t>
+  </si>
+  <si>
+    <t>Undiluted 
+194A1</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,16 +321,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,11 +422,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,24 +461,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -252,6 +480,49 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,28 +864,28 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="15" style="11"/>
+    <col min="1" max="1" width="4.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="15" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -667,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2.1</v>
       </c>
@@ -710,16 +981,16 @@
       <c r="N2" s="7">
         <v>8</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="4">
         <f>AVERAGE(K2:L2)*10^1</f>
         <v>400</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <f>O2*10^2</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2.1</v>
       </c>
@@ -762,16 +1033,16 @@
       <c r="N3" s="7">
         <v>9</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="4">
         <f>AVERAGE(K3:L3)*10^1</f>
         <v>570</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <f t="shared" ref="P3:P7" si="0">O3*10^2</f>
         <v>57000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2.1</v>
       </c>
@@ -814,16 +1085,16 @@
       <c r="N4" s="8">
         <v>11</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="4">
         <f>((AVERAGE(K4:L4)*10^1)+(AVERAGE(M4:N4)*10^2))/2</f>
         <v>1365</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2.1</v>
       </c>
@@ -866,16 +1137,16 @@
       <c r="N5" s="7">
         <v>6</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="4">
         <f>AVERAGE(K5:L5)*10^1</f>
         <v>600</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2.1</v>
       </c>
@@ -918,16 +1189,16 @@
       <c r="N6" s="8">
         <v>19</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="4">
         <f>((L6*10^1)+(AVERAGE(M6:N6)*10^2))/2</f>
         <v>1460</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <f t="shared" si="0"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2.1</v>
       </c>
@@ -970,16 +1241,16 @@
       <c r="N7" s="8">
         <v>11</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="4">
         <f>((AVERAGE(K7:L7)*10^1)+(AVERAGE(M7:N7)*10^2))/2</f>
         <v>1187.5</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <f t="shared" si="0"/>
         <v>118750</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1011,9 +1282,9 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1045,9 +1316,9 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1079,9 +1350,9 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1091,10 +1362,10 @@
       <c r="C11" s="4">
         <v>204</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1113,9 +1384,9 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1125,10 +1396,10 @@
       <c r="C12" s="4">
         <v>204</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1147,9 +1418,9 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1159,10 +1430,10 @@
       <c r="C13" s="4">
         <v>204</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1181,9 +1452,9 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1193,10 +1464,10 @@
       <c r="C14" s="4">
         <v>204</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1215,9 +1486,9 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1227,10 +1498,10 @@
       <c r="C15" s="4">
         <v>204</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1249,9 +1520,9 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1261,10 +1532,10 @@
       <c r="C16" s="4">
         <v>204</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1283,11 +1554,494 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="16">
+        <v>45421</v>
+      </c>
+      <c r="D2" s="16">
+        <v>45422</v>
+      </c>
+      <c r="E2" s="16">
+        <v>45423</v>
+      </c>
+      <c r="F2" s="16">
+        <v>45424</v>
+      </c>
+      <c r="G2" s="16">
+        <v>45425</v>
+      </c>
+      <c r="H2" s="16">
+        <v>45426</v>
+      </c>
+      <c r="I2" s="14">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45425</v>
+      </c>
+      <c r="D3" s="16">
+        <v>45426</v>
+      </c>
+      <c r="E3" s="16">
+        <v>45427</v>
+      </c>
+      <c r="F3" s="16">
+        <v>45428</v>
+      </c>
+      <c r="G3" s="14">
+        <v>45429</v>
+      </c>
+      <c r="H3" s="14">
+        <v>45430</v>
+      </c>
+      <c r="I3" s="14">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="14">
+        <v>45432</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45433</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45434</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45435</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45436</v>
+      </c>
+      <c r="H4" s="14">
+        <v>45437</v>
+      </c>
+      <c r="I4" s="14">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>45435</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45436</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45437</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45438</v>
+      </c>
+      <c r="G5" s="14">
+        <v>45439</v>
+      </c>
+      <c r="H5" s="14">
+        <v>45440</v>
+      </c>
+      <c r="I5" s="14">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14">
+        <v>45438</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45439</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45440</v>
+      </c>
+      <c r="F6" s="14">
+        <v>45441</v>
+      </c>
+      <c r="G6" s="14">
+        <v>45442</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45443</v>
+      </c>
+      <c r="I6" s="14">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D7" s="14">
+        <v>45440</v>
+      </c>
+      <c r="E7" s="14">
+        <v>45441</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45442</v>
+      </c>
+      <c r="G7" s="14">
+        <v>45443</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45444</v>
+      </c>
+      <c r="I7" s="14">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45442</v>
+      </c>
+      <c r="D8" s="14">
+        <v>45443</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45444</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45445</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45446</v>
+      </c>
+      <c r="H8" s="14">
+        <v>45447</v>
+      </c>
+      <c r="I8" s="14">
+        <v>45448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7054ECF7-18CC-5446-997F-9C093F5050B1}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22">
+        <v>11</v>
+      </c>
+      <c r="M1" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15AECAA-D0E0-8C4D-AF13-0A5671B3290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6167A45-FC88-A943-8F8A-8ED71278E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="0" windowWidth="21500" windowHeight="17440" activeTab="1" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>Strain</t>
   </si>
@@ -113,10 +113,6 @@
   </si>
   <si>
     <t>Pseudomonas fluorescence</t>
-  </si>
-  <si>
-    <t>CFU/10 leaf discs
-(avg * dil * 10^2)</t>
   </si>
   <si>
     <t>221 (1)</t>
@@ -261,6 +257,13 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CFU/10 leaf discs
+(avg * 10^2)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +401,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -441,14 +450,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,9 +471,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -523,13 +526,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -864,31 +902,31 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="15" style="10"/>
+    <col min="1" max="1" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="15" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,630 +972,805 @@
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
+      <c r="P1" s="29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2.1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45421</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>194</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>100</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7">
         <v>37</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>43</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>8</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <f>AVERAGE(K2:L2)*10^1</f>
         <v>400</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="28">
         <f>O2*10^2</f>
         <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2.1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>45421</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>194</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7">
         <v>54</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>60</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>6</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>9</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <f>AVERAGE(K3:L3)*10^1</f>
         <v>570</v>
       </c>
-      <c r="P3" s="9">
-        <f t="shared" ref="P3:P7" si="0">O3*10^2</f>
+      <c r="P3" s="28">
+        <f t="shared" ref="P3:P16" si="0">O3*10^2</f>
         <v>57000</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2.1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>45421</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>194</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7">
         <v>108</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>128</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>20</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>11</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f>((AVERAGE(K4:L4)*10^1)+(AVERAGE(M4:N4)*10^2))/2</f>
         <v>1365</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="28">
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2.1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>45421</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>194</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7">
         <v>53</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>67</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>8</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>6</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <f>AVERAGE(K5:L5)*10^1</f>
         <v>600</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="28">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2.1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>45421</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>194</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>132</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>13</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>19</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <f>((L6*10^1)+(AVERAGE(M6:N6)*10^2))/2</f>
         <v>1460</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="28">
         <f t="shared" si="0"/>
         <v>146000</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2.1</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>45421</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>194</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>103</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>102</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>16</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>11</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <f>((AVERAGE(K7:L7)*10^1)+(AVERAGE(M7:N7)*10^2))/2</f>
         <v>1187.5</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="28">
         <f t="shared" si="0"/>
         <v>118750</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>45425</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>194</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="9"/>
+      <c r="I8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3">
+        <v>25</v>
+      </c>
+      <c r="N8" s="3">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3">
+        <f>(AVERAGE(M8:N8))*10^2</f>
+        <v>2300</v>
+      </c>
+      <c r="P8" s="28">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>45425</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>194</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>10</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="9"/>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3">
+        <v>88</v>
+      </c>
+      <c r="N9" s="3">
+        <v>13</v>
+      </c>
+      <c r="O9" s="3">
+        <f>(AVERAGE(M9:N9))*10^2</f>
+        <v>5050</v>
+      </c>
+      <c r="P9" s="28">
+        <f t="shared" si="0"/>
+        <v>505000</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>45425</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>194</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>10</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="9"/>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3">
+        <v>133</v>
+      </c>
+      <c r="L10" s="3">
+        <v>67</v>
+      </c>
+      <c r="M10" s="3">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <f>(((AVERAGE(K10:L10))*10^1)+(M10*10^2))/2</f>
+        <v>1150</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" si="0"/>
+        <v>115000</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>45425</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>204</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>100</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="9"/>
+      <c r="I11" s="3">
+        <v>60</v>
+      </c>
+      <c r="J11" s="3">
+        <v>44</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f>(AVERAGE(I11:J11))</f>
+        <v>52</v>
+      </c>
+      <c r="P11" s="28">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>45425</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>204</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="9"/>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>7</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>45425</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>204</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>100</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="9"/>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="3">
+        <v>55</v>
+      </c>
+      <c r="N13" s="3">
+        <v>44</v>
+      </c>
+      <c r="O13" s="3">
+        <f>(AVERAGE(M13:N13))*10^2</f>
+        <v>4950</v>
+      </c>
+      <c r="P13" s="28">
+        <f t="shared" si="0"/>
+        <v>495000</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>45425</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>204</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>10</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="9"/>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3">
+        <v>89</v>
+      </c>
+      <c r="L14" s="3">
+        <v>105</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f>(AVERAGE(K14:L14))*10^1</f>
+        <v>970</v>
+      </c>
+      <c r="P14" s="28">
+        <f t="shared" si="0"/>
+        <v>97000</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>45425</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>204</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>10</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="9"/>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="3">
+        <v>111</v>
+      </c>
+      <c r="L15" s="3">
+        <v>117</v>
+      </c>
+      <c r="M15" s="3">
+        <v>7</v>
+      </c>
+      <c r="N15" s="3">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <f>(AVERAGE(K15:L15))*10^1</f>
+        <v>1140</v>
+      </c>
+      <c r="P15" s="28">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>45425</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>204</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>10</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="9"/>
+      <c r="I16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="3">
+        <v>90</v>
+      </c>
+      <c r="L16" s="3">
+        <v>120</v>
+      </c>
+      <c r="M16" s="3">
+        <v>11</v>
+      </c>
+      <c r="N16" s="3">
+        <v>21</v>
+      </c>
+      <c r="O16" s="3">
+        <f>(((AVERAGE(K16:L16))*10^1)+((AVERAGE(M16:N16)*10^2)))/2</f>
+        <v>1325</v>
+      </c>
+      <c r="P16" s="28">
+        <f t="shared" si="0"/>
+        <v>132500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:N16">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1567,13 +1780,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -1582,237 +1795,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="I1" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>2.1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14">
         <v>45421</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>45422</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>45423</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>45424</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>45425</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>45426</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="14">
         <v>45425</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>45426</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>45427</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>45428</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>45429</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>45430</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12">
         <v>45432</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>45433</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>45434</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>45435</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>45436</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>45437</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>45438</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>2.4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12">
         <v>45435</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>45436</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>45437</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>45438</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>45439</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>45440</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>2.5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12">
         <v>45438</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>45439</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>45440</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>45441</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>45442</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>45443</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <v>45444</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>2.6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12">
         <v>45439</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45440</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>45441</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>45442</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>45443</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>45444</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>2.7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
         <v>45442</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45443</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>45444</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>45445</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>45446</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>45447</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <v>45448</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1831,217 +2045,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20">
         <v>1</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="20">
         <v>2</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="20">
         <v>3</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="20">
         <v>4</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="20">
         <v>5</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="20">
         <v>6</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="20">
         <v>7</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="20">
         <v>8</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="20">
         <v>9</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="20">
         <v>10</v>
       </c>
-      <c r="L1" s="22">
+      <c r="L1" s="20">
         <v>11</v>
       </c>
-      <c r="M1" s="22">
+      <c r="M1" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="G2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="G3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="A5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="A6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="A7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="A8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6167A45-FC88-A943-8F8A-8ED71278E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A4DD5-2ED9-D240-964C-CEE5DC1C30D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="1" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>Strain</t>
   </si>
@@ -264,6 +264,9 @@
   <si>
     <t>CFU/10 leaf discs
 (avg * 10^2)</t>
+  </si>
+  <si>
+    <t>Block</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,14 +537,30 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -550,11 +569,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -902,11 +916,11 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD8"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1757,18 +1771,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:N16">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>10</formula>
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,15 +1792,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -1795,7 +1812,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1822,10 +1841,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="34">
         <v>2.1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="14">
@@ -1846,15 +1865,15 @@
       <c r="H2" s="14">
         <v>45426</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="14">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="14">
@@ -1869,24 +1888,24 @@
       <c r="F3" s="14">
         <v>45428</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="14">
         <v>45429</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="14">
         <v>45430</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="14">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>45432</v>
       </c>
       <c r="D4" s="12">
@@ -1915,25 +1934,25 @@
       <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="30">
         <v>45435</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="30">
         <v>45436</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="30">
         <v>45437</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="30">
         <v>45438</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="30">
         <v>45439</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="30">
         <v>45440</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="30">
         <v>45441</v>
       </c>
     </row>
@@ -1944,25 +1963,25 @@
       <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="30">
         <v>45438</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="30">
         <v>45439</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="30">
         <v>45440</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="30">
         <v>45441</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="30">
         <v>45442</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="30">
         <v>45443</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="30">
         <v>45444</v>
       </c>
     </row>
@@ -1973,25 +1992,25 @@
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="30">
         <v>45439</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="30">
         <v>45440</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="30">
         <v>45441</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="30">
         <v>45442</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="30">
         <v>45443</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="30">
         <v>45444</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="30">
         <v>45445</v>
       </c>
     </row>
@@ -2002,27 +2021,72 @@
       <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="30">
         <v>45442</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="30">
         <v>45443</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="30">
         <v>45444</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="30">
         <v>45445</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="30">
         <v>45446</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="30">
         <v>45447</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="30">
         <v>45448</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A4DD5-2ED9-D240-964C-CEE5DC1C30D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA5539-0DE1-2A49-BD49-E31B92F85379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="1" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
-    <sheet name="schedule" sheetId="2" r:id="rId2"/>
-    <sheet name="96 Well Plate" sheetId="3" r:id="rId3"/>
+    <sheet name="Sara's Data" sheetId="4" r:id="rId2"/>
+    <sheet name="schedule" sheetId="2" r:id="rId3"/>
+    <sheet name="96 Well Plate" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="79">
   <si>
     <t>Strain</t>
   </si>
@@ -55,18 +56,9 @@
     <t>plated (uL)</t>
   </si>
   <si>
-    <t>Date (Overnights)</t>
-  </si>
-  <si>
-    <t>Bio Rep</t>
-  </si>
-  <si>
     <t>field sample #8</t>
   </si>
   <si>
-    <t>Pseudomonas parallactic</t>
-  </si>
-  <si>
     <t>Undiluted Rep 1</t>
   </si>
   <si>
@@ -110,9 +102,6 @@
   </si>
   <si>
     <t>field sample #17</t>
-  </si>
-  <si>
-    <t>Pseudomonas fluorescence</t>
   </si>
   <si>
     <t>221 (1)</t>
@@ -267,6 +256,51 @@
   </si>
   <si>
     <t>Block</t>
+  </si>
+  <si>
+    <t>P. parallactic</t>
+  </si>
+  <si>
+    <t>P. fluorescence</t>
+  </si>
+  <si>
+    <t>Cit7</t>
+  </si>
+  <si>
+    <t>P. syringae</t>
+  </si>
+  <si>
+    <t>Overnights</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Havi</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na </t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b728a </t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>&lt;1.00E+03</t>
   </si>
 </sst>
 </file>
@@ -277,7 +311,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,39 +326,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,6 +346,44 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -411,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -449,68 +492,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,36 +554,160 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00D8"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -914,896 +1061,3781 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="15" style="8"/>
+    <col min="1" max="1" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="15" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="22">
+        <v>-80</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>45421</v>
+      </c>
+      <c r="D2" s="25">
+        <v>194</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1">
-        <v>-80</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="25">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25">
+        <v>100</v>
+      </c>
+      <c r="J2" s="28">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="29">
+        <v>37</v>
+      </c>
+      <c r="M2" s="29">
+        <v>43</v>
+      </c>
+      <c r="N2" s="28">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="O2" s="28">
+        <v>8</v>
+      </c>
+      <c r="P2" s="25">
+        <f>AVERAGE(L2:M2)*10^1</f>
+        <v>400</v>
+      </c>
+      <c r="Q2" s="53">
+        <f>P2*10^2</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>45421</v>
+      </c>
+      <c r="D3" s="25">
+        <v>194</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="25">
+        <v>10</v>
+      </c>
+      <c r="I3" s="25">
+        <v>100</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="29">
+        <v>54</v>
+      </c>
+      <c r="M3" s="29">
+        <v>60</v>
+      </c>
+      <c r="N3" s="28">
+        <v>6</v>
+      </c>
+      <c r="O3" s="28">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P3" s="25">
+        <f>AVERAGE(L3:M3)*10^1</f>
+        <v>570</v>
+      </c>
+      <c r="Q3" s="53">
+        <f t="shared" ref="Q3:Q16" si="0">P3*10^2</f>
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>45421</v>
+      </c>
+      <c r="D4" s="25">
+        <v>194</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="25">
+        <v>10</v>
+      </c>
+      <c r="I4" s="25">
+        <v>100</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="29">
+        <v>108</v>
+      </c>
+      <c r="M4" s="29">
+        <v>128</v>
+      </c>
+      <c r="N4" s="29">
+        <v>20</v>
+      </c>
+      <c r="O4" s="29">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45421</v>
-      </c>
-      <c r="C2" s="3">
-        <v>194</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
-        <v>100</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7">
-        <v>37</v>
-      </c>
-      <c r="L2" s="7">
-        <v>43</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3">
-        <f>AVERAGE(K2:L2)*10^1</f>
-        <v>400</v>
-      </c>
-      <c r="P2" s="28">
-        <f>O2*10^2</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45421</v>
-      </c>
-      <c r="C3" s="3">
-        <v>194</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7">
-        <v>54</v>
-      </c>
-      <c r="L3" s="7">
-        <v>60</v>
-      </c>
-      <c r="M3" s="6">
-        <v>6</v>
-      </c>
-      <c r="N3" s="6">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3">
-        <f>AVERAGE(K3:L3)*10^1</f>
-        <v>570</v>
-      </c>
-      <c r="P3" s="28">
-        <f t="shared" ref="P3:P16" si="0">O3*10^2</f>
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45421</v>
-      </c>
-      <c r="C4" s="3">
-        <v>194</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7">
-        <v>108</v>
-      </c>
-      <c r="L4" s="7">
-        <v>128</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11</v>
-      </c>
-      <c r="O4" s="3">
-        <f>((AVERAGE(K4:L4)*10^1)+(AVERAGE(M4:N4)*10^2))/2</f>
+      <c r="P4" s="25">
+        <f>((AVERAGE(L4:M4)*10^1)+(AVERAGE(N4:O4)*10^2))/2</f>
         <v>1365</v>
       </c>
-      <c r="P4" s="28">
+      <c r="Q4" s="53">
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="25">
         <v>2.1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="26">
         <v>45421</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="25">
         <v>194</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="25">
+        <v>10</v>
+      </c>
+      <c r="I5" s="25">
+        <v>100</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="29">
+        <v>53</v>
+      </c>
+      <c r="M5" s="29">
+        <v>67</v>
+      </c>
+      <c r="N5" s="28">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7">
-        <v>53</v>
-      </c>
-      <c r="L5" s="7">
-        <v>67</v>
-      </c>
-      <c r="M5" s="6">
-        <v>8</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="O5" s="28">
         <v>6</v>
       </c>
-      <c r="O5" s="3">
-        <f>AVERAGE(K5:L5)*10^1</f>
+      <c r="P5" s="25">
+        <f>AVERAGE(L5:M5)*10^1</f>
         <v>600</v>
       </c>
-      <c r="P5" s="28">
+      <c r="Q5" s="53">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="25">
         <v>2.1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="26">
         <v>45421</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="25">
         <v>194</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="25">
+        <v>10</v>
+      </c>
+      <c r="I6" s="25">
+        <v>100</v>
+      </c>
+      <c r="J6" s="28">
+        <v>3</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1</v>
+      </c>
+      <c r="L6" s="28">
+        <v>1</v>
+      </c>
+      <c r="M6" s="29">
+        <v>132</v>
+      </c>
+      <c r="N6" s="29">
+        <v>13</v>
+      </c>
+      <c r="O6" s="29">
         <v>19</v>
       </c>
-      <c r="G6" s="3">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <v>100</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>132</v>
-      </c>
-      <c r="M6" s="7">
-        <v>13</v>
-      </c>
-      <c r="N6" s="7">
-        <v>19</v>
-      </c>
-      <c r="O6" s="3">
-        <f>((L6*10^1)+(AVERAGE(M6:N6)*10^2))/2</f>
+      <c r="P6" s="25">
+        <f>((M6*10^1)+(AVERAGE(N6:O6)*10^2))/2</f>
         <v>1460</v>
       </c>
-      <c r="P6" s="28">
+      <c r="Q6" s="53">
         <f t="shared" si="0"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="25">
         <v>2.1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="26">
         <v>45421</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="25">
         <v>194</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>100</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="E7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="25">
+        <v>10</v>
+      </c>
+      <c r="I7" s="25">
+        <v>100</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="28">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="29">
         <v>103</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="29">
         <v>102</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="29">
         <v>16</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="29">
         <v>11</v>
       </c>
-      <c r="O7" s="3">
-        <f>((AVERAGE(K7:L7)*10^1)+(AVERAGE(M7:N7)*10^2))/2</f>
+      <c r="P7" s="25">
+        <f>((AVERAGE(L7:M7)*10^1)+(AVERAGE(N7:O7)*10^2))/2</f>
         <v>1187.5</v>
       </c>
-      <c r="P7" s="28">
+      <c r="Q7" s="53">
         <f t="shared" si="0"/>
         <v>118750</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="26">
         <v>45425</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="25">
         <v>194</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="E8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="25">
+        <v>10</v>
+      </c>
+      <c r="I8" s="25">
+        <v>100</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="25">
+        <v>25</v>
+      </c>
+      <c r="O8" s="25">
         <v>21</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="3">
-        <v>25</v>
-      </c>
-      <c r="N8" s="3">
-        <v>21</v>
-      </c>
-      <c r="O8" s="3">
-        <f>(AVERAGE(M8:N8))*10^2</f>
+      <c r="P8" s="25">
+        <f>(AVERAGE(N8:O8))*10^2</f>
         <v>2300</v>
       </c>
-      <c r="P8" s="28">
+      <c r="Q8" s="53">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="26">
         <v>45425</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="25">
         <v>194</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="E9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="25">
+        <v>10</v>
+      </c>
+      <c r="I9" s="25">
+        <v>100</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="25">
         <v>88</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="25">
         <v>13</v>
       </c>
-      <c r="O9" s="3">
-        <f>(AVERAGE(M9:N9))*10^2</f>
+      <c r="P9" s="25">
+        <f>(AVERAGE(N9:O9))*10^2</f>
         <v>5050</v>
       </c>
-      <c r="P9" s="28">
+      <c r="Q9" s="53">
         <f t="shared" si="0"/>
         <v>505000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="26">
         <v>45425</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="25">
         <v>194</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="25">
+        <v>10</v>
+      </c>
+      <c r="I10" s="25">
+        <v>100</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="25">
+        <v>133</v>
+      </c>
+      <c r="M10" s="25">
+        <v>67</v>
+      </c>
+      <c r="N10" s="25">
+        <v>13</v>
+      </c>
+      <c r="O10" s="25">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3">
-        <v>133</v>
-      </c>
-      <c r="L10" s="3">
-        <v>67</v>
-      </c>
-      <c r="M10" s="3">
-        <v>13</v>
-      </c>
-      <c r="N10" s="3">
-        <v>8</v>
-      </c>
-      <c r="O10" s="3">
-        <f>(((AVERAGE(K10:L10))*10^1)+(M10*10^2))/2</f>
+      <c r="P10" s="25">
+        <f>(((AVERAGE(L10:M10))*10^1)+(N10*10^2))/2</f>
         <v>1150</v>
       </c>
-      <c r="P10" s="28">
+      <c r="Q10" s="53">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="26">
         <v>45425</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="25">
         <v>204</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="E11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="25">
+        <v>10</v>
+      </c>
+      <c r="I11" s="25">
+        <v>100</v>
+      </c>
+      <c r="J11" s="25">
         <v>60</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="25">
         <v>44</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="25">
         <v>6</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="25">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="25">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="25">
         <v>0</v>
       </c>
-      <c r="O11" s="3">
-        <f>(AVERAGE(I11:J11))</f>
+      <c r="P11" s="25">
+        <f>(AVERAGE(J11:K11))</f>
         <v>52</v>
       </c>
-      <c r="P11" s="28">
+      <c r="Q11" s="53">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="26">
         <v>45425</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="25">
         <v>204</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="E12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="25">
+        <v>10</v>
+      </c>
+      <c r="I12" s="25">
+        <v>100</v>
+      </c>
+      <c r="J12" s="25">
         <v>4</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="25">
         <v>1</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="25">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="25">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="25">
         <v>7</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="P12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C13" s="26">
+        <v>45425</v>
+      </c>
+      <c r="D13" s="25">
+        <v>204</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45425</v>
-      </c>
-      <c r="C13" s="3">
-        <v>204</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3">
-        <v>100</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="G13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="25">
+        <v>10</v>
+      </c>
+      <c r="I13" s="25">
+        <v>100</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="25">
         <v>55</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="25">
         <v>44</v>
       </c>
-      <c r="O13" s="3">
-        <f>(AVERAGE(M13:N13))*10^2</f>
+      <c r="P13" s="25">
+        <f>(AVERAGE(N13:O13))*10^2</f>
         <v>4950</v>
       </c>
-      <c r="P13" s="28">
+      <c r="Q13" s="53">
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="26">
         <v>45425</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="25">
         <v>204</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="25">
+        <v>10</v>
+      </c>
+      <c r="I14" s="25">
+        <v>100</v>
+      </c>
+      <c r="J14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="25">
         <v>89</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="25">
         <v>105</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="25">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
-        <f>(AVERAGE(K14:L14))*10^1</f>
+      <c r="P14" s="25">
+        <f>(AVERAGE(L14:M14))*10^1</f>
         <v>970</v>
       </c>
-      <c r="P14" s="28">
+      <c r="Q14" s="53">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="26">
         <v>45425</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="25">
         <v>204</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="E15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="25">
+        <v>10</v>
+      </c>
+      <c r="I15" s="25">
+        <v>100</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="25">
         <v>111</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="25">
         <v>117</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="25">
         <v>7</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="25">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <f>(AVERAGE(K15:L15))*10^1</f>
+      <c r="P15" s="25">
+        <f>(AVERAGE(L15:M15))*10^1</f>
         <v>1140</v>
       </c>
-      <c r="P15" s="28">
+      <c r="Q15" s="53">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="26">
         <v>45425</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="25">
         <v>204</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="F16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="25">
+        <v>10</v>
+      </c>
+      <c r="I16" s="25">
+        <v>100</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="25">
+        <v>90</v>
+      </c>
+      <c r="M16" s="25">
+        <v>120</v>
+      </c>
+      <c r="N16" s="25">
+        <v>11</v>
+      </c>
+      <c r="O16" s="25">
         <v>21</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3">
-        <v>90</v>
-      </c>
-      <c r="L16" s="3">
-        <v>120</v>
-      </c>
-      <c r="M16" s="3">
-        <v>11</v>
-      </c>
-      <c r="N16" s="3">
-        <v>21</v>
-      </c>
-      <c r="O16" s="3">
-        <f>(((AVERAGE(K16:L16))*10^1)+((AVERAGE(M16:N16)*10^2)))/2</f>
+      <c r="P16" s="25">
+        <f>(((AVERAGE(L16:M16))*10^1)+((AVERAGE(N16:O16)*10^2)))/2</f>
         <v>1325</v>
       </c>
-      <c r="P16" s="28">
+      <c r="Q16" s="53">
         <f t="shared" si="0"/>
         <v>132500</v>
       </c>
     </row>
+    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C17" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D17" s="25">
+        <v>204</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D18" s="25">
+        <v>204</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D19" s="25">
+        <v>204</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C20" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D20" s="25">
+        <v>14</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="31"/>
+    </row>
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C21" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D21" s="25">
+        <v>14</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C22" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D22" s="25">
+        <v>14</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C23" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D23" s="25">
+        <v>14</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="31"/>
+    </row>
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D24" s="25">
+        <v>14</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C25" s="26">
+        <v>45432</v>
+      </c>
+      <c r="D25" s="25">
+        <v>14</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="31"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I2:N16">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I2)))</formula>
+  <conditionalFormatting sqref="J2:O16">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
+  <dimension ref="A1:Z61"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" style="35"/>
+    <col min="16" max="26" width="38.33203125" style="36"/>
+    <col min="27" max="16384" width="38.33203125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="39">
+        <v>-80</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="37">
+        <v>3</v>
+      </c>
+      <c r="C2" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D2" s="44">
+        <v>205</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="25">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25">
+        <v>100</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="37">
+        <v>11</v>
+      </c>
+      <c r="M2" s="44">
+        <f>L2*10^2</f>
+        <v>1100</v>
+      </c>
+      <c r="N2" s="46">
+        <f>M2*10^2</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D3" s="44">
+        <v>205</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="25">
+        <v>10</v>
+      </c>
+      <c r="I3" s="25">
+        <v>100</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="37">
+        <v>17</v>
+      </c>
+      <c r="M3" s="44">
+        <f>L3*10^2</f>
+        <v>1700</v>
+      </c>
+      <c r="N3" s="46">
+        <f>M3*10^2</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="48">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49">
+        <v>45410</v>
+      </c>
+      <c r="D4" s="50">
+        <v>205</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="30">
+        <v>10</v>
+      </c>
+      <c r="I4" s="30">
+        <v>100</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="48">
+        <v>5</v>
+      </c>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="37">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D5" s="44">
+        <v>215</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="25">
+        <v>10</v>
+      </c>
+      <c r="I5" s="25">
+        <v>100</v>
+      </c>
+      <c r="J5" s="37">
+        <v>4</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="37">
+        <v>3</v>
+      </c>
+      <c r="C6" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D6" s="44">
+        <v>215</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="25">
+        <v>10</v>
+      </c>
+      <c r="I6" s="25">
+        <v>100</v>
+      </c>
+      <c r="J6" s="37">
+        <v>3</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="37">
+        <v>3</v>
+      </c>
+      <c r="C7" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D7" s="44">
+        <v>215</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="25">
+        <v>10</v>
+      </c>
+      <c r="I7" s="25">
+        <v>100</v>
+      </c>
+      <c r="J7" s="37">
+        <v>1</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="37">
+        <v>3</v>
+      </c>
+      <c r="C8" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D8" s="44">
+        <v>216</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="25">
+        <v>10</v>
+      </c>
+      <c r="I8" s="25">
+        <v>100</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="37">
+        <v>22</v>
+      </c>
+      <c r="L8" s="37">
+        <v>5</v>
+      </c>
+      <c r="M8" s="44">
+        <f>K8*10</f>
+        <v>220</v>
+      </c>
+      <c r="N8" s="46">
+        <f>M8*10^2</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="37">
+        <v>3</v>
+      </c>
+      <c r="C9" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D9" s="44">
+        <v>216</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="25">
+        <v>10</v>
+      </c>
+      <c r="I9" s="25">
+        <v>100</v>
+      </c>
+      <c r="J9" s="37">
+        <v>20</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0</v>
+      </c>
+      <c r="M9" s="44">
+        <f>J9</f>
+        <v>20</v>
+      </c>
+      <c r="N9" s="46">
+        <f>M9*10^2</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="38">
+        <v>45410</v>
+      </c>
+      <c r="D10" s="44">
+        <v>216</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="25">
+        <v>10</v>
+      </c>
+      <c r="I10" s="25">
+        <v>100</v>
+      </c>
+      <c r="J10" s="37">
+        <v>9</v>
+      </c>
+      <c r="K10" s="37">
+        <v>2</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="37">
+        <v>4</v>
+      </c>
+      <c r="C11" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="25">
+        <v>10</v>
+      </c>
+      <c r="I11" s="25">
+        <v>100</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="37">
+        <v>36</v>
+      </c>
+      <c r="M11" s="44">
+        <f>L11*10^2</f>
+        <v>3600</v>
+      </c>
+      <c r="N11" s="46">
+        <f>M11*10^2</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="37">
+        <v>4</v>
+      </c>
+      <c r="C12" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="25">
+        <v>10</v>
+      </c>
+      <c r="I12" s="25">
+        <v>100</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="37">
+        <v>24</v>
+      </c>
+      <c r="L12" s="37">
+        <v>1</v>
+      </c>
+      <c r="M12" s="44">
+        <f>K12*10</f>
+        <v>240</v>
+      </c>
+      <c r="N12" s="46">
+        <f t="shared" ref="N12:N13" si="0">M12*10^2</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="37">
+        <v>4</v>
+      </c>
+      <c r="C13" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="25">
+        <v>10</v>
+      </c>
+      <c r="I13" s="25">
+        <v>100</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="37">
+        <v>25</v>
+      </c>
+      <c r="M13" s="44">
+        <f>L13*10^2</f>
+        <v>2500</v>
+      </c>
+      <c r="N13" s="46">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="37">
+        <v>4</v>
+      </c>
+      <c r="C14" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D14" s="44">
+        <v>205</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="25">
+        <v>10</v>
+      </c>
+      <c r="I14" s="25">
+        <v>100</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37">
+        <v>2</v>
+      </c>
+      <c r="L14" s="37">
+        <v>1</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="37">
+        <v>4</v>
+      </c>
+      <c r="C15" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D15" s="44">
+        <v>205</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="25">
+        <v>10</v>
+      </c>
+      <c r="I15" s="25">
+        <v>100</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37">
+        <v>31</v>
+      </c>
+      <c r="L15" s="37">
+        <v>2</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" ref="M15:M16" si="1">K15*10</f>
+        <v>310</v>
+      </c>
+      <c r="N15" s="46">
+        <f t="shared" ref="N15:N16" si="2">M15*10^2</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="37">
+        <v>4</v>
+      </c>
+      <c r="C16" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D16" s="44">
+        <v>205</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="25">
+        <v>10</v>
+      </c>
+      <c r="I16" s="25">
+        <v>100</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37">
+        <v>30</v>
+      </c>
+      <c r="L16" s="37">
+        <v>2</v>
+      </c>
+      <c r="M16" s="44">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="N16" s="46">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="37">
+        <v>4</v>
+      </c>
+      <c r="C17" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D17" s="44">
+        <v>215</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="25">
+        <v>10</v>
+      </c>
+      <c r="I17" s="25">
+        <v>100</v>
+      </c>
+      <c r="J17" s="37">
+        <v>1</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="37">
+        <v>4</v>
+      </c>
+      <c r="C18" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D18" s="44">
+        <v>215</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="25">
+        <v>10</v>
+      </c>
+      <c r="I18" s="25">
+        <v>100</v>
+      </c>
+      <c r="J18" s="37">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="37">
+        <v>4</v>
+      </c>
+      <c r="C19" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D19" s="44">
+        <v>215</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="25">
+        <v>10</v>
+      </c>
+      <c r="I19" s="25">
+        <v>100</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="48">
+        <v>4</v>
+      </c>
+      <c r="C20" s="49">
+        <v>45417</v>
+      </c>
+      <c r="D20" s="50">
+        <v>216</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="30">
+        <v>10</v>
+      </c>
+      <c r="I20" s="30">
+        <v>100</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="50"/>
+      <c r="N20" s="51"/>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="37">
+        <v>4</v>
+      </c>
+      <c r="C21" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D21" s="44">
+        <v>216</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="25">
+        <v>10</v>
+      </c>
+      <c r="I21" s="25">
+        <v>100</v>
+      </c>
+      <c r="J21" s="37">
+        <v>47</v>
+      </c>
+      <c r="K21" s="37">
+        <v>4</v>
+      </c>
+      <c r="L21" s="37">
+        <v>2</v>
+      </c>
+      <c r="M21" s="44">
+        <f t="shared" ref="M21:M22" si="3">J21</f>
+        <v>47</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" ref="N21:N26" si="4">M21*10^2</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="37">
+        <v>4</v>
+      </c>
+      <c r="C22" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D22" s="44">
+        <v>216</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="25">
+        <v>10</v>
+      </c>
+      <c r="I22" s="25">
+        <v>100</v>
+      </c>
+      <c r="J22" s="37">
+        <v>39</v>
+      </c>
+      <c r="K22" s="37">
+        <v>4</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="44">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="N22" s="46">
+        <f t="shared" si="4"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="37">
+        <v>5</v>
+      </c>
+      <c r="C23" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D23" s="44">
+        <v>220</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="25">
+        <v>10</v>
+      </c>
+      <c r="I23" s="25">
+        <v>100</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="37">
+        <v>40</v>
+      </c>
+      <c r="L23" s="37">
+        <v>4</v>
+      </c>
+      <c r="M23" s="44">
+        <f t="shared" ref="M23:M26" si="5">K23*10</f>
+        <v>400</v>
+      </c>
+      <c r="N23" s="46">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="37">
+        <v>5</v>
+      </c>
+      <c r="C24" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D24" s="44">
+        <v>220</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="25">
+        <v>10</v>
+      </c>
+      <c r="I24" s="25">
+        <v>100</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="37">
+        <v>36</v>
+      </c>
+      <c r="L24" s="37">
+        <v>1</v>
+      </c>
+      <c r="M24" s="44">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="N24" s="46">
+        <f t="shared" si="4"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="37">
+        <v>5</v>
+      </c>
+      <c r="C25" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D25" s="44">
+        <v>220</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="25">
+        <v>100</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="37">
+        <v>29</v>
+      </c>
+      <c r="L25" s="37">
+        <v>2</v>
+      </c>
+      <c r="M25" s="44">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="N25" s="46">
+        <f t="shared" si="4"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="37">
+        <v>5</v>
+      </c>
+      <c r="C26" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D26" s="44">
+        <v>227</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="25">
+        <v>10</v>
+      </c>
+      <c r="I26" s="25">
+        <v>100</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="37">
+        <v>22</v>
+      </c>
+      <c r="L26" s="37">
+        <v>2</v>
+      </c>
+      <c r="M26" s="44">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="N26" s="46">
+        <f t="shared" si="4"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="37">
+        <v>5</v>
+      </c>
+      <c r="C27" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D27" s="44">
+        <v>227</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="25">
+        <v>10</v>
+      </c>
+      <c r="I27" s="25">
+        <v>100</v>
+      </c>
+      <c r="J27" s="37">
+        <v>1</v>
+      </c>
+      <c r="K27" s="37">
+        <v>1</v>
+      </c>
+      <c r="L27" s="37">
+        <v>0</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="37">
+        <v>5</v>
+      </c>
+      <c r="C28" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D28" s="44">
+        <v>227</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="25">
+        <v>10</v>
+      </c>
+      <c r="I28" s="25">
+        <v>100</v>
+      </c>
+      <c r="J28" s="37">
+        <v>3</v>
+      </c>
+      <c r="K28" s="37">
+        <v>2</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="37">
+        <v>5</v>
+      </c>
+      <c r="C29" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D29" s="44">
+        <v>228</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="25">
+        <v>10</v>
+      </c>
+      <c r="I29" s="25">
+        <v>100</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="37">
+        <v>42</v>
+      </c>
+      <c r="L29" s="37">
+        <v>7</v>
+      </c>
+      <c r="M29" s="44">
+        <f>K29*10</f>
+        <v>420</v>
+      </c>
+      <c r="N29" s="46">
+        <f>M29*10^2</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="37">
+        <v>5</v>
+      </c>
+      <c r="C30" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D30" s="44">
+        <v>228</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="25">
+        <v>10</v>
+      </c>
+      <c r="I30" s="25">
+        <v>100</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="37">
+        <v>0</v>
+      </c>
+      <c r="L30" s="37">
+        <v>0</v>
+      </c>
+      <c r="M30" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="48">
+        <v>5</v>
+      </c>
+      <c r="C31" s="49">
+        <v>45424</v>
+      </c>
+      <c r="D31" s="50">
+        <v>228</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="30">
+        <v>10</v>
+      </c>
+      <c r="I31" s="30">
+        <v>100</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="48">
+        <v>38</v>
+      </c>
+      <c r="L31" s="48">
+        <v>2</v>
+      </c>
+      <c r="M31" s="50">
+        <f>K31*10</f>
+        <v>380</v>
+      </c>
+      <c r="N31" s="51"/>
+    </row>
+    <row r="32" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="48">
+        <v>6</v>
+      </c>
+      <c r="C32" s="49">
+        <v>45431</v>
+      </c>
+      <c r="D32" s="50">
+        <v>220</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="30">
+        <v>10</v>
+      </c>
+      <c r="I32" s="30">
+        <v>100</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="48">
+        <v>30</v>
+      </c>
+      <c r="M32" s="50">
+        <f>L32*10^2</f>
+        <v>3000</v>
+      </c>
+      <c r="N32" s="51"/>
+    </row>
+    <row r="33" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="48">
+        <v>6</v>
+      </c>
+      <c r="C33" s="49">
+        <v>45431</v>
+      </c>
+      <c r="D33" s="50">
+        <v>220</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="30">
+        <v>10</v>
+      </c>
+      <c r="I33" s="30">
+        <v>100</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="48">
+        <v>4</v>
+      </c>
+      <c r="M33" s="50"/>
+      <c r="N33" s="51"/>
+    </row>
+    <row r="34" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="48">
+        <v>6</v>
+      </c>
+      <c r="C34" s="49">
+        <v>45431</v>
+      </c>
+      <c r="D34" s="50">
+        <v>220</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="30">
+        <v>10</v>
+      </c>
+      <c r="I34" s="30">
+        <v>100</v>
+      </c>
+      <c r="J34" s="48">
+        <v>28</v>
+      </c>
+      <c r="K34" s="48">
+        <v>3</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34" s="50">
+        <f>J34</f>
+        <v>28</v>
+      </c>
+      <c r="N34" s="51"/>
+    </row>
+    <row r="35" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="48">
+        <v>6</v>
+      </c>
+      <c r="C35" s="49">
+        <v>45431</v>
+      </c>
+      <c r="D35" s="50">
+        <v>228</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="30">
+        <v>10</v>
+      </c>
+      <c r="I35" s="30">
+        <v>100</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+    </row>
+    <row r="36" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="48">
+        <v>6</v>
+      </c>
+      <c r="C36" s="49">
+        <v>45431</v>
+      </c>
+      <c r="D36" s="50">
+        <v>228</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="30">
+        <v>10</v>
+      </c>
+      <c r="I36" s="30">
+        <v>100</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="48">
+        <v>23</v>
+      </c>
+      <c r="L36" s="48">
+        <v>2</v>
+      </c>
+      <c r="M36" s="50">
+        <f t="shared" ref="M36:M37" si="6">K36*10</f>
+        <v>230</v>
+      </c>
+      <c r="N36" s="51"/>
+    </row>
+    <row r="37" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="48">
+        <v>6</v>
+      </c>
+      <c r="C37" s="49">
+        <v>45431</v>
+      </c>
+      <c r="D37" s="50">
+        <v>228</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="30">
+        <v>10</v>
+      </c>
+      <c r="I37" s="30">
+        <v>100</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="48">
+        <v>65</v>
+      </c>
+      <c r="L37" s="48">
+        <v>3</v>
+      </c>
+      <c r="M37" s="50">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+      <c r="N37" s="51"/>
+    </row>
+    <row r="38" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="48">
+        <v>7</v>
+      </c>
+      <c r="C38" s="49">
+        <v>45438</v>
+      </c>
+      <c r="D38" s="50">
+        <v>216</v>
+      </c>
+      <c r="E38" s="50"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="30">
+        <v>10</v>
+      </c>
+      <c r="I38" s="30">
+        <v>100</v>
+      </c>
+      <c r="J38" s="48">
+        <v>47</v>
+      </c>
+      <c r="K38" s="48">
+        <v>1</v>
+      </c>
+      <c r="L38" s="48">
+        <v>0</v>
+      </c>
+      <c r="M38" s="50">
+        <f>J38</f>
+        <v>47</v>
+      </c>
+      <c r="N38" s="51"/>
+    </row>
+    <row r="39" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="48">
+        <v>7</v>
+      </c>
+      <c r="C39" s="49">
+        <v>45438</v>
+      </c>
+      <c r="D39" s="50">
+        <v>216</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="30">
+        <v>10</v>
+      </c>
+      <c r="I39" s="30">
+        <v>100</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="48">
+        <v>15</v>
+      </c>
+      <c r="L39" s="48">
+        <v>0</v>
+      </c>
+      <c r="M39" s="50">
+        <f>K39*10</f>
+        <v>150</v>
+      </c>
+      <c r="N39" s="51"/>
+    </row>
+    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="37">
+        <v>7</v>
+      </c>
+      <c r="C40" s="38">
+        <v>45438</v>
+      </c>
+      <c r="D40" s="44">
+        <v>216</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="25">
+        <v>10</v>
+      </c>
+      <c r="I40" s="25">
+        <v>100</v>
+      </c>
+      <c r="J40" s="37">
+        <v>2</v>
+      </c>
+      <c r="K40" s="37">
+        <v>0</v>
+      </c>
+      <c r="L40" s="37">
+        <v>0</v>
+      </c>
+      <c r="M40" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="37">
+        <v>7</v>
+      </c>
+      <c r="C41" s="38">
+        <v>45438</v>
+      </c>
+      <c r="D41" s="44">
+        <v>220</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="25">
+        <v>10</v>
+      </c>
+      <c r="I41" s="25">
+        <v>100</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="37">
+        <v>33</v>
+      </c>
+      <c r="M41" s="44">
+        <f t="shared" ref="M41:N42" si="7">L41*10^2</f>
+        <v>3300</v>
+      </c>
+      <c r="N41" s="46">
+        <f t="shared" si="7"/>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="37">
+        <v>7</v>
+      </c>
+      <c r="C42" s="38">
+        <v>45438</v>
+      </c>
+      <c r="D42" s="44">
+        <v>220</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="25">
+        <v>10</v>
+      </c>
+      <c r="I42" s="25">
+        <v>100</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="37">
+        <v>47</v>
+      </c>
+      <c r="M42" s="44">
+        <f t="shared" si="7"/>
+        <v>4700</v>
+      </c>
+      <c r="N42" s="46">
+        <f t="shared" si="7"/>
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="48">
+        <v>7</v>
+      </c>
+      <c r="C43" s="49">
+        <v>45438</v>
+      </c>
+      <c r="D43" s="50">
+        <v>220</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="30">
+        <v>10</v>
+      </c>
+      <c r="I43" s="30">
+        <v>100</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="48">
+        <v>7</v>
+      </c>
+      <c r="M43" s="50"/>
+      <c r="N43" s="51"/>
+    </row>
+    <row r="44" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="48">
+        <v>7</v>
+      </c>
+      <c r="C44" s="49">
+        <v>45438</v>
+      </c>
+      <c r="D44" s="50">
+        <v>228</v>
+      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="30">
+        <v>10</v>
+      </c>
+      <c r="I44" s="30">
+        <v>100</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="50"/>
+      <c r="N44" s="51"/>
+    </row>
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="37">
+        <v>7</v>
+      </c>
+      <c r="C45" s="38">
+        <v>45438</v>
+      </c>
+      <c r="D45" s="44">
+        <v>228</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="25">
+        <v>10</v>
+      </c>
+      <c r="I45" s="25">
+        <v>100</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" s="37">
+        <v>12</v>
+      </c>
+      <c r="L45" s="37">
+        <v>0</v>
+      </c>
+      <c r="M45" s="44">
+        <f>K45*10</f>
+        <v>120</v>
+      </c>
+      <c r="N45" s="46">
+        <f>M45*10^2</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="37">
+        <v>7</v>
+      </c>
+      <c r="C46" s="38">
+        <v>45438</v>
+      </c>
+      <c r="D46" s="44">
+        <v>228</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="25">
+        <v>10</v>
+      </c>
+      <c r="I46" s="25">
+        <v>100</v>
+      </c>
+      <c r="J46" s="37">
+        <v>9</v>
+      </c>
+      <c r="K46" s="37">
+        <v>0</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0</v>
+      </c>
+      <c r="M46" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="37">
+        <v>8</v>
+      </c>
+      <c r="C47" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D47" s="44">
+        <v>227</v>
+      </c>
+      <c r="E47" s="44"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="25">
+        <v>10</v>
+      </c>
+      <c r="I47" s="25">
+        <v>100</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="37">
+        <v>87</v>
+      </c>
+      <c r="L47" s="37">
+        <v>9</v>
+      </c>
+      <c r="M47" s="44">
+        <f>K47*10</f>
+        <v>870</v>
+      </c>
+      <c r="N47" s="46">
+        <f t="shared" ref="N47:N52" si="8">M47*10^2</f>
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="37">
+        <v>8</v>
+      </c>
+      <c r="C48" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D48" s="44">
+        <v>227</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="25">
+        <v>10</v>
+      </c>
+      <c r="I48" s="25">
+        <v>100</v>
+      </c>
+      <c r="J48" s="37">
+        <v>25</v>
+      </c>
+      <c r="K48" s="37">
+        <v>1</v>
+      </c>
+      <c r="L48" s="37">
+        <v>0</v>
+      </c>
+      <c r="M48" s="44">
+        <f>J48</f>
+        <v>25</v>
+      </c>
+      <c r="N48" s="46">
+        <f t="shared" si="8"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="37">
+        <v>8</v>
+      </c>
+      <c r="C49" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D49" s="44">
+        <v>227</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="25">
+        <v>10</v>
+      </c>
+      <c r="I49" s="25">
+        <v>100</v>
+      </c>
+      <c r="J49" s="37">
+        <v>91</v>
+      </c>
+      <c r="K49" s="37">
+        <v>13</v>
+      </c>
+      <c r="L49" s="37">
+        <v>1</v>
+      </c>
+      <c r="M49" s="44">
+        <f>((K49*10)+J49)/2</f>
+        <v>110.5</v>
+      </c>
+      <c r="N49" s="46">
+        <f t="shared" si="8"/>
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="37">
+        <v>8</v>
+      </c>
+      <c r="C50" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D50" s="44">
+        <v>227</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="25">
+        <v>10</v>
+      </c>
+      <c r="I50" s="25">
+        <v>100</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="37">
+        <v>144</v>
+      </c>
+      <c r="L50" s="37">
+        <v>2</v>
+      </c>
+      <c r="M50" s="44">
+        <f t="shared" ref="M49:M50" si="9">K50*10</f>
+        <v>1440</v>
+      </c>
+      <c r="N50" s="46">
+        <f t="shared" si="8"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="37">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D51" s="44">
+        <v>227</v>
+      </c>
+      <c r="E51" s="44"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="25">
+        <v>10</v>
+      </c>
+      <c r="I51" s="25">
+        <v>100</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="37">
+        <v>47</v>
+      </c>
+      <c r="M51" s="44">
+        <f>L51*10^2</f>
+        <v>4700</v>
+      </c>
+      <c r="N51" s="46">
+        <f t="shared" si="8"/>
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="37">
+        <v>8</v>
+      </c>
+      <c r="C52" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D52" s="44">
+        <v>227</v>
+      </c>
+      <c r="E52" s="44"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="25">
+        <v>10</v>
+      </c>
+      <c r="I52" s="25">
+        <v>100</v>
+      </c>
+      <c r="J52" s="37">
+        <v>73</v>
+      </c>
+      <c r="K52" s="37">
+        <v>7</v>
+      </c>
+      <c r="L52" s="37">
+        <v>2</v>
+      </c>
+      <c r="M52" s="45">
+        <f>J52</f>
+        <v>73</v>
+      </c>
+      <c r="N52" s="46">
+        <f t="shared" si="8"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="48">
+        <v>8</v>
+      </c>
+      <c r="C53" s="49">
+        <v>45440</v>
+      </c>
+      <c r="D53" s="50">
+        <v>228</v>
+      </c>
+      <c r="E53" s="50"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="30">
+        <v>10</v>
+      </c>
+      <c r="I53" s="30">
+        <v>100</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53" s="48">
+        <v>4</v>
+      </c>
+      <c r="L53" s="48">
+        <v>0</v>
+      </c>
+      <c r="M53" s="50"/>
+      <c r="N53" s="51"/>
+    </row>
+    <row r="54" spans="1:14" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="48">
+        <v>8</v>
+      </c>
+      <c r="C54" s="49">
+        <v>45440</v>
+      </c>
+      <c r="D54" s="50">
+        <v>228</v>
+      </c>
+      <c r="E54" s="50"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="30">
+        <v>10</v>
+      </c>
+      <c r="I54" s="30">
+        <v>100</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="48">
+        <v>9</v>
+      </c>
+      <c r="M54" s="50"/>
+      <c r="N54" s="51"/>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="37">
+        <v>8</v>
+      </c>
+      <c r="C55" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D55" s="44">
+        <v>238</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="25">
+        <v>10</v>
+      </c>
+      <c r="I55" s="25">
+        <v>100</v>
+      </c>
+      <c r="J55" s="37">
+        <v>6</v>
+      </c>
+      <c r="K55" s="37">
+        <v>2</v>
+      </c>
+      <c r="L55" s="37">
+        <v>0</v>
+      </c>
+      <c r="M55" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N55" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="37">
+        <v>8</v>
+      </c>
+      <c r="C56" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="25">
+        <v>10</v>
+      </c>
+      <c r="I56" s="25">
+        <v>100</v>
+      </c>
+      <c r="J56" s="37">
+        <v>8</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0</v>
+      </c>
+      <c r="L56" s="37">
+        <v>0</v>
+      </c>
+      <c r="M56" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="37">
+        <v>8</v>
+      </c>
+      <c r="C57" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="25">
+        <v>10</v>
+      </c>
+      <c r="I57" s="25">
+        <v>100</v>
+      </c>
+      <c r="J57" s="37">
+        <v>0</v>
+      </c>
+      <c r="K57" s="37">
+        <v>0</v>
+      </c>
+      <c r="L57" s="37">
+        <v>0</v>
+      </c>
+      <c r="M57" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="37">
+        <v>8</v>
+      </c>
+      <c r="C58" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="25">
+        <v>10</v>
+      </c>
+      <c r="I58" s="25">
+        <v>100</v>
+      </c>
+      <c r="J58" s="37">
+        <v>4</v>
+      </c>
+      <c r="K58" s="37">
+        <v>0</v>
+      </c>
+      <c r="L58" s="37">
+        <v>0</v>
+      </c>
+      <c r="M58" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="37">
+        <v>8</v>
+      </c>
+      <c r="C59" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="25">
+        <v>10</v>
+      </c>
+      <c r="I59" s="25">
+        <v>100</v>
+      </c>
+      <c r="J59" s="37">
+        <v>3</v>
+      </c>
+      <c r="K59" s="37">
+        <v>0</v>
+      </c>
+      <c r="L59" s="37">
+        <v>0</v>
+      </c>
+      <c r="M59" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="37">
+        <v>8</v>
+      </c>
+      <c r="C60" s="38">
+        <v>45440</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="25">
+        <v>10</v>
+      </c>
+      <c r="I60" s="25">
+        <v>100</v>
+      </c>
+      <c r="J60" s="37">
+        <v>13</v>
+      </c>
+      <c r="K60" s="37">
+        <v>2</v>
+      </c>
+      <c r="L60" s="37">
+        <v>1</v>
+      </c>
+      <c r="M60" s="45">
+        <f t="shared" ref="M60:M61" si="10">J60</f>
+        <v>13</v>
+      </c>
+      <c r="N60" s="46">
+        <f t="shared" ref="N60:N61" si="11">M60*10^2</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="37">
+        <v>8</v>
+      </c>
+      <c r="C61" s="41">
+        <v>45440</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="43">
+        <v>10</v>
+      </c>
+      <c r="I61" s="25">
+        <v>100</v>
+      </c>
+      <c r="J61" s="37">
+        <v>10</v>
+      </c>
+      <c r="K61" s="37">
+        <v>2</v>
+      </c>
+      <c r="L61" s="37">
+        <v>0</v>
+      </c>
+      <c r="M61" s="45">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="N61" s="46">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2:L61 Q1:Q59 S1:T59 B2:C61">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="227">
+      <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="220 ">
+      <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="216 ">
+      <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="215">
+      <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="35" operator="containsText" text="205">
+      <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="36" operator="containsText" text="b728a">
+      <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:L63">
+    <cfRule type="containsText" dxfId="3" priority="37" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="38" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -1812,281 +4844,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="19">
         <v>2.1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
         <v>45421</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="3">
         <v>45422</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="3">
         <v>45423</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="3">
         <v>45424</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="3">
         <v>45425</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="3">
         <v>45426</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="3">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
         <v>45425</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="3">
         <v>45426</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="3">
         <v>45427</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="3">
         <v>45428</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="3">
         <v>45429</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="3">
         <v>45430</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="3">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
         <v>45432</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="3">
         <v>45433</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="3">
         <v>45434</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="3">
         <v>45435</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="1">
         <v>45436</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="1">
         <v>45437</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="1">
         <v>45438</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>2.4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
         <v>45435</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="1">
         <v>45436</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="1">
         <v>45437</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="1">
         <v>45438</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="1">
         <v>45439</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="1">
         <v>45440</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="1">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="6">
         <v>2.5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16">
         <v>45438</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="16">
         <v>45439</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="16">
         <v>45440</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="16">
         <v>45441</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="16">
         <v>45442</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="16">
         <v>45443</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="16">
         <v>45444</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="6">
         <v>2.6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16">
         <v>45439</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="16">
         <v>45440</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="16">
         <v>45441</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="16">
         <v>45442</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="16">
         <v>45443</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="16">
         <v>45444</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="16">
         <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="6">
         <v>2.7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16">
         <v>45442</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="16">
         <v>45443</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="16">
         <v>45444</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="16">
         <v>45445</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="16">
         <v>45446</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="16">
         <v>45447</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="16">
         <v>45448</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2094,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7054ECF7-18CC-5446-997F-9C093F5050B1}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -2109,215 +5096,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="9">
         <v>2</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="9">
         <v>3</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="9">
         <v>4</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="9">
         <v>5</v>
       </c>
-      <c r="G1" s="20">
+      <c r="G1" s="9">
         <v>6</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="9">
         <v>7</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="9">
         <v>8</v>
       </c>
-      <c r="J1" s="20">
+      <c r="J1" s="9">
         <v>9</v>
       </c>
-      <c r="K1" s="20">
-        <v>10</v>
-      </c>
-      <c r="L1" s="20">
+      <c r="K1" s="9">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9">
         <v>11</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="D2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="D3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="C4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C62EB-FFDB-0A4C-A6E7-892AD448C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03945485-7842-B440-8EED-806178D9CA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
   <si>
     <t>Strain</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>6 (1)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Contaminated</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -686,44 +692,75 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
@@ -752,26 +789,6 @@
     <dxf>
       <font>
         <color rgb="FFFF00D8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1127,13 +1144,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1169,7 @@
     <col min="16" max="16384" width="36.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>64</v>
       </c>
@@ -1198,8 +1215,11 @@
       <c r="O1" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P1" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
@@ -1248,7 +1268,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>65</v>
       </c>
@@ -1346,7 +1366,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1415,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>65</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>65</v>
       </c>
@@ -1493,7 +1513,7 @@
         <v>118750</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>65</v>
       </c>
@@ -1542,7 +1562,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>65</v>
       </c>
@@ -1591,7 +1611,7 @@
         <v>505000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>65</v>
       </c>
@@ -1640,7 +1660,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>65</v>
       </c>
@@ -1689,7 +1709,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>65</v>
       </c>
@@ -1736,7 +1756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
@@ -1785,7 +1805,7 @@
         <v>495000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>65</v>
       </c>
@@ -1834,7 +1854,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>65</v>
       </c>
@@ -1883,7 +1903,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>65</v>
       </c>
@@ -1932,7 +1952,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>65</v>
       </c>
@@ -1954,16 +1974,31 @@
       <c r="G17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>58</v>
+      </c>
+      <c r="J17" s="25">
+        <v>6</v>
+      </c>
+      <c r="K17" s="25">
+        <v>12</v>
+      </c>
+      <c r="L17" s="25">
+        <v>1</v>
+      </c>
+      <c r="M17" s="25">
+        <v>1</v>
+      </c>
       <c r="N17" s="25"/>
       <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P17" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>65</v>
       </c>
@@ -1985,16 +2020,28 @@
       <c r="G18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="25">
+        <v>49</v>
+      </c>
+      <c r="M18" s="25">
+        <v>43</v>
+      </c>
       <c r="N18" s="25"/>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>65</v>
       </c>
@@ -2016,16 +2063,31 @@
       <c r="G19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>145</v>
+      </c>
+      <c r="L19" s="25">
+        <v>21</v>
+      </c>
+      <c r="M19" s="25">
+        <v>23</v>
+      </c>
       <c r="N19" s="25"/>
       <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P19" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>65</v>
       </c>
@@ -2047,16 +2109,31 @@
       <c r="G20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="25">
+        <v>4</v>
+      </c>
+      <c r="K20" s="25">
+        <v>13</v>
+      </c>
+      <c r="L20" s="25">
+        <v>2</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
       <c r="N20" s="25"/>
       <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P20" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>65</v>
       </c>
@@ -2078,16 +2155,31 @@
       <c r="G21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="H21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="25">
+        <v>36</v>
+      </c>
+      <c r="K21" s="25">
+        <v>18</v>
+      </c>
+      <c r="L21" s="25">
+        <v>4</v>
+      </c>
+      <c r="M21" s="25">
+        <v>1</v>
+      </c>
       <c r="N21" s="25"/>
       <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P21" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>65</v>
       </c>
@@ -2109,16 +2201,31 @@
       <c r="G22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="25">
+        <v>61</v>
+      </c>
+      <c r="K22" s="25">
+        <v>57</v>
+      </c>
+      <c r="L22" s="25">
+        <v>5</v>
+      </c>
+      <c r="M22" s="25">
+        <v>13</v>
+      </c>
       <c r="N22" s="25"/>
       <c r="O22" s="31"/>
-    </row>
-    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P22" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>65</v>
       </c>
@@ -2140,16 +2247,28 @@
       <c r="G23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="H23" s="25">
+        <v>20</v>
+      </c>
+      <c r="I23" s="25">
+        <v>13</v>
+      </c>
+      <c r="J23" s="25">
+        <v>6</v>
+      </c>
+      <c r="K23" s="25">
+        <v>2</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0</v>
+      </c>
       <c r="N23" s="25"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>65</v>
       </c>
@@ -2171,16 +2290,28 @@
       <c r="G24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="H24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="25">
+        <v>36</v>
+      </c>
+      <c r="M24" s="25">
+        <v>37</v>
+      </c>
       <c r="N24" s="25"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>65</v>
       </c>
@@ -2202,28 +2333,43 @@
       <c r="G25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="H25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="25">
+        <v>14</v>
+      </c>
+      <c r="K25" s="25">
+        <v>4</v>
+      </c>
+      <c r="L25" s="25">
+        <v>5</v>
+      </c>
+      <c r="M25" s="25">
+        <v>2</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="31"/>
+      <c r="P25" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M16">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="TMTC">
+  <conditionalFormatting sqref="H2:M25">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
@@ -3304,34 +3450,34 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="52">
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="36">
         <v>5</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="37">
         <v>45424</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="42">
         <v>228</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52" t="s">
+      <c r="E31" s="42"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="36">
         <v>38</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="36">
         <v>2</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31" s="42">
         <f>I31*10</f>
         <v>380</v>
       </c>
@@ -3340,34 +3486,34 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="52">
+    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="36">
         <v>6</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="37">
         <v>45431</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="42">
         <v>220</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52" t="s">
+      <c r="E32" s="42"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="36">
         <v>30</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K32" s="42">
         <f>J32*10^2</f>
         <v>3000</v>
       </c>
@@ -3406,34 +3552,34 @@
       <c r="K33" s="48"/>
       <c r="L33" s="49"/>
     </row>
-    <row r="34" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="52">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="36">
         <v>6</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="37">
         <v>45431</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="42">
         <v>220</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52" t="s">
+      <c r="E34" s="42"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="36">
         <v>28</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="36">
         <v>3</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="42">
         <f>H34</f>
         <v>28</v>
       </c>
@@ -3472,34 +3618,34 @@
       <c r="K35" s="48"/>
       <c r="L35" s="49"/>
     </row>
-    <row r="36" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="52">
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="36">
         <v>6</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="37">
         <v>45431</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="42">
         <v>228</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52" t="s">
+      <c r="E36" s="42"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="36">
         <v>23</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="36">
         <v>2</v>
       </c>
-      <c r="K36" s="54">
+      <c r="K36" s="42">
         <f t="shared" ref="K36:K37" si="7">I36*10</f>
         <v>230</v>
       </c>
@@ -3508,34 +3654,34 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="52">
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="36">
         <v>6</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="37">
         <v>45431</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="42">
         <v>228</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52" t="s">
+      <c r="E37" s="42"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="36">
         <v>65</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="36">
         <v>3</v>
       </c>
-      <c r="K37" s="54">
+      <c r="K37" s="42">
         <f t="shared" si="7"/>
         <v>650</v>
       </c>
@@ -3544,34 +3690,34 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="52">
+    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="36">
         <v>7</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="37">
         <v>45438</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="42">
         <v>216</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="36">
         <v>47</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="36">
         <v>1</v>
       </c>
-      <c r="J38" s="52">
-        <v>0</v>
-      </c>
-      <c r="K38" s="54">
+      <c r="J38" s="36">
+        <v>0</v>
+      </c>
+      <c r="K38" s="42">
         <f>H38</f>
         <v>47</v>
       </c>
@@ -3580,34 +3726,34 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="52">
+    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="36">
         <v>7</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="37">
         <v>45438</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="42">
         <v>216</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52" t="s">
+      <c r="E39" s="42"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="36">
         <v>15</v>
       </c>
-      <c r="J39" s="52">
-        <v>0</v>
-      </c>
-      <c r="K39" s="54">
+      <c r="J39" s="36">
+        <v>0</v>
+      </c>
+      <c r="K39" s="42">
         <f>I39*10</f>
         <v>150</v>
       </c>
@@ -4385,37 +4531,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:J63">
-    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="38" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="39" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="40" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O59 Q1:R59 B2:C61 H2:J61">
-    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="227">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="227">
       <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="220 ">
+    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="220 ">
       <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="216 ">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="216 ">
       <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="215">
+    <cfRule type="containsText" dxfId="10" priority="34" operator="containsText" text="215">
       <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="205">
+    <cfRule type="containsText" dxfId="9" priority="35" operator="containsText" text="205">
       <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="b728a">
+    <cfRule type="containsText" dxfId="8" priority="36" operator="containsText" text="b728a">
       <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4434,163 +4580,163 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="62"/>
+    <col min="1" max="1" width="6.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58">
+    <row r="1" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53">
         <v>-80</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="63">
+      <c r="A3" s="58">
         <v>205</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="58">
         <v>215</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="63">
+      <c r="A5" s="58">
         <v>216</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="63">
+      <c r="A6" s="58">
         <v>220</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="63">
+      <c r="A7" s="58">
         <v>227</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="63">
+      <c r="A8" s="58">
         <v>228</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="63">
+      <c r="A9" s="58">
         <v>194</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="63">
+      <c r="A10" s="58">
         <v>204</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="63">
+      <c r="A11" s="58">
         <v>14</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="63">
+      <c r="A12" s="58">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="63">
+      <c r="A13" s="58">
         <v>200</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="63">
+      <c r="A14" s="58">
         <v>221</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="56" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4604,11 +4750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4733,7 +4879,7 @@
       <c r="H4" s="3">
         <v>45437</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>45438</v>
       </c>
     </row>
@@ -4773,7 +4919,7 @@
       <c r="B6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>45438</v>
       </c>
       <c r="D6" s="1">

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03945485-7842-B440-8EED-806178D9CA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0338CF6-2ABE-0043-A986-FDC92545592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -715,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,11 +1149,11 @@
   </sheetPr>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1218,7 @@
       <c r="O1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1267,6 +1270,7 @@
         <f>N2*10^2</f>
         <v>40000</v>
       </c>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
@@ -1316,6 +1320,7 @@
         <f t="shared" ref="O3:O16" si="0">N3*10^2</f>
         <v>57000</v>
       </c>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
@@ -1365,6 +1370,7 @@
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -1414,6 +1420,7 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
@@ -1463,6 +1470,7 @@
         <f t="shared" si="0"/>
         <v>146000</v>
       </c>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
@@ -1512,6 +1520,7 @@
         <f t="shared" si="0"/>
         <v>118750</v>
       </c>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -1561,6 +1570,7 @@
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -1610,6 +1620,7 @@
         <f t="shared" si="0"/>
         <v>505000</v>
       </c>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -1659,6 +1670,7 @@
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -1708,6 +1720,7 @@
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -1749,12 +1762,13 @@
       <c r="M12" s="25">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>56</v>
-      </c>
+      <c r="N12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
@@ -1804,6 +1818,7 @@
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
@@ -1853,6 +1868,7 @@
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -1902,6 +1918,7 @@
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
@@ -1951,6 +1968,7 @@
         <f t="shared" si="0"/>
         <v>132500</v>
       </c>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
@@ -1992,9 +2010,15 @@
       <c r="M17" s="25">
         <v>1</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="24" t="s">
+      <c r="N17" s="25">
+        <f>((I17)+(K17*10^1))/2</f>
+        <v>89</v>
+      </c>
+      <c r="O17" s="31">
+        <f>N17*10^2</f>
+        <v>8900</v>
+      </c>
+      <c r="P17" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2038,8 +2062,15 @@
       <c r="M18" s="25">
         <v>43</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="31"/>
+      <c r="N18" s="25">
+        <f>AVERAGE(L18:M18)*10^2</f>
+        <v>4600</v>
+      </c>
+      <c r="O18" s="31">
+        <f t="shared" ref="O18:O25" si="1">N18*10^2</f>
+        <v>460000</v>
+      </c>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -2081,9 +2112,15 @@
       <c r="M19" s="25">
         <v>23</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="24" t="s">
+      <c r="N19" s="25">
+        <f>((AVERAGE(L19:M19)*10^2)+(K19*10^1))/2</f>
+        <v>1825</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="1"/>
+        <v>182500</v>
+      </c>
+      <c r="P19" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2127,9 +2164,15 @@
       <c r="M20" s="25">
         <v>0</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="24" t="s">
+      <c r="N20" s="25">
+        <f>K20*10</f>
+        <v>130</v>
+      </c>
+      <c r="O20" s="31">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="P20" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2173,9 +2216,15 @@
       <c r="M21" s="25">
         <v>1</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="24" t="s">
+      <c r="N21" s="25">
+        <f>AVERAGE(J21:K21)*10</f>
+        <v>270</v>
+      </c>
+      <c r="O21" s="31">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="P21" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2219,9 +2268,15 @@
       <c r="M22" s="25">
         <v>13</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="24" t="s">
+      <c r="N22" s="25">
+        <f>((AVERAGE(J22:K22)*10)+(M22*10^2))/2</f>
+        <v>945</v>
+      </c>
+      <c r="O22" s="31">
+        <f t="shared" si="1"/>
+        <v>94500</v>
+      </c>
+      <c r="P22" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2265,8 +2320,15 @@
       <c r="M23" s="25">
         <v>0</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="31"/>
+      <c r="N23" s="25">
+        <f>AVERAGE(H23:I23)</f>
+        <v>16.5</v>
+      </c>
+      <c r="O23" s="31">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+      <c r="P23" s="25"/>
     </row>
     <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
@@ -2308,8 +2370,15 @@
       <c r="M24" s="25">
         <v>37</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="31"/>
+      <c r="N24" s="25">
+        <f>AVERAGE(L24:M24)*10^2</f>
+        <v>3650</v>
+      </c>
+      <c r="O24" s="31">
+        <f t="shared" si="1"/>
+        <v>365000</v>
+      </c>
+      <c r="P24" s="25"/>
     </row>
     <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
@@ -2351,9 +2420,15 @@
       <c r="M25" s="25">
         <v>2</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="24" t="s">
+      <c r="N25" s="25">
+        <f>J25*10</f>
+        <v>140</v>
+      </c>
+      <c r="O25" s="31">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="P25" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2375,7 +2450,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2384,7 +2459,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4574,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9BB68-6A78-034C-87BB-A9187692B7F0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="262" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A8" zoomScale="262" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,11 +4825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4922,7 +4997,7 @@
       <c r="C6" s="3">
         <v>45438</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>45439</v>
       </c>
       <c r="E6" s="1">
@@ -4942,31 +5017,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="18">
         <v>2.6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="3">
         <v>45439</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="1">
         <v>45440</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="1">
         <v>45441</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="1">
         <v>45442</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="1">
         <v>45443</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1">
         <v>45444</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="1">
         <v>45445</v>
       </c>
     </row>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0338CF6-2ABE-0043-A986-FDC92545592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D1839-3945-B148-840A-5A69B7411862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="92">
   <si>
     <t>Strain</t>
   </si>
@@ -1147,13 +1147,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1169,8 @@
     <col min="10" max="13" width="11" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="24" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="34" customWidth="1"/>
-    <col min="16" max="16384" width="36.83203125" style="24"/>
+    <col min="16" max="16" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="36.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -2431,6 +2432,294 @@
       <c r="P25" s="25" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C26" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D26" s="25">
+        <v>14</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C27" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D27" s="25">
+        <v>14</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C28" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D28" s="25">
+        <v>14</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C29" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D29" s="25">
+        <v>6</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C30" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D30" s="25">
+        <v>6</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C31" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D31" s="25">
+        <v>6</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C32" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D32" s="25">
+        <v>6</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C33" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D33" s="25">
+        <v>6</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C34" s="26">
+        <v>45435</v>
+      </c>
+      <c r="D34" s="25">
+        <v>6</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2450,7 +2739,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2458,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="138" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -4650,7 +4939,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="262" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4825,11 +5114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4977,10 +5266,10 @@
       <c r="F5" s="3">
         <v>45438</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>45439</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>45440</v>
       </c>
       <c r="I5" s="1">
@@ -5000,7 +5289,7 @@
       <c r="D6" s="3">
         <v>45439</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>45440</v>
       </c>
       <c r="F6" s="1">
@@ -5026,7 +5315,7 @@
       <c r="C7" s="3">
         <v>45439</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>45440</v>
       </c>
       <c r="E7" s="1">

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D1839-3945-B148-840A-5A69B7411862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5604A1-23C5-1843-935D-AD3252F3BEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5604A1-23C5-1843-935D-AD3252F3BEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE6DAF-8CE2-654C-8223-C3C0A308D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="23760" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="94">
   <si>
     <t>Strain</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Contaminated</t>
+  </si>
+  <si>
+    <t>Blobs</t>
+  </si>
+  <si>
+    <t>6(2)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,9 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,11 +719,183 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1149,1591 +1321,1817 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="24" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="34" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="36.83203125" style="24"/>
+    <col min="1" max="1" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="22" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="36.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="20">
         <v>-80</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>2.1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>45421</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>194</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="28">
-        <v>0</v>
-      </c>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="27">
         <v>37</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="27">
         <v>43</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="26">
         <v>1</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="26">
         <v>8</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="23">
         <f>AVERAGE(J2:K2)*10^1</f>
         <v>400</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="29">
         <f>N2*10^2</f>
         <v>40000</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>2.1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>45421</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>194</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="27">
         <v>54</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>60</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="26">
         <v>6</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="26">
         <v>9</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="23">
         <f>AVERAGE(J3:K3)*10^1</f>
         <v>570</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="29">
         <f t="shared" ref="O3:O16" si="0">N3*10^2</f>
         <v>57000</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>2.1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>45421</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>194</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <v>108</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>128</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>20</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="27">
         <v>11</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="23">
         <f>((AVERAGE(J4:K4)*10^1)+(AVERAGE(L4:M4)*10^2))/2</f>
         <v>1365</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="29">
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>2.1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>45421</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>194</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <v>53</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>67</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <v>8</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <v>6</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <f>AVERAGE(J5:K5)*10^1</f>
         <v>600</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="29">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>2.1</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>45421</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>194</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>3</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>1</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <v>1</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>132</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <v>13</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="27">
         <v>19</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="23">
         <f>((K6*10^1)+(AVERAGE(L6:M6)*10^2))/2</f>
         <v>1460</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="29">
         <f t="shared" si="0"/>
         <v>146000</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>2.1</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>45421</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>194</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29">
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
         <v>103</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>102</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <v>16</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <v>11</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <f>((AVERAGE(J7:K7)*10^1)+(AVERAGE(L7:M7)*10^2))/2</f>
         <v>1187.5</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="29">
         <f t="shared" si="0"/>
         <v>118750</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>45425</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>194</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <v>25</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="23">
         <v>21</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="23">
         <f>(AVERAGE(L8:M8))*10^2</f>
         <v>2300</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="29">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>45425</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>194</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <v>88</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="23">
         <v>13</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="23">
         <f>(AVERAGE(L9:M9))*10^2</f>
         <v>5050</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="29">
         <f t="shared" si="0"/>
         <v>505000</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>45425</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>194</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>133</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="23">
         <v>67</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <v>13</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="23">
         <v>8</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="23">
         <f>(((AVERAGE(J10:K10))*10^1)+(L10*10^2))/2</f>
         <v>1150</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="29">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>45425</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>204</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>60</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>44</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>6</v>
       </c>
-      <c r="K11" s="25">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="23">
         <f>(AVERAGE(H11:I11))</f>
         <v>52</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="29">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>45425</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>204</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>4</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>1</v>
       </c>
-      <c r="K12" s="25">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
         <v>8</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="23">
         <v>7</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="59" t="s">
+      <c r="O12" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>45425</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>204</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="23">
         <v>55</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="23">
         <v>44</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="23">
         <f>(AVERAGE(L13:M13))*10^2</f>
         <v>4950</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="29">
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>45425</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <v>204</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>89</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <v>105</v>
       </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="25">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
         <f>(AVERAGE(J14:K14))*10^1</f>
         <v>970</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="29">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>45425</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>204</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>111</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="23">
         <v>117</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <v>7</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="23">
         <v>8</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="23">
         <f>(AVERAGE(J15:K15))*10^1</f>
         <v>1140</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="29">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>45425</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>204</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>90</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <v>120</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <v>11</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="23">
         <v>21</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="23">
         <f>(((AVERAGE(J16:K16))*10^1)+((AVERAGE(L16:M16)*10^2)))/2</f>
         <v>1325</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="29">
         <f t="shared" si="0"/>
         <v>132500</v>
       </c>
-      <c r="P16" s="25"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>45432</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>204</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
         <v>58</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <v>6</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <v>12</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="23">
         <v>1</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="23">
         <v>1</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="23">
         <f>((I17)+(K17*10^1))/2</f>
         <v>89</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="29">
         <f>N17*10^2</f>
         <v>8900</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>45432</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <v>204</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="23">
         <v>49</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="23">
         <v>43</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="23">
         <f>AVERAGE(L18:M18)*10^2</f>
         <v>4600</v>
       </c>
-      <c r="O18" s="31">
-        <f t="shared" ref="O18:O25" si="1">N18*10^2</f>
+      <c r="O18" s="29">
+        <f t="shared" ref="O18:O34" si="1">N18*10^2</f>
         <v>460000</v>
       </c>
-      <c r="P18" s="25"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>45432</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>204</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25" t="s">
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="25">
-        <v>0</v>
-      </c>
-      <c r="K19" s="25">
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
         <v>145</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <v>21</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="23">
         <v>23</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="23">
         <f>((AVERAGE(L19:M19)*10^2)+(K19*10^1))/2</f>
         <v>1825</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="29">
         <f t="shared" si="1"/>
         <v>182500</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>45432</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <v>14</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <v>4</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="23">
         <v>13</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <v>2</v>
       </c>
-      <c r="M20" s="25">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
+      <c r="M20" s="23">
+        <v>0</v>
+      </c>
+      <c r="N20" s="23">
         <f>K20*10</f>
         <v>130</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="29">
         <f t="shared" si="1"/>
         <v>13000</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="P20" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>45432</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>14</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>36</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <v>18</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <v>4</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="23">
         <v>1</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="23">
         <f>AVERAGE(J21:K21)*10</f>
         <v>270</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="29">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>45432</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <v>14</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>61</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <v>57</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <v>5</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="23">
         <v>13</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="23">
         <f>((AVERAGE(J22:K22)*10)+(M22*10^2))/2</f>
         <v>945</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="29">
         <f t="shared" si="1"/>
         <v>94500</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>45432</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <v>14</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <v>20</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="23">
         <v>13</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <v>6</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="23">
         <v>2</v>
       </c>
-      <c r="L23" s="25">
-        <v>0</v>
-      </c>
-      <c r="M23" s="25">
-        <v>0</v>
-      </c>
-      <c r="N23" s="25">
+      <c r="L23" s="23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="23">
         <f>AVERAGE(H23:I23)</f>
         <v>16.5</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="29">
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
-      <c r="P23" s="25"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>45432</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>14</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="23">
         <v>36</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="23">
         <v>37</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="23">
         <f>AVERAGE(L24:M24)*10^2</f>
         <v>3650</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="29">
         <f t="shared" si="1"/>
         <v>365000</v>
       </c>
-      <c r="P24" s="25"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>45432</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <v>14</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="23">
         <v>14</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="23">
         <v>4</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="23">
         <v>5</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="23">
         <v>2</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="23">
         <f>J25*10</f>
         <v>140</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="29">
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <v>2.4</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>45435</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="23">
         <v>14</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="25"/>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+      <c r="I26" s="23">
+        <v>40</v>
+      </c>
+      <c r="J26" s="23">
+        <v>1</v>
+      </c>
+      <c r="K26" s="23">
+        <v>7</v>
+      </c>
+      <c r="L26" s="23">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0</v>
+      </c>
+      <c r="N26" s="23">
+        <f>I26</f>
+        <v>40</v>
+      </c>
+      <c r="O26" s="29">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>2.4</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>45435</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="23">
         <v>14</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="25"/>
+      <c r="H27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23">
+        <v>12</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0</v>
+      </c>
+      <c r="N27" s="23">
+        <f>K27*10</f>
+        <v>120</v>
+      </c>
+      <c r="O27" s="29">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <v>2.4</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>45435</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="23">
         <v>14</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="25"/>
+      <c r="H28" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>26</v>
+      </c>
+      <c r="L28" s="22">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1</v>
+      </c>
+      <c r="N28" s="23">
+        <f>K28*10</f>
+        <v>260</v>
+      </c>
+      <c r="O28" s="29">
+        <f t="shared" si="1"/>
+        <v>26000</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>2.4</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="24">
         <v>45435</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="23">
         <v>6</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="25"/>
+      <c r="H29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="23">
+        <v>22</v>
+      </c>
+      <c r="K29" s="23">
+        <v>13</v>
+      </c>
+      <c r="L29" s="23">
+        <v>2</v>
+      </c>
+      <c r="M29" s="23">
+        <v>2</v>
+      </c>
+      <c r="N29" s="23">
+        <f>(AVERAGE(J29:K29))*10</f>
+        <v>175</v>
+      </c>
+      <c r="O29" s="29">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <v>2.4</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="24">
         <v>45435</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="23">
         <v>6</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="25"/>
+      <c r="H30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="23">
+        <v>8</v>
+      </c>
+      <c r="K30" s="23">
+        <v>4</v>
+      </c>
+      <c r="L30" s="23">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>2.4</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>45435</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="23">
         <v>6</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="25"/>
+      <c r="H31" s="23">
+        <v>29</v>
+      </c>
+      <c r="I31" s="23">
+        <v>22</v>
+      </c>
+      <c r="J31" s="23">
+        <v>4</v>
+      </c>
+      <c r="K31" s="23">
+        <v>5</v>
+      </c>
+      <c r="L31" s="23">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0</v>
+      </c>
+      <c r="N31" s="23">
+        <f>AVERAGE(H31:I31)</f>
+        <v>25.5</v>
+      </c>
+      <c r="O31" s="29">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>2.4</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="24">
         <v>45435</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="23">
         <v>6</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="25"/>
+      <c r="H32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>2.4</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="24">
         <v>45435</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="23">
         <v>6</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="25"/>
+      <c r="H33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="23">
         <v>2.4</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="24">
         <v>45435</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="23">
         <v>6</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="25"/>
+      <c r="H34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="23">
+        <v>1</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M25">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TMTC">
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:I29">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H29)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:I28">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H28)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:M34">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:M34">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
@@ -2753,2141 +3151,2141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="38.33203125" style="35"/>
+    <col min="1" max="1" width="6.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="38.33203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="36">
         <v>-80</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>3</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="35">
         <v>45410</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="40">
         <v>205</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="34">
         <v>11</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="40">
         <f>J2*10^2</f>
         <v>1100</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="42">
         <f>K2*10^2</f>
         <v>110000</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>3</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="35">
         <v>45410</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="40">
         <v>205</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="34">
         <v>17</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="40">
         <f>J3*10^2</f>
         <v>1700</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="42">
         <f>K3*10^2</f>
         <v>170000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="44">
         <v>3</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="45">
         <v>45410</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="46">
         <v>205</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="44">
         <v>5</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>3</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="35">
         <v>45410</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="40">
         <v>215</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>4</v>
       </c>
-      <c r="I5" s="36">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
-        <v>0</v>
-      </c>
-      <c r="K5" s="42" t="s">
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>3</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="35">
         <v>45410</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="40">
         <v>215</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>3</v>
       </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0</v>
-      </c>
-      <c r="K6" s="42" t="s">
+      <c r="I6" s="34">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0</v>
+      </c>
+      <c r="K6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <v>3</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <v>45410</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="40">
         <v>215</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="34">
         <v>1</v>
       </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
-        <v>0</v>
-      </c>
-      <c r="K7" s="42" t="s">
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>3</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="35">
         <v>45410</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="40">
         <v>216</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="34">
         <v>22</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <v>5</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="40">
         <f>I8*10</f>
         <v>220</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="42">
         <f>K8*10^2</f>
         <v>22000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>3</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="35">
         <v>45410</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>216</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <v>20</v>
       </c>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
         <f>H9</f>
         <v>20</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="42">
         <f>K9*10^2</f>
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="35">
         <v>45410</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>216</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>9</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="34">
         <v>2</v>
       </c>
-      <c r="J10" s="36">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42" t="s">
+      <c r="J10" s="34">
+        <v>0</v>
+      </c>
+      <c r="K10" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="35">
         <v>45417</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <v>36</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="40">
         <f>J11*10^2</f>
         <v>3600</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="42">
         <f>K11*10^2</f>
         <v>360000</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="35">
         <v>45417</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="34">
         <v>24</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="34">
         <v>1</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="40">
         <f>I12*10</f>
         <v>240</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="42">
         <f t="shared" ref="L12:L13" si="0">K12*10^2</f>
         <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="35">
         <v>45417</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="34">
         <v>25</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <f>J13*10^2</f>
         <v>2500</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="42">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <v>4</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="35">
         <v>45417</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="40">
         <v>205</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36">
+      <c r="H14" s="34"/>
+      <c r="I14" s="34">
         <v>2</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="34">
         <v>1</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="34">
         <v>4</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <v>45417</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="40">
         <v>205</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36">
+      <c r="H15" s="34"/>
+      <c r="I15" s="34">
         <v>31</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="34">
         <v>2</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="40">
         <f t="shared" ref="K15:K16" si="1">I15*10</f>
         <v>310</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="42">
         <f t="shared" ref="L15:L16" si="2">K15*10^2</f>
         <v>31000</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="34">
         <v>4</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>45417</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="40">
         <v>205</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36">
+      <c r="H16" s="34"/>
+      <c r="I16" s="34">
         <v>30</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="34">
         <v>2</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="40">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="42">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="34">
         <v>4</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="35">
         <v>45417</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="40">
         <v>215</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="34">
         <v>1</v>
       </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
-        <v>0</v>
-      </c>
-      <c r="K17" s="42" t="s">
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="34">
         <v>4</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>45417</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="40">
         <v>215</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>1</v>
       </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
-        <v>0</v>
-      </c>
-      <c r="K18" s="42" t="s">
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="34">
         <v>4</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <v>45417</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="40">
         <v>215</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="36">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36">
-        <v>0</v>
-      </c>
-      <c r="K19" s="42" t="s">
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34">
+        <v>0</v>
+      </c>
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="44">
         <v>4</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="45">
         <v>45417</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="46">
         <v>216</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="34">
         <v>4</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="35">
         <v>45417</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="40">
         <v>216</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <v>47</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>4</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <v>2</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="40">
         <f t="shared" ref="K21:K22" si="3">H21</f>
         <v>47</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="42">
         <f t="shared" ref="L21:L26" si="4">K21*10^2</f>
         <v>4700</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="34">
         <v>4</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="35">
         <v>45417</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="40">
         <v>216</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="34">
         <v>39</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="34">
         <v>4</v>
       </c>
-      <c r="J22" s="36">
-        <v>0</v>
-      </c>
-      <c r="K22" s="42">
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="40">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="42">
         <f t="shared" si="4"/>
         <v>3900</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>5</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <v>45424</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="40">
         <v>220</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="34">
         <v>40</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="34">
         <v>4</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="40">
         <f t="shared" ref="K23:K26" si="5">I23*10</f>
         <v>400</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="42">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="34">
         <v>5</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <v>45424</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="40">
         <v>220</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="34">
         <v>36</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="34">
         <v>1</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="40">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="42">
         <f t="shared" si="4"/>
         <v>36000</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>5</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>45424</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="40">
         <v>220</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="34">
         <v>29</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="34">
         <v>2</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="40">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="42">
         <f t="shared" si="4"/>
         <v>29000</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="34">
         <v>5</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="35">
         <v>45424</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="40">
         <v>227</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="34">
         <v>22</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="34">
         <v>2</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="40">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="42">
         <f t="shared" si="4"/>
         <v>22000</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="34">
         <v>5</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="35">
         <v>45424</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="40">
         <v>227</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="34">
         <v>1</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <v>1</v>
       </c>
-      <c r="J27" s="36">
-        <v>0</v>
-      </c>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="34">
+        <v>0</v>
+      </c>
+      <c r="K27" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="34">
         <v>5</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="35">
         <v>45424</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="40">
         <v>227</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="34">
         <v>3</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="34">
         <v>2</v>
       </c>
-      <c r="J28" s="36">
-        <v>0</v>
-      </c>
-      <c r="K28" s="42" t="s">
+      <c r="J28" s="34">
+        <v>0</v>
+      </c>
+      <c r="K28" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="34">
         <v>5</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="35">
         <v>45424</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="40">
         <v>228</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="34">
         <v>42</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="34">
         <v>7</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="40">
         <f>I29*10</f>
         <v>420</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="42">
         <f>K29*10^2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="34">
         <v>5</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="35">
         <v>45424</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="40">
         <v>228</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="36">
-        <v>0</v>
-      </c>
-      <c r="J30" s="36">
-        <v>0</v>
-      </c>
-      <c r="K30" s="42" t="s">
+      <c r="I30" s="34">
+        <v>0</v>
+      </c>
+      <c r="J30" s="34">
+        <v>0</v>
+      </c>
+      <c r="K30" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="34">
         <v>5</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="35">
         <v>45424</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="40">
         <v>228</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="34">
         <v>38</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="34">
         <v>2</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="40">
         <f>I31*10</f>
         <v>380</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="42">
         <f t="shared" ref="L31:L32" si="6">K31*10^2</f>
         <v>38000</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="34">
         <v>6</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="35">
         <v>45431</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="40">
         <v>220</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="34">
         <v>30</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="40">
         <f>J32*10^2</f>
         <v>3000</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="42">
         <f t="shared" si="6"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="44">
         <v>6</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="45">
         <v>45431</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="46">
         <v>220</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="44">
         <v>4</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="49"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="34">
         <v>6</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="35">
         <v>45431</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="40">
         <v>220</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36" t="s">
+      <c r="E34" s="40"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="34">
         <v>28</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="34">
         <v>3</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="40">
         <f>H34</f>
         <v>28</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="42">
         <f>K34*10^2</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="44">
         <v>6</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="45">
         <v>45431</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="46">
         <v>228</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="H35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="46" t="s">
+      <c r="I35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="34">
         <v>6</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="35">
         <v>45431</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="40">
         <v>228</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36" t="s">
+      <c r="E36" s="40"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="34">
         <v>23</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="34">
         <v>2</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="40">
         <f t="shared" ref="K36:K37" si="7">I36*10</f>
         <v>230</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="42">
         <f t="shared" ref="L36:L39" si="8">K36*10^2</f>
         <v>23000</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="34">
         <v>6</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="35">
         <v>45431</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="40">
         <v>228</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="34">
         <v>65</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="34">
         <v>3</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="40">
         <f t="shared" si="7"/>
         <v>650</v>
       </c>
-      <c r="L37" s="44">
+      <c r="L37" s="42">
         <f t="shared" si="8"/>
         <v>65000</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="34">
         <v>7</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="35">
         <v>45438</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="40">
         <v>216</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="34">
         <v>47</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="34">
         <v>1</v>
       </c>
-      <c r="J38" s="36">
-        <v>0</v>
-      </c>
-      <c r="K38" s="42">
+      <c r="J38" s="34">
+        <v>0</v>
+      </c>
+      <c r="K38" s="40">
         <f>H38</f>
         <v>47</v>
       </c>
-      <c r="L38" s="44">
+      <c r="L38" s="42">
         <f t="shared" si="8"/>
         <v>4700</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="34">
         <v>7</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="35">
         <v>45438</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="40">
         <v>216</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="34">
         <v>15</v>
       </c>
-      <c r="J39" s="36">
-        <v>0</v>
-      </c>
-      <c r="K39" s="42">
+      <c r="J39" s="34">
+        <v>0</v>
+      </c>
+      <c r="K39" s="40">
         <f>I39*10</f>
         <v>150</v>
       </c>
-      <c r="L39" s="44">
+      <c r="L39" s="42">
         <f t="shared" si="8"/>
         <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="34">
         <v>7</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="35">
         <v>45438</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="40">
         <v>216</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="34">
         <v>2</v>
       </c>
-      <c r="I40" s="36">
-        <v>0</v>
-      </c>
-      <c r="J40" s="36">
-        <v>0</v>
-      </c>
-      <c r="K40" s="42" t="s">
+      <c r="I40" s="34">
+        <v>0</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="44" t="s">
+      <c r="L40" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="34">
         <v>7</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="35">
         <v>45438</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="40">
         <v>220</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="34">
         <v>33</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="40">
         <f t="shared" ref="K41:L42" si="9">J41*10^2</f>
         <v>3300</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="42">
         <f t="shared" si="9"/>
         <v>330000</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="34">
         <v>7</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="35">
         <v>45438</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="40">
         <v>220</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="34">
         <v>47</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="40">
         <f t="shared" si="9"/>
         <v>4700</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L42" s="42">
         <f t="shared" si="9"/>
         <v>470000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="44">
         <v>7</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="45">
         <v>45438</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="46">
         <v>220</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46" t="s">
+      <c r="E43" s="46"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="46" t="s">
+      <c r="H43" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="44">
         <v>7</v>
       </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
-    </row>
-    <row r="44" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="K43" s="46"/>
+      <c r="L43" s="47"/>
+    </row>
+    <row r="44" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="44">
         <v>7</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="45">
         <v>45438</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="46">
         <v>228</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46" t="s">
+      <c r="E44" s="46"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="46" t="s">
+      <c r="J44" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="49"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="34">
         <v>7</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="35">
         <v>45438</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="40">
         <v>228</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="34">
         <v>12</v>
       </c>
-      <c r="J45" s="36">
-        <v>0</v>
-      </c>
-      <c r="K45" s="42">
+      <c r="J45" s="34">
+        <v>0</v>
+      </c>
+      <c r="K45" s="40">
         <f>I45*10</f>
         <v>120</v>
       </c>
-      <c r="L45" s="44">
+      <c r="L45" s="42">
         <f>K45*10^2</f>
         <v>12000</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="34">
         <v>7</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="35">
         <v>45438</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="40">
         <v>228</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="34">
         <v>9</v>
       </c>
-      <c r="I46" s="36">
-        <v>0</v>
-      </c>
-      <c r="J46" s="36">
-        <v>0</v>
-      </c>
-      <c r="K46" s="42" t="s">
+      <c r="I46" s="34">
+        <v>0</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0</v>
+      </c>
+      <c r="K46" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="44" t="s">
+      <c r="L46" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="34">
         <v>8</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="35">
         <v>45440</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D47" s="40">
         <v>227</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="34">
         <v>87</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="34">
         <v>9</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="40">
         <f>I47*10</f>
         <v>870</v>
       </c>
-      <c r="L47" s="44">
+      <c r="L47" s="42">
         <f t="shared" ref="L47:L52" si="10">K47*10^2</f>
         <v>87000</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="34">
         <v>8</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="35">
         <v>45440</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="40">
         <v>227</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="34">
         <v>25</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="34">
         <v>1</v>
       </c>
-      <c r="J48" s="36">
-        <v>0</v>
-      </c>
-      <c r="K48" s="42">
+      <c r="J48" s="34">
+        <v>0</v>
+      </c>
+      <c r="K48" s="40">
         <f>H48</f>
         <v>25</v>
       </c>
-      <c r="L48" s="44">
+      <c r="L48" s="42">
         <f t="shared" si="10"/>
         <v>2500</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="34">
         <v>8</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="35">
         <v>45440</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="40">
         <v>227</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="34">
         <v>91</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="34">
         <v>13</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="34">
         <v>1</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="40">
         <f>((I49*10)+H49)/2</f>
         <v>110.5</v>
       </c>
-      <c r="L49" s="44">
+      <c r="L49" s="42">
         <f t="shared" si="10"/>
         <v>11050</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="34">
         <v>8</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="35">
         <v>45440</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="40">
         <v>227</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36" t="s">
+      <c r="E50" s="40"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="34">
         <v>144</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="34">
         <v>2</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="40">
         <f t="shared" ref="K50" si="11">I50*10</f>
         <v>1440</v>
       </c>
-      <c r="L50" s="44">
+      <c r="L50" s="42">
         <f t="shared" si="10"/>
         <v>144000</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="34">
         <v>8</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="35">
         <v>45440</v>
       </c>
-      <c r="D51" s="42">
+      <c r="D51" s="40">
         <v>227</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36" t="s">
+      <c r="E51" s="40"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="34">
         <v>47</v>
       </c>
-      <c r="K51" s="42">
+      <c r="K51" s="40">
         <f>J51*10^2</f>
         <v>4700</v>
       </c>
-      <c r="L51" s="44">
+      <c r="L51" s="42">
         <f t="shared" si="10"/>
         <v>470000</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="34">
         <v>8</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="35">
         <v>45440</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="40">
         <v>227</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36" t="s">
+      <c r="E52" s="40"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="34">
         <v>73</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="34">
         <v>7</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="34">
         <v>2</v>
       </c>
-      <c r="K52" s="43">
+      <c r="K52" s="41">
         <f>H52</f>
         <v>73</v>
       </c>
-      <c r="L52" s="44">
+      <c r="L52" s="42">
         <f t="shared" si="10"/>
         <v>7300</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="44">
         <v>8</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="45">
         <v>45440</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="46">
         <v>228</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46" t="s">
+      <c r="E53" s="46"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="44">
         <v>4</v>
       </c>
-      <c r="J53" s="46">
-        <v>0</v>
-      </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="49"/>
-    </row>
-    <row r="54" spans="1:12" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="J53" s="44">
+        <v>0</v>
+      </c>
+      <c r="K53" s="46"/>
+      <c r="L53" s="47"/>
+    </row>
+    <row r="54" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="44">
         <v>8</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="45">
         <v>45440</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="46">
         <v>228</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46" t="s">
+      <c r="E54" s="46"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="46" t="s">
+      <c r="H54" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="46" t="s">
+      <c r="I54" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="44">
         <v>9</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="49"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="34">
         <v>8</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="35">
         <v>45440</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="40">
         <v>238</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="34">
         <v>6</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="34">
         <v>2</v>
       </c>
-      <c r="J55" s="36">
-        <v>0</v>
-      </c>
-      <c r="K55" s="42" t="s">
+      <c r="J55" s="34">
+        <v>0</v>
+      </c>
+      <c r="K55" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L55" s="44" t="s">
+      <c r="L55" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="34">
         <v>8</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="35">
         <v>45440</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36" t="s">
+      <c r="F56" s="34"/>
+      <c r="G56" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="34">
         <v>8</v>
       </c>
-      <c r="I56" s="36">
-        <v>0</v>
-      </c>
-      <c r="J56" s="36">
-        <v>0</v>
-      </c>
-      <c r="K56" s="42" t="s">
+      <c r="I56" s="34">
+        <v>0</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0</v>
+      </c>
+      <c r="K56" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L56" s="44" t="s">
+      <c r="L56" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="34">
         <v>8</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="35">
         <v>45440</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36" t="s">
+      <c r="F57" s="34"/>
+      <c r="G57" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="36">
-        <v>0</v>
-      </c>
-      <c r="I57" s="36">
-        <v>0</v>
-      </c>
-      <c r="J57" s="36">
-        <v>0</v>
-      </c>
-      <c r="K57" s="42" t="s">
+      <c r="H57" s="34">
+        <v>0</v>
+      </c>
+      <c r="I57" s="34">
+        <v>0</v>
+      </c>
+      <c r="J57" s="34">
+        <v>0</v>
+      </c>
+      <c r="K57" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="44" t="s">
+      <c r="L57" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="34">
         <v>8</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="35">
         <v>45440</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36" t="s">
+      <c r="F58" s="34"/>
+      <c r="G58" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="34">
         <v>4</v>
       </c>
-      <c r="I58" s="36">
-        <v>0</v>
-      </c>
-      <c r="J58" s="36">
-        <v>0</v>
-      </c>
-      <c r="K58" s="42" t="s">
+      <c r="I58" s="34">
+        <v>0</v>
+      </c>
+      <c r="J58" s="34">
+        <v>0</v>
+      </c>
+      <c r="K58" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L58" s="44" t="s">
+      <c r="L58" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="34">
         <v>8</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="35">
         <v>45440</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36" t="s">
+      <c r="F59" s="34"/>
+      <c r="G59" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="34">
         <v>3</v>
       </c>
-      <c r="I59" s="36">
-        <v>0</v>
-      </c>
-      <c r="J59" s="36">
-        <v>0</v>
-      </c>
-      <c r="K59" s="42" t="s">
+      <c r="I59" s="34">
+        <v>0</v>
+      </c>
+      <c r="J59" s="34">
+        <v>0</v>
+      </c>
+      <c r="K59" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L59" s="44" t="s">
+      <c r="L59" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="34">
         <v>8</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="35">
         <v>45440</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36" t="s">
+      <c r="F60" s="34"/>
+      <c r="G60" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="34">
         <v>13</v>
       </c>
-      <c r="I60" s="36">
+      <c r="I60" s="34">
         <v>2</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="34">
         <v>1</v>
       </c>
-      <c r="K60" s="43">
+      <c r="K60" s="41">
         <f t="shared" ref="K60:K61" si="12">H60</f>
         <v>13</v>
       </c>
-      <c r="L60" s="44">
+      <c r="L60" s="42">
         <f t="shared" ref="L60:L61" si="13">K60*10^2</f>
         <v>1300</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="34">
         <v>8</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="38">
         <v>45440</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41" t="s">
+      <c r="F61" s="39"/>
+      <c r="G61" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="34">
         <v>10</v>
       </c>
-      <c r="I61" s="36">
+      <c r="I61" s="34">
         <v>2</v>
       </c>
-      <c r="J61" s="36">
-        <v>0</v>
-      </c>
-      <c r="K61" s="43">
+      <c r="J61" s="34">
+        <v>0</v>
+      </c>
+      <c r="K61" s="41">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="L61" s="44">
+      <c r="L61" s="42">
         <f t="shared" si="13"/>
         <v>1000</v>
       </c>
@@ -4895,37 +5293,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:J63">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="38" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O59 Q1:R59 B2:C61 H2:J61">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="227">
+    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="227">
       <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="220 ">
+    <cfRule type="containsText" dxfId="44" priority="32" operator="containsText" text="220 ">
       <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="216 ">
+    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="216 ">
       <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="34" operator="containsText" text="215">
+    <cfRule type="containsText" dxfId="42" priority="34" operator="containsText" text="215">
       <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="35" operator="containsText" text="205">
+    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="205">
       <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="36" operator="containsText" text="b728a">
+    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="b728a">
       <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4939,168 +5337,168 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="262" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="57"/>
+    <col min="1" max="1" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53">
+    <row r="1" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51">
         <v>-80</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="58">
+      <c r="A3" s="56">
         <v>205</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="58">
+      <c r="A4" s="56">
         <v>215</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="58">
+      <c r="A5" s="56">
         <v>216</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="A6" s="56">
         <v>220</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+      <c r="A7" s="56">
         <v>227</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="58">
+      <c r="A8" s="56">
         <v>228</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="58">
+      <c r="A9" s="56">
         <v>194</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="58">
+      <c r="A10" s="56">
         <v>204</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="58">
+      <c r="A11" s="56">
         <v>14</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="58">
+      <c r="A12" s="56">
         <v>6</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="58">
+      <c r="A13" s="56">
         <v>200</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="58">
+      <c r="A14" s="56">
         <v>221</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="54" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5112,18 +5510,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -5132,7 +5530,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5161,10 +5559,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>2.1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3">
@@ -5190,10 +5588,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3">
@@ -5219,10 +5617,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3">
@@ -5248,10 +5646,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>2.4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3">
@@ -5272,15 +5670,15 @@
       <c r="H5" s="3">
         <v>45440</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>2.5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="3">
@@ -5292,10 +5690,10 @@
       <c r="E6" s="3">
         <v>45440</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>45441</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>45442</v>
       </c>
       <c r="H6" s="1">
@@ -5306,10 +5704,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>2.6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="3">
@@ -5318,10 +5716,10 @@
       <c r="D7" s="3">
         <v>45440</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>45441</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>45442</v>
       </c>
       <c r="G7" s="1">
@@ -5335,32 +5733,61 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="16">
         <v>2.7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="3">
         <v>45442</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="1">
         <v>45443</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="1">
         <v>45444</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="1">
         <v>45445</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="1">
         <v>45446</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1">
         <v>45447</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="1">
         <v>45448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="61">
+        <v>2.8</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="59">
+        <v>45438</v>
+      </c>
+      <c r="D9" s="59">
+        <v>45439</v>
+      </c>
+      <c r="E9" s="59">
+        <v>45440</v>
+      </c>
+      <c r="F9" s="59">
+        <v>45441</v>
+      </c>
+      <c r="G9" s="59">
+        <v>45442</v>
+      </c>
+      <c r="H9" s="59">
+        <v>45443</v>
+      </c>
+      <c r="I9" s="59">
+        <v>45444</v>
       </c>
     </row>
   </sheetData>
@@ -5384,215 +5811,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>7</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>8</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>9</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>10</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>11</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE6DAF-8CE2-654C-8223-C3C0A308D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000914E-FBCA-CD42-B597-0F853535B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="23760" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,21 +374,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,6 +423,11 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -564,24 +554,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,131 +580,144 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,1732 +1317,1732 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="22" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="36.83203125" style="22"/>
+    <col min="1" max="1" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="22" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="36.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="10">
         <v>-80</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="13">
         <v>2.1</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="14">
         <v>45421</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="13">
         <v>194</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="17">
         <v>37</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="17">
         <v>43</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="16">
         <v>1</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="16">
         <v>8</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="13">
         <f>AVERAGE(J2:K2)*10^1</f>
         <v>400</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="19">
         <f>N2*10^2</f>
         <v>40000</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="13">
         <v>2.1</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="14">
         <v>45421</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="13">
         <v>194</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="17">
         <v>54</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="17">
         <v>60</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="16">
         <v>6</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="16">
         <v>9</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="13">
         <f>AVERAGE(J3:K3)*10^1</f>
         <v>570</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="19">
         <f t="shared" ref="O3:O16" si="0">N3*10^2</f>
         <v>57000</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="13">
         <v>2.1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="14">
         <v>45421</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="13">
         <v>194</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="17">
         <v>108</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="17">
         <v>128</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="17">
         <v>20</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="17">
         <v>11</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="13">
         <f>((AVERAGE(J4:K4)*10^1)+(AVERAGE(L4:M4)*10^2))/2</f>
         <v>1365</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="19">
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="13">
         <v>2.1</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="14">
         <v>45421</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="13">
         <v>194</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="17">
         <v>53</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="17">
         <v>67</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="16">
         <v>8</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="16">
         <v>6</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="13">
         <f>AVERAGE(J5:K5)*10^1</f>
         <v>600</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="19">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="13">
         <v>2.1</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="14">
         <v>45421</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="13">
         <v>194</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="16">
         <v>3</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="16">
         <v>1</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="17">
         <v>132</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="17">
         <v>13</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="17">
         <v>19</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="13">
         <f>((K6*10^1)+(AVERAGE(L6:M6)*10^2))/2</f>
         <v>1460</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="19">
         <f t="shared" si="0"/>
         <v>146000</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <v>2.1</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="14">
         <v>45421</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="13">
         <v>194</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <v>103</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="17">
         <v>102</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="17">
         <v>16</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="17">
         <v>11</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="13">
         <f>((AVERAGE(J7:K7)*10^1)+(AVERAGE(L7:M7)*10^2))/2</f>
         <v>1187.5</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="19">
         <f t="shared" si="0"/>
         <v>118750</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="14">
         <v>45425</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="13">
         <v>194</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="13">
         <v>25</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="13">
         <v>21</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="13">
         <f>(AVERAGE(L8:M8))*10^2</f>
         <v>2300</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="19">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
-      <c r="P8" s="23"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="14">
         <v>45425</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="13">
         <v>194</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="13">
         <v>88</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="13">
         <v>13</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="13">
         <f>(AVERAGE(L9:M9))*10^2</f>
         <v>5050</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="19">
         <f t="shared" si="0"/>
         <v>505000</v>
       </c>
-      <c r="P9" s="23"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="14">
         <v>45425</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="13">
         <v>194</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="13">
         <v>133</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="13">
         <v>67</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="13">
         <v>13</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="13">
         <v>8</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="13">
         <f>(((AVERAGE(J10:K10))*10^1)+(L10*10^2))/2</f>
         <v>1150</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="19">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="14">
         <v>45425</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="13">
         <v>204</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="13">
         <v>60</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="13">
         <v>44</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="13">
         <v>6</v>
       </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
-        <v>0</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
         <f>(AVERAGE(H11:I11))</f>
         <v>52</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="19">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="P11" s="23"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="14">
         <v>45425</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="13">
         <v>204</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="13">
         <v>4</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="13">
         <v>1</v>
       </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
         <v>8</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="13">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="23"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="14">
         <v>45425</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="13">
         <v>204</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="13">
         <v>55</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="13">
         <v>44</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="13">
         <f>(AVERAGE(L13:M13))*10^2</f>
         <v>4950</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="19">
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
-      <c r="P13" s="23"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="14">
         <v>45425</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="13">
         <v>204</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="13">
         <v>89</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="13">
         <v>105</v>
       </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23">
-        <v>0</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
         <f>(AVERAGE(J14:K14))*10^1</f>
         <v>970</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="19">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
-      <c r="P14" s="23"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="14">
         <v>45425</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="13">
         <v>204</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="13">
         <v>111</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="13">
         <v>117</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="13">
         <v>7</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="13">
         <v>8</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="13">
         <f>(AVERAGE(J15:K15))*10^1</f>
         <v>1140</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="19">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="14">
         <v>45425</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="13">
         <v>204</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="13">
         <v>90</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="13">
         <v>120</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="13">
         <v>11</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="13">
         <v>21</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="13">
         <f>(((AVERAGE(J16:K16))*10^1)+((AVERAGE(L16:M16)*10^2)))/2</f>
         <v>1325</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="19">
         <f t="shared" si="0"/>
         <v>132500</v>
       </c>
-      <c r="P16" s="23"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="14">
         <v>45432</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="13">
         <v>204</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="23">
-        <v>0</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>58</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="13">
         <v>6</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="13">
         <v>12</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="13">
         <v>1</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="13">
         <v>1</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="13">
         <f>((I17)+(K17*10^1))/2</f>
         <v>89</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="19">
         <f>N17*10^2</f>
         <v>8900</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="14">
         <v>45432</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="13">
         <v>204</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="13">
         <v>49</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="13">
         <v>43</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="13">
         <f>AVERAGE(L18:M18)*10^2</f>
         <v>4600</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="19">
         <f t="shared" ref="O18:O34" si="1">N18*10^2</f>
         <v>460000</v>
       </c>
-      <c r="P18" s="23"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="14">
         <v>45432</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="13">
         <v>204</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="23">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23" t="s">
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
         <v>145</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="13">
         <v>21</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="13">
         <v>23</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="13">
         <f>((AVERAGE(L19:M19)*10^2)+(K19*10^1))/2</f>
         <v>1825</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="19">
         <f t="shared" si="1"/>
         <v>182500</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="14">
         <v>45432</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="13">
         <v>14</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="13">
         <v>4</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="13">
         <v>13</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="13">
         <v>2</v>
       </c>
-      <c r="M20" s="23">
-        <v>0</v>
-      </c>
-      <c r="N20" s="23">
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
         <f>K20*10</f>
         <v>130</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="19">
         <f t="shared" si="1"/>
         <v>13000</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="14">
         <v>45432</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="13">
         <v>14</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="13">
         <v>36</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="13">
         <v>18</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="13">
         <v>4</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="13">
         <v>1</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="13">
         <f>AVERAGE(J21:K21)*10</f>
         <v>270</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="19">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="14">
         <v>45432</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="13">
         <v>14</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="13">
         <v>61</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="13">
         <v>57</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="13">
         <v>5</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="13">
         <v>13</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="13">
         <f>((AVERAGE(J22:K22)*10)+(M22*10^2))/2</f>
         <v>945</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="19">
         <f t="shared" si="1"/>
         <v>94500</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="14">
         <v>45432</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="13">
         <v>14</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="13">
         <v>20</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="13">
         <v>13</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="13">
         <v>6</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="13">
         <v>2</v>
       </c>
-      <c r="L23" s="23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="23">
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
         <f>AVERAGE(H23:I23)</f>
         <v>16.5</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="19">
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
-      <c r="P23" s="23"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="14">
         <v>45432</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="13">
         <v>14</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="13">
         <v>36</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="13">
         <v>37</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="13">
         <f>AVERAGE(L24:M24)*10^2</f>
         <v>3650</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="19">
         <f t="shared" si="1"/>
         <v>365000</v>
       </c>
-      <c r="P24" s="23"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="14">
         <v>45432</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="13">
         <v>14</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="13">
         <v>14</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="13">
         <v>4</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="13">
         <v>5</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="13">
         <v>2</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="13">
         <f>J25*10</f>
         <v>140</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="19">
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="13">
         <v>2.4</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="14">
         <v>45435</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="13">
         <v>14</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="23">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <v>40</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="13">
         <v>1</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="13">
         <v>7</v>
       </c>
-      <c r="L26" s="23">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
-        <v>0</v>
-      </c>
-      <c r="N26" s="23">
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
         <f>I26</f>
         <v>40</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="19">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="P26" s="23" t="s">
+      <c r="P26" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="13">
         <v>2.4</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="14">
         <v>45435</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="13">
         <v>14</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
         <v>12</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="23">
-        <v>0</v>
-      </c>
-      <c r="N27" s="23">
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13">
         <f>K27*10</f>
         <v>120</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="19">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="P27" s="23" t="s">
+      <c r="P27" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="13">
         <v>2.4</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="14">
         <v>45435</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="13">
         <v>14</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="22">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
         <v>26</v>
       </c>
-      <c r="L28" s="22">
-        <v>0</v>
-      </c>
-      <c r="M28" s="22">
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
         <v>1</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="13">
         <f>K28*10</f>
         <v>260</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="19">
         <f t="shared" si="1"/>
         <v>26000</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="13">
         <v>2.4</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="14">
         <v>45435</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="13">
         <v>6</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="13">
         <v>22</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="13">
         <v>13</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="13">
         <v>2</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="13">
         <v>2</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="13">
         <f>(AVERAGE(J29:K29))*10</f>
         <v>175</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="19">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
-      <c r="P29" s="23"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="13">
         <v>2.4</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="14">
         <v>45435</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="13">
         <v>6</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="13">
         <v>8</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="13">
         <v>4</v>
       </c>
-      <c r="L30" s="23">
-        <v>0</v>
-      </c>
-      <c r="M30" s="23">
-        <v>0</v>
-      </c>
-      <c r="N30" s="30" t="s">
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0</v>
+      </c>
+      <c r="N30" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O30" s="57" t="s">
+      <c r="O30" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="23"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="13">
         <v>2.4</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="14">
         <v>45435</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="13">
         <v>6</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="13">
         <v>29</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="13">
         <v>22</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="13">
         <v>4</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="13">
         <v>5</v>
       </c>
-      <c r="L31" s="23">
-        <v>0</v>
-      </c>
-      <c r="M31" s="23">
-        <v>0</v>
-      </c>
-      <c r="N31" s="23">
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13">
         <f>AVERAGE(H31:I31)</f>
         <v>25.5</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="19">
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-      <c r="P31" s="23"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="13">
         <v>2.4</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="14">
         <v>45435</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="13">
         <v>6</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="N32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="29" t="s">
+      <c r="O32" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="13">
         <v>2.4</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="14">
         <v>45435</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="13">
         <v>6</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="M33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O33" s="29" t="s">
+      <c r="O33" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="13">
         <v>2.4</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="14">
         <v>45435</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="13">
         <v>6</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="13">
         <v>1</v>
       </c>
-      <c r="K34" s="23">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
-        <v>0</v>
-      </c>
-      <c r="M34" s="23">
-        <v>0</v>
-      </c>
-      <c r="N34" s="23" t="s">
+      <c r="K34" s="13">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O34" s="29" t="s">
+      <c r="O34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="P34" s="23" t="s">
+      <c r="P34" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3151,2141 +3138,2141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="38.33203125" style="33"/>
+    <col min="1" max="1" width="6.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="38.33203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="36">
+      <c r="D1" s="26">
         <v>-80</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="24">
         <v>3</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="25">
         <v>45410</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="30">
         <v>205</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="24">
         <v>11</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="30">
         <f>J2*10^2</f>
         <v>1100</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="32">
         <f>K2*10^2</f>
         <v>110000</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="24">
         <v>3</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="25">
         <v>45410</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="30">
         <v>205</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="24">
         <v>17</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="30">
         <f>J3*10^2</f>
         <v>1700</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="32">
         <f>K3*10^2</f>
         <v>170000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="34">
         <v>3</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="35">
         <v>45410</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="36">
         <v>205</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="34">
         <v>5</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="24">
         <v>3</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="25">
         <v>45410</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="30">
         <v>215</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="24">
         <v>4</v>
       </c>
-      <c r="I5" s="34">
-        <v>0</v>
-      </c>
-      <c r="J5" s="34">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40" t="s">
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="25">
         <v>45410</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="30">
         <v>215</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="24">
         <v>3</v>
       </c>
-      <c r="I6" s="34">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34">
-        <v>0</v>
-      </c>
-      <c r="K6" s="40" t="s">
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="24">
         <v>3</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="25">
         <v>45410</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="30">
         <v>215</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="24">
         <v>1</v>
       </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40" t="s">
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="25">
         <v>45410</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="30">
         <v>216</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="24">
         <v>22</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="24">
         <v>5</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="30">
         <f>I8*10</f>
         <v>220</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="32">
         <f>K8*10^2</f>
         <v>22000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="24">
         <v>3</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="25">
         <v>45410</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="30">
         <v>216</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="24">
         <v>20</v>
       </c>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34">
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
         <f>H9</f>
         <v>20</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="32">
         <f>K9*10^2</f>
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="24">
         <v>3</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="25">
         <v>45410</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="30">
         <v>216</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="24">
         <v>9</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="24">
         <v>2</v>
       </c>
-      <c r="J10" s="34">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40" t="s">
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="24">
         <v>4</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="25">
         <v>45417</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="24">
         <v>36</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="30">
         <f>J11*10^2</f>
         <v>3600</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="32">
         <f>K11*10^2</f>
         <v>360000</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="24">
         <v>4</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="25">
         <v>45417</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="24">
         <v>24</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="24">
         <v>1</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="30">
         <f>I12*10</f>
         <v>240</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="32">
         <f t="shared" ref="L12:L13" si="0">K12*10^2</f>
         <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="25">
         <v>45417</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="24">
         <v>25</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="30">
         <f>J13*10^2</f>
         <v>2500</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="32">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="24">
         <v>4</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="25">
         <v>45417</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="30">
         <v>205</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24">
         <v>2</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="24">
         <v>1</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="24">
         <v>4</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="25">
         <v>45417</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="30">
         <v>205</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34">
+      <c r="H15" s="24"/>
+      <c r="I15" s="24">
         <v>31</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="24">
         <v>2</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="30">
         <f t="shared" ref="K15:K16" si="1">I15*10</f>
         <v>310</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="32">
         <f t="shared" ref="L15:L16" si="2">K15*10^2</f>
         <v>31000</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="24">
         <v>4</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="25">
         <v>45417</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="30">
         <v>205</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24">
         <v>30</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="24">
         <v>2</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="30">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="32">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="24">
         <v>4</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="25">
         <v>45417</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="30">
         <v>215</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="24">
         <v>1</v>
       </c>
-      <c r="I17" s="34">
-        <v>0</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0</v>
-      </c>
-      <c r="K17" s="40" t="s">
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="24">
         <v>4</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="25">
         <v>45417</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="30">
         <v>215</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="24">
         <v>1</v>
       </c>
-      <c r="I18" s="34">
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
-        <v>0</v>
-      </c>
-      <c r="K18" s="40" t="s">
+      <c r="I18" s="24">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>4</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="25">
         <v>45417</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="30">
         <v>215</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
-        <v>0</v>
-      </c>
-      <c r="J19" s="34">
-        <v>0</v>
-      </c>
-      <c r="K19" s="40" t="s">
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="34">
         <v>4</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="35">
         <v>45417</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="36">
         <v>216</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="24">
         <v>4</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="25">
         <v>45417</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="30">
         <v>216</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="24">
         <v>47</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="24">
         <v>4</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="24">
         <v>2</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="30">
         <f t="shared" ref="K21:K22" si="3">H21</f>
         <v>47</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="32">
         <f t="shared" ref="L21:L26" si="4">K21*10^2</f>
         <v>4700</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="24">
         <v>4</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="25">
         <v>45417</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="30">
         <v>216</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="24">
         <v>39</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="24">
         <v>4</v>
       </c>
-      <c r="J22" s="34">
-        <v>0</v>
-      </c>
-      <c r="K22" s="40">
+      <c r="J22" s="24">
+        <v>0</v>
+      </c>
+      <c r="K22" s="30">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="32">
         <f t="shared" si="4"/>
         <v>3900</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="24">
         <v>5</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="25">
         <v>45424</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="30">
         <v>220</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="24">
         <v>40</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="24">
         <v>4</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="30">
         <f t="shared" ref="K23:K26" si="5">I23*10</f>
         <v>400</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="32">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="24">
         <v>5</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="25">
         <v>45424</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="30">
         <v>220</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="24">
         <v>36</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="24">
         <v>1</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="30">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="32">
         <f t="shared" si="4"/>
         <v>36000</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="25">
         <v>45424</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="30">
         <v>220</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="24">
         <v>29</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="24">
         <v>2</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="30">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="32">
         <f t="shared" si="4"/>
         <v>29000</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="24">
         <v>5</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="25">
         <v>45424</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="30">
         <v>227</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="24">
         <v>22</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="24">
         <v>2</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="30">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="32">
         <f t="shared" si="4"/>
         <v>22000</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="24">
         <v>5</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="25">
         <v>45424</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="30">
         <v>227</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="24">
         <v>1</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="24">
         <v>1</v>
       </c>
-      <c r="J27" s="34">
-        <v>0</v>
-      </c>
-      <c r="K27" s="40" t="s">
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="24">
         <v>5</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="25">
         <v>45424</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="30">
         <v>227</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="24">
         <v>3</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="24">
         <v>2</v>
       </c>
-      <c r="J28" s="34">
-        <v>0</v>
-      </c>
-      <c r="K28" s="40" t="s">
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="24">
         <v>5</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="25">
         <v>45424</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="30">
         <v>228</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="24">
         <v>42</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="24">
         <v>7</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="30">
         <f>I29*10</f>
         <v>420</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="32">
         <f>K29*10^2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="24">
         <v>5</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="25">
         <v>45424</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="30">
         <v>228</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="34">
-        <v>0</v>
-      </c>
-      <c r="J30" s="34">
-        <v>0</v>
-      </c>
-      <c r="K30" s="40" t="s">
+      <c r="I30" s="24">
+        <v>0</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="24">
         <v>5</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="25">
         <v>45424</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="30">
         <v>228</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="24">
         <v>38</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="24">
         <v>2</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="30">
         <f>I31*10</f>
         <v>380</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="32">
         <f t="shared" ref="L31:L32" si="6">K31*10^2</f>
         <v>38000</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="24">
         <v>6</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="25">
         <v>45431</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="30">
         <v>220</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="24">
         <v>30</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="30">
         <f>J32*10^2</f>
         <v>3000</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="32">
         <f t="shared" si="6"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="34">
         <v>6</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="35">
         <v>45431</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="36">
         <v>220</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="34">
         <v>4</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="24">
         <v>6</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="25">
         <v>45431</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="30">
         <v>220</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="24">
         <v>28</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="24">
         <v>3</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="30">
         <f>H34</f>
         <v>28</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="32">
         <f>K34*10^2</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="34">
         <v>6</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="35">
         <v>45431</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="36">
         <v>228</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="24">
         <v>6</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="25">
         <v>45431</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="30">
         <v>228</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="24">
         <v>23</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="24">
         <v>2</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="30">
         <f t="shared" ref="K36:K37" si="7">I36*10</f>
         <v>230</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="32">
         <f t="shared" ref="L36:L39" si="8">K36*10^2</f>
         <v>23000</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="24">
         <v>6</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="25">
         <v>45431</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="30">
         <v>228</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="24">
         <v>65</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="24">
         <v>3</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="30">
         <f t="shared" si="7"/>
         <v>650</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="32">
         <f t="shared" si="8"/>
         <v>65000</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="24">
         <v>7</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="25">
         <v>45438</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="30">
         <v>216</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="24">
         <v>47</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="24">
         <v>1</v>
       </c>
-      <c r="J38" s="34">
-        <v>0</v>
-      </c>
-      <c r="K38" s="40">
+      <c r="J38" s="24">
+        <v>0</v>
+      </c>
+      <c r="K38" s="30">
         <f>H38</f>
         <v>47</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="32">
         <f t="shared" si="8"/>
         <v>4700</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="24">
         <v>7</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="25">
         <v>45438</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="30">
         <v>216</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="24">
         <v>15</v>
       </c>
-      <c r="J39" s="34">
-        <v>0</v>
-      </c>
-      <c r="K39" s="40">
+      <c r="J39" s="24">
+        <v>0</v>
+      </c>
+      <c r="K39" s="30">
         <f>I39*10</f>
         <v>150</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="32">
         <f t="shared" si="8"/>
         <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="24">
         <v>7</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="25">
         <v>45438</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="30">
         <v>216</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="24">
         <v>2</v>
       </c>
-      <c r="I40" s="34">
-        <v>0</v>
-      </c>
-      <c r="J40" s="34">
-        <v>0</v>
-      </c>
-      <c r="K40" s="40" t="s">
+      <c r="I40" s="24">
+        <v>0</v>
+      </c>
+      <c r="J40" s="24">
+        <v>0</v>
+      </c>
+      <c r="K40" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="24">
         <v>7</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="25">
         <v>45438</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="30">
         <v>220</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="24">
         <v>33</v>
       </c>
-      <c r="K41" s="40">
+      <c r="K41" s="30">
         <f t="shared" ref="K41:L42" si="9">J41*10^2</f>
         <v>3300</v>
       </c>
-      <c r="L41" s="42">
+      <c r="L41" s="32">
         <f t="shared" si="9"/>
         <v>330000</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="24">
         <v>7</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="25">
         <v>45438</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="30">
         <v>220</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34" t="s">
+      <c r="E42" s="30"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="24">
         <v>47</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="30">
         <f t="shared" si="9"/>
         <v>4700</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="32">
         <f t="shared" si="9"/>
         <v>470000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+    <row r="43" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="34">
         <v>7</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="35">
         <v>45438</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="36">
         <v>220</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44" t="s">
+      <c r="E43" s="36"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="34">
         <v>7</v>
       </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
-    </row>
-    <row r="44" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="K43" s="36"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="34">
         <v>7</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="35">
         <v>45438</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="36">
         <v>228</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="44" t="s">
+      <c r="J44" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="24">
         <v>7</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="25">
         <v>45438</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="30">
         <v>228</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="24">
         <v>12</v>
       </c>
-      <c r="J45" s="34">
-        <v>0</v>
-      </c>
-      <c r="K45" s="40">
+      <c r="J45" s="24">
+        <v>0</v>
+      </c>
+      <c r="K45" s="30">
         <f>I45*10</f>
         <v>120</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45" s="32">
         <f>K45*10^2</f>
         <v>12000</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="24">
         <v>7</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="25">
         <v>45438</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="30">
         <v>228</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="24">
         <v>9</v>
       </c>
-      <c r="I46" s="34">
-        <v>0</v>
-      </c>
-      <c r="J46" s="34">
-        <v>0</v>
-      </c>
-      <c r="K46" s="40" t="s">
+      <c r="I46" s="24">
+        <v>0</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0</v>
+      </c>
+      <c r="K46" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="42" t="s">
+      <c r="L46" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="24">
         <v>8</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="25">
         <v>45440</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="30">
         <v>227</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34" t="s">
+      <c r="E47" s="30"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="24">
         <v>87</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="24">
         <v>9</v>
       </c>
-      <c r="K47" s="40">
+      <c r="K47" s="30">
         <f>I47*10</f>
         <v>870</v>
       </c>
-      <c r="L47" s="42">
+      <c r="L47" s="32">
         <f t="shared" ref="L47:L52" si="10">K47*10^2</f>
         <v>87000</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="24">
         <v>8</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="25">
         <v>45440</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="30">
         <v>227</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="24">
         <v>25</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="24">
         <v>1</v>
       </c>
-      <c r="J48" s="34">
-        <v>0</v>
-      </c>
-      <c r="K48" s="40">
+      <c r="J48" s="24">
+        <v>0</v>
+      </c>
+      <c r="K48" s="30">
         <f>H48</f>
         <v>25</v>
       </c>
-      <c r="L48" s="42">
+      <c r="L48" s="32">
         <f t="shared" si="10"/>
         <v>2500</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="24">
         <v>8</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="25">
         <v>45440</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="30">
         <v>227</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="24">
         <v>91</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="24">
         <v>13</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="24">
         <v>1</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="30">
         <f>((I49*10)+H49)/2</f>
         <v>110.5</v>
       </c>
-      <c r="L49" s="42">
+      <c r="L49" s="32">
         <f t="shared" si="10"/>
         <v>11050</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="24">
         <v>8</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="25">
         <v>45440</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="30">
         <v>227</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="24">
         <v>144</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="24">
         <v>2</v>
       </c>
-      <c r="K50" s="40">
+      <c r="K50" s="30">
         <f t="shared" ref="K50" si="11">I50*10</f>
         <v>1440</v>
       </c>
-      <c r="L50" s="42">
+      <c r="L50" s="32">
         <f t="shared" si="10"/>
         <v>144000</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="24">
         <v>8</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="25">
         <v>45440</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="30">
         <v>227</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="24">
         <v>47</v>
       </c>
-      <c r="K51" s="40">
+      <c r="K51" s="30">
         <f>J51*10^2</f>
         <v>4700</v>
       </c>
-      <c r="L51" s="42">
+      <c r="L51" s="32">
         <f t="shared" si="10"/>
         <v>470000</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="24">
         <v>8</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="25">
         <v>45440</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="30">
         <v>227</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34" t="s">
+      <c r="E52" s="30"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="24">
         <v>73</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="24">
         <v>7</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="24">
         <v>2</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="31">
         <f>H52</f>
         <v>73</v>
       </c>
-      <c r="L52" s="42">
+      <c r="L52" s="32">
         <f t="shared" si="10"/>
         <v>7300</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="34">
         <v>8</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="35">
         <v>45440</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="36">
         <v>228</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44" t="s">
+      <c r="E53" s="36"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="44" t="s">
+      <c r="H53" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="44">
+      <c r="I53" s="34">
         <v>4</v>
       </c>
-      <c r="J53" s="44">
-        <v>0</v>
-      </c>
-      <c r="K53" s="46"/>
-      <c r="L53" s="47"/>
-    </row>
-    <row r="54" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="J53" s="34">
+        <v>0</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+    </row>
+    <row r="54" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="34">
         <v>8</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="35">
         <v>45440</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="36">
         <v>228</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44" t="s">
+      <c r="E54" s="36"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="44">
+      <c r="J54" s="34">
         <v>9</v>
       </c>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37"/>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="24">
         <v>8</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="25">
         <v>45440</v>
       </c>
-      <c r="D55" s="40">
+      <c r="D55" s="30">
         <v>238</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="34">
+      <c r="H55" s="24">
         <v>6</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="24">
         <v>2</v>
       </c>
-      <c r="J55" s="34">
-        <v>0</v>
-      </c>
-      <c r="K55" s="40" t="s">
+      <c r="J55" s="24">
+        <v>0</v>
+      </c>
+      <c r="K55" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L55" s="42" t="s">
+      <c r="L55" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="24">
         <v>8</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="25">
         <v>45440</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34" t="s">
+      <c r="F56" s="24"/>
+      <c r="G56" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="24">
         <v>8</v>
       </c>
-      <c r="I56" s="34">
-        <v>0</v>
-      </c>
-      <c r="J56" s="34">
-        <v>0</v>
-      </c>
-      <c r="K56" s="40" t="s">
+      <c r="I56" s="24">
+        <v>0</v>
+      </c>
+      <c r="J56" s="24">
+        <v>0</v>
+      </c>
+      <c r="K56" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L56" s="42" t="s">
+      <c r="L56" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B57" s="24">
         <v>8</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="25">
         <v>45440</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34" t="s">
+      <c r="F57" s="24"/>
+      <c r="G57" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="34">
-        <v>0</v>
-      </c>
-      <c r="I57" s="34">
-        <v>0</v>
-      </c>
-      <c r="J57" s="34">
-        <v>0</v>
-      </c>
-      <c r="K57" s="40" t="s">
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+      <c r="I57" s="24">
+        <v>0</v>
+      </c>
+      <c r="J57" s="24">
+        <v>0</v>
+      </c>
+      <c r="K57" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="42" t="s">
+      <c r="L57" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="34">
+      <c r="B58" s="24">
         <v>8</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="25">
         <v>45440</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34" t="s">
+      <c r="F58" s="24"/>
+      <c r="G58" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="34">
+      <c r="H58" s="24">
         <v>4</v>
       </c>
-      <c r="I58" s="34">
-        <v>0</v>
-      </c>
-      <c r="J58" s="34">
-        <v>0</v>
-      </c>
-      <c r="K58" s="40" t="s">
+      <c r="I58" s="24">
+        <v>0</v>
+      </c>
+      <c r="J58" s="24">
+        <v>0</v>
+      </c>
+      <c r="K58" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L58" s="42" t="s">
+      <c r="L58" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="34">
+      <c r="B59" s="24">
         <v>8</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="25">
         <v>45440</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34" t="s">
+      <c r="F59" s="24"/>
+      <c r="G59" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="24">
         <v>3</v>
       </c>
-      <c r="I59" s="34">
-        <v>0</v>
-      </c>
-      <c r="J59" s="34">
-        <v>0</v>
-      </c>
-      <c r="K59" s="40" t="s">
+      <c r="I59" s="24">
+        <v>0</v>
+      </c>
+      <c r="J59" s="24">
+        <v>0</v>
+      </c>
+      <c r="K59" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L59" s="42" t="s">
+      <c r="L59" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="34">
+      <c r="B60" s="24">
         <v>8</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="25">
         <v>45440</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34" t="s">
+      <c r="F60" s="24"/>
+      <c r="G60" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="34">
+      <c r="H60" s="24">
         <v>13</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60" s="24">
         <v>2</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="24">
         <v>1</v>
       </c>
-      <c r="K60" s="41">
+      <c r="K60" s="31">
         <f t="shared" ref="K60:K61" si="12">H60</f>
         <v>13</v>
       </c>
-      <c r="L60" s="42">
+      <c r="L60" s="32">
         <f t="shared" ref="L60:L61" si="13">K60*10^2</f>
         <v>1300</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="24">
         <v>8</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="28">
         <v>45440</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39" t="s">
+      <c r="F61" s="29"/>
+      <c r="G61" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="34">
+      <c r="H61" s="24">
         <v>10</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="24">
         <v>2</v>
       </c>
-      <c r="J61" s="34">
-        <v>0</v>
-      </c>
-      <c r="K61" s="41">
+      <c r="J61" s="24">
+        <v>0</v>
+      </c>
+      <c r="K61" s="31">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="L61" s="42">
+      <c r="L61" s="32">
         <f t="shared" si="13"/>
         <v>1000</v>
       </c>
@@ -5342,163 +5329,163 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="55"/>
+    <col min="1" max="1" width="6.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51">
+    <row r="1" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41">
         <v>-80</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="46">
         <v>205</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="46">
         <v>215</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="A5" s="46">
         <v>216</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="A6" s="46">
         <v>220</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="A7" s="46">
         <v>227</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="A8" s="46">
         <v>228</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
+      <c r="A9" s="46">
         <v>194</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="46">
         <v>204</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="A11" s="46">
         <v>14</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
+      <c r="A13" s="46">
         <v>200</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
+      <c r="A14" s="46">
         <v>221</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5510,284 +5497,313 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="50">
         <v>2.1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="52">
         <v>45421</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="52">
         <v>45422</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="52">
         <v>45423</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="52">
         <v>45424</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="52">
         <v>45425</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="52">
         <v>45426</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="52">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="52">
         <v>45425</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="52">
         <v>45426</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="52">
         <v>45427</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="52">
         <v>45428</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="52">
         <v>45429</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="52">
         <v>45430</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="52">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="52">
         <v>45432</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="52">
         <v>45433</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="52">
         <v>45434</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="52">
         <v>45435</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="52">
         <v>45436</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="52">
         <v>45437</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="52">
         <v>45438</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="50">
         <v>2.4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="52">
         <v>45435</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="52">
         <v>45436</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="52">
         <v>45437</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="52">
         <v>45438</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="52">
         <v>45439</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="52">
         <v>45440</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="52">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="53">
         <v>2.5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="52">
         <v>45438</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="52">
         <v>45439</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="52">
         <v>45440</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="52">
         <v>45441</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="52">
         <v>45442</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="52">
         <v>45443</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="55">
         <v>45444</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="53">
         <v>2.6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="52">
         <v>45439</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="52">
         <v>45440</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="52">
         <v>45441</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="52">
         <v>45442</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="52">
         <v>45443</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="55">
         <v>45444</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="55">
         <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="53">
         <v>2.7</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="52">
         <v>45442</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="52">
         <v>45443</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="55">
         <v>45444</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="55">
         <v>45445</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="55">
         <v>45446</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="55">
         <v>45447</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="55">
         <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="61">
+      <c r="A9" s="57">
         <v>2.8</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="59">
-        <v>45438</v>
+        <v>45446</v>
       </c>
       <c r="D9" s="59">
-        <v>45439</v>
+        <v>45447</v>
       </c>
       <c r="E9" s="59">
-        <v>45440</v>
+        <v>45448</v>
       </c>
       <c r="F9" s="59">
-        <v>45441</v>
+        <v>45449</v>
       </c>
       <c r="G9" s="59">
-        <v>45442</v>
+        <v>45450</v>
       </c>
       <c r="H9" s="59">
-        <v>45443</v>
+        <v>45451</v>
       </c>
       <c r="I9" s="59">
-        <v>45444</v>
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="60">
+        <v>2.9</v>
+      </c>
+      <c r="C10" s="59">
+        <v>45449</v>
+      </c>
+      <c r="D10" s="59">
+        <v>45450</v>
+      </c>
+      <c r="E10" s="59">
+        <v>45451</v>
+      </c>
+      <c r="F10" s="59">
+        <v>45452</v>
+      </c>
+      <c r="G10" s="59">
+        <v>45453</v>
+      </c>
+      <c r="H10" s="59">
+        <v>45454</v>
+      </c>
+      <c r="I10" s="59">
+        <v>45455</v>
       </c>
     </row>
   </sheetData>
@@ -5811,215 +5827,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000914E-FBCA-CD42-B597-0F853535B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF0519D-4372-E74A-8DC1-6FCF36896056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="110">
   <si>
     <t>Strain</t>
   </si>
@@ -120,10 +120,6 @@
     <t>Day 5</t>
   </si>
   <si>
-    <t>Sample plants
-Plate samples</t>
-  </si>
-  <si>
     <t>Day 3</t>
   </si>
   <si>
@@ -344,7 +340,59 @@
     <t>Blobs</t>
   </si>
   <si>
-    <t>6(2)</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Had some similar looking colonies to 61A but they didn't glow blue so I didn't count them</t>
+  </si>
+  <si>
+    <t>&gt;200</t>
+  </si>
+  <si>
+    <t>Slight contam</t>
+  </si>
+  <si>
+    <t>6(3)</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>Sample/plate</t>
+  </si>
+  <si>
+    <t>205(1)
+215(1)</t>
   </si>
 </sst>
 </file>
@@ -554,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,17 +735,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,21 +750,57 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -730,17 +808,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00D8"/>
       </font>
     </dxf>
     <dxf>
@@ -925,32 +998,402 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF00D8"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1306,41 +1749,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="9" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="12" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="22" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="36.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="10">
         <v>-80</v>
@@ -1376,18 +1819,18 @@
         <v>17</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="13">
-        <v>2.1</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="14">
         <v>45421</v>
@@ -1399,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>10</v>
@@ -1434,10 +1877,10 @@
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2.1</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="14">
         <v>45421</v>
@@ -1449,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>11</v>
@@ -1484,10 +1927,10 @@
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2.1</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="14">
         <v>45421</v>
@@ -1499,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>12</v>
@@ -1534,10 +1977,10 @@
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2.1</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="14">
         <v>45421</v>
@@ -1549,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>13</v>
@@ -1584,10 +2027,10 @@
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2.1</v>
+        <v>64</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="C6" s="14">
         <v>45421</v>
@@ -1599,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>14</v>
@@ -1634,10 +2077,10 @@
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2.1</v>
+        <v>64</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="14">
         <v>45421</v>
@@ -1649,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>15</v>
@@ -1684,10 +2127,10 @@
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="14">
         <v>45425</v>
@@ -1699,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>10</v>
@@ -1734,10 +2177,10 @@
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C9" s="14">
         <v>45425</v>
@@ -1749,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>11</v>
@@ -1784,10 +2227,10 @@
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C10" s="14">
         <v>45425</v>
@@ -1799,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>12</v>
@@ -1834,10 +2277,10 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="14">
         <v>45425</v>
@@ -1849,7 +2292,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -1884,10 +2327,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C12" s="14">
         <v>45425</v>
@@ -1899,7 +2342,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>11</v>
@@ -1923,19 +2366,19 @@
         <v>7</v>
       </c>
       <c r="N12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>73</v>
       </c>
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C13" s="14">
         <v>45425</v>
@@ -1947,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>12</v>
@@ -1982,10 +2425,10 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="14">
         <v>45425</v>
@@ -1997,7 +2440,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>13</v>
@@ -2032,10 +2475,10 @@
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="14">
         <v>45425</v>
@@ -2047,7 +2490,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>14</v>
@@ -2082,10 +2525,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="13">
-        <v>2.2000000000000002</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="C16" s="14">
         <v>45425</v>
@@ -2097,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>15</v>
@@ -2132,10 +2575,10 @@
     </row>
     <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C17" s="14">
         <v>45432</v>
@@ -2147,7 +2590,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>10</v>
@@ -2179,15 +2622,15 @@
         <v>8900</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="14">
         <v>45432</v>
@@ -2199,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>11</v>
@@ -2227,17 +2670,17 @@
         <v>4600</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" ref="O18:O34" si="1">N18*10^2</f>
+        <f t="shared" ref="O18:O31" si="1">N18*10^2</f>
         <v>460000</v>
       </c>
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C19" s="14">
         <v>45432</v>
@@ -2249,7 +2692,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>12</v>
@@ -2281,15 +2724,15 @@
         <v>182500</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="14">
         <v>45432</v>
@@ -2298,10 +2741,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>10</v>
@@ -2333,15 +2776,15 @@
         <v>13000</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="14">
         <v>45432</v>
@@ -2350,10 +2793,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>11</v>
@@ -2385,15 +2828,15 @@
         <v>27000</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C22" s="14">
         <v>45432</v>
@@ -2402,10 +2845,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>12</v>
@@ -2437,15 +2880,15 @@
         <v>94500</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C23" s="14">
         <v>45432</v>
@@ -2454,10 +2897,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>13</v>
@@ -2492,10 +2935,10 @@
     </row>
     <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="14">
         <v>45432</v>
@@ -2504,10 +2947,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>14</v>
@@ -2542,10 +2985,10 @@
     </row>
     <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="13">
-        <v>2.2999999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="14">
         <v>45432</v>
@@ -2554,19 +2997,19 @@
         <v>14</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="13">
         <v>14</v>
@@ -2589,15 +3032,15 @@
         <v>14000</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="14">
         <v>45435</v>
@@ -2606,10 +3049,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>10</v>
@@ -2641,15 +3084,15 @@
         <v>4000</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C27" s="14">
         <v>45435</v>
@@ -2658,10 +3101,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>11</v>
@@ -2679,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="13">
         <v>0</v>
@@ -2693,15 +3136,15 @@
         <v>12000</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C28" s="14">
         <v>45435</v>
@@ -2710,30 +3153,30 @@
         <v>14</v>
       </c>
       <c r="E28" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-      <c r="K28" s="12">
+        <v>55</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
         <v>26</v>
       </c>
-      <c r="L28" s="12">
-        <v>0</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
         <v>1</v>
       </c>
       <c r="N28" s="13">
@@ -2745,15 +3188,15 @@
         <v>26000</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C29" s="14">
         <v>45435</v>
@@ -2762,10 +3205,10 @@
         <v>6</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>10</v>
@@ -2800,10 +3243,10 @@
     </row>
     <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="14">
         <v>45435</v>
@@ -2812,19 +3255,19 @@
         <v>6</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="13">
         <v>8</v>
@@ -2839,19 +3282,19 @@
         <v>0</v>
       </c>
       <c r="N30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="O30" s="47" t="s">
-        <v>73</v>
       </c>
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C31" s="14">
         <v>45435</v>
@@ -2860,10 +3303,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>12</v>
@@ -2898,10 +3341,10 @@
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C32" s="14">
         <v>45435</v>
@@ -2910,48 +3353,48 @@
         <v>6</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C33" s="14">
         <v>45435</v>
@@ -2960,48 +3403,48 @@
         <v>6</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2.4</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C34" s="14">
         <v>45435</v>
@@ -3010,19 +3453,19 @@
         <v>6</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="13">
         <v>1</v>
@@ -3037,94 +3480,843 @@
         <v>0</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P34" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="14">
+        <v>45438</v>
+      </c>
+      <c r="D35" s="13">
+        <v>6</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="13">
+        <v>152</v>
+      </c>
+      <c r="K35" s="13">
+        <v>118</v>
+      </c>
+      <c r="L35" s="13">
+        <v>13</v>
+      </c>
+      <c r="M35" s="13">
+        <v>15</v>
+      </c>
+      <c r="N35" s="13">
+        <f>(((AVERAGE(J35:K35))*10)+(AVERAGE(L35:M35)*10^2))/2</f>
+        <v>1375</v>
+      </c>
+      <c r="O35" s="19">
+        <f t="shared" ref="O35:O46" si="2">N35*10^2</f>
+        <v>137500</v>
+      </c>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45438</v>
+      </c>
+      <c r="D36" s="13">
+        <v>6</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45438</v>
+      </c>
+      <c r="D37" s="13">
+        <v>6</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D38" s="13">
+        <v>200</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="13">
+        <v>176</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" s="13">
+        <v>27</v>
+      </c>
+      <c r="M38" s="13">
+        <v>25</v>
+      </c>
+      <c r="N38" s="13">
+        <f>((AVERAGE(L38:M38)*10^2)+J38)/2</f>
+        <v>1388</v>
+      </c>
+      <c r="O38" s="19">
+        <f t="shared" si="2"/>
+        <v>138800</v>
+      </c>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D39" s="13">
+        <v>200</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="13">
+        <v>136</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="13">
+        <v>26</v>
+      </c>
+      <c r="M39" s="13">
+        <v>27</v>
+      </c>
+      <c r="N39" s="13">
+        <f>((AVERAGE(L39:M39)*10^2)+J39)/2</f>
+        <v>1393</v>
+      </c>
+      <c r="O39" s="19">
+        <f t="shared" si="2"/>
+        <v>139300</v>
+      </c>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D40" s="13">
+        <v>200</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="13">
+        <v>36</v>
+      </c>
+      <c r="M40" s="13">
+        <v>43</v>
+      </c>
+      <c r="N40" s="13">
+        <f>AVERAGE(L40:M40)*10^2</f>
+        <v>3950</v>
+      </c>
+      <c r="O40" s="19">
+        <f t="shared" si="2"/>
+        <v>395000</v>
+      </c>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D41" s="13">
+        <v>200</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="13">
+        <v>28</v>
+      </c>
+      <c r="M41" s="13">
+        <v>32</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" ref="N41:N46" si="3">AVERAGE(L41:M41)*10^2</f>
+        <v>3000</v>
+      </c>
+      <c r="O41" s="19">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D42" s="13">
+        <v>200</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="L42" s="13">
+        <v>34</v>
+      </c>
+      <c r="M42" s="13">
+        <v>44</v>
+      </c>
+      <c r="N42" s="13">
+        <f t="shared" si="3"/>
+        <v>3900</v>
+      </c>
+      <c r="O42" s="19">
+        <f t="shared" si="2"/>
+        <v>390000</v>
+      </c>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D43" s="13">
+        <v>200</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="13">
+        <v>95</v>
+      </c>
+      <c r="I43" s="13">
+        <v>108</v>
+      </c>
+      <c r="J43" s="13">
+        <v>17</v>
+      </c>
+      <c r="K43" s="13">
+        <v>14</v>
+      </c>
+      <c r="L43" s="13">
+        <v>2</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <f>(((AVERAGE(J43:K43))*10)+(AVERAGE(H43:I43)))/2</f>
+        <v>128.25</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="2"/>
+        <v>12825</v>
+      </c>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D44" s="13">
+        <v>200</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>92</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="13">
+        <v>54</v>
+      </c>
+      <c r="M44" s="13">
+        <v>68</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="3"/>
+        <v>6100</v>
+      </c>
+      <c r="O44" s="19">
+        <f t="shared" si="2"/>
+        <v>610000</v>
+      </c>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D45" s="13">
+        <v>200</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="L45" s="13">
+        <v>18</v>
+      </c>
+      <c r="M45" s="13">
+        <v>21</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+      <c r="O45" s="19">
+        <f t="shared" si="2"/>
+        <v>195000</v>
+      </c>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="14">
+        <v>45439</v>
+      </c>
+      <c r="D46" s="13">
+        <v>200</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46" s="13">
+        <v>21</v>
+      </c>
+      <c r="M46" s="13">
+        <v>13</v>
+      </c>
+      <c r="N46" s="13">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="O46" s="19">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="57" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H27:I27">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="TMTC">
+  <conditionalFormatting sqref="H27:I29">
+    <cfRule type="containsText" dxfId="67" priority="53" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="54" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="between">
-      <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I29">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H29)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="between">
-      <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:I28">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H28)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:M34">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="63" priority="49" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="52" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M34">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="TMTC">
+  <conditionalFormatting sqref="H35:I35">
+    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="44" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:I35">
+    <cfRule type="cellIs" dxfId="57" priority="41" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="42" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="47" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H42">
+    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="37" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H42">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H45 I44:K44 I45">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H45 I44:K44 I45">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:K40">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:K40">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:M100">
+    <cfRule type="cellIs" dxfId="13" priority="50" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="51" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="65" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="46" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3153,13 +4345,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="26">
         <v>-80</v>
@@ -3186,12 +4378,12 @@
         <v>17</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="24">
         <v>3</v>
@@ -3208,10 +4400,10 @@
         <v>10</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="24">
         <v>11</v>
@@ -3227,7 +4419,7 @@
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="24">
         <v>3</v>
@@ -3244,10 +4436,10 @@
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="24">
         <v>17</v>
@@ -3263,7 +4455,7 @@
     </row>
     <row r="4" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="34">
         <v>3</v>
@@ -3280,10 +4472,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="34">
         <v>5</v>
@@ -3293,7 +4485,7 @@
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="24">
         <v>3</v>
@@ -3319,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="K5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="24">
         <v>3</v>
@@ -3353,15 +4545,15 @@
         <v>0</v>
       </c>
       <c r="K6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="24">
         <v>3</v>
@@ -3387,15 +4579,15 @@
         <v>0</v>
       </c>
       <c r="K7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="24">
         <v>3</v>
@@ -3412,7 +4604,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="24">
         <v>22</v>
@@ -3431,7 +4623,7 @@
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="24">
         <v>3</v>
@@ -3467,7 +4659,7 @@
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="24">
         <v>3</v>
@@ -3493,15 +4685,15 @@
         <v>0</v>
       </c>
       <c r="K10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="24">
         <v>4</v>
@@ -3510,20 +4702,20 @@
         <v>45417</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="24">
         <v>36</v>
@@ -3539,7 +4731,7 @@
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="24">
         <v>4</v>
@@ -3548,17 +4740,17 @@
         <v>45417</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="24">
         <v>24</v>
@@ -3577,7 +4769,7 @@
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="24">
         <v>4</v>
@@ -3586,20 +4778,20 @@
         <v>45417</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="24">
         <v>25</v>
@@ -3615,7 +4807,7 @@
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="24">
         <v>4</v>
@@ -3639,15 +4831,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="24">
         <v>4</v>
@@ -3681,7 +4873,7 @@
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="24">
         <v>4</v>
@@ -3715,7 +4907,7 @@
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="24">
         <v>4</v>
@@ -3741,15 +4933,15 @@
         <v>0</v>
       </c>
       <c r="K17" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="24">
         <v>4</v>
@@ -3775,15 +4967,15 @@
         <v>0</v>
       </c>
       <c r="K18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="24">
         <v>4</v>
@@ -3809,15 +5001,15 @@
         <v>0</v>
       </c>
       <c r="K19" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="34">
         <v>4</v>
@@ -3834,20 +5026,20 @@
         <v>10</v>
       </c>
       <c r="H20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>67</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>68</v>
       </c>
       <c r="K20" s="36"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="24">
         <v>4</v>
@@ -3883,7 +5075,7 @@
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="24">
         <v>4</v>
@@ -3919,7 +5111,7 @@
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="24">
         <v>5</v>
@@ -3936,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="24">
         <v>40</v>
@@ -3955,7 +5147,7 @@
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="24">
         <v>5</v>
@@ -3972,7 +5164,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="24">
         <v>36</v>
@@ -3991,7 +5183,7 @@
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="24">
         <v>5</v>
@@ -4008,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="24">
         <v>29</v>
@@ -4027,7 +5219,7 @@
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="24">
         <v>5</v>
@@ -4044,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="24">
         <v>22</v>
@@ -4063,7 +5255,7 @@
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="24">
         <v>5</v>
@@ -4089,15 +5281,15 @@
         <v>0</v>
       </c>
       <c r="K27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="24">
         <v>5</v>
@@ -4123,15 +5315,15 @@
         <v>0</v>
       </c>
       <c r="K28" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="24">
         <v>5</v>
@@ -4148,7 +5340,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I29" s="24">
         <v>42</v>
@@ -4167,7 +5359,7 @@
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="24">
         <v>5</v>
@@ -4184,7 +5376,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="24">
         <v>0</v>
@@ -4193,15 +5385,15 @@
         <v>0</v>
       </c>
       <c r="K30" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="24">
         <v>5</v>
@@ -4218,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="24">
         <v>38</v>
@@ -4237,7 +5429,7 @@
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="24">
         <v>6</v>
@@ -4254,10 +5446,10 @@
         <v>10</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="24">
         <v>30</v>
@@ -4273,7 +5465,7 @@
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="34">
         <v>6</v>
@@ -4290,10 +5482,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J33" s="34">
         <v>4</v>
@@ -4303,7 +5495,7 @@
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="24">
         <v>6</v>
@@ -4326,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34" s="30">
         <f>H34</f>
@@ -4339,7 +5531,7 @@
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="34">
         <v>6</v>
@@ -4356,20 +5548,20 @@
         <v>10</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="24">
         <v>6</v>
@@ -4386,7 +5578,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I36" s="24">
         <v>23</v>
@@ -4405,7 +5597,7 @@
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="24">
         <v>6</v>
@@ -4422,7 +5614,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="24">
         <v>65</v>
@@ -4441,7 +5633,7 @@
     </row>
     <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="24">
         <v>7</v>
@@ -4477,7 +5669,7 @@
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="24">
         <v>7</v>
@@ -4494,7 +5686,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="24">
         <v>15</v>
@@ -4513,7 +5705,7 @@
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="24">
         <v>7</v>
@@ -4539,15 +5731,15 @@
         <v>0</v>
       </c>
       <c r="K40" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="24">
         <v>7</v>
@@ -4564,10 +5756,10 @@
         <v>10</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J41" s="24">
         <v>33</v>
@@ -4583,7 +5775,7 @@
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="24">
         <v>7</v>
@@ -4600,10 +5792,10 @@
         <v>11</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" s="24">
         <v>47</v>
@@ -4619,7 +5811,7 @@
     </row>
     <row r="43" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="34">
         <v>7</v>
@@ -4636,10 +5828,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" s="34">
         <v>7</v>
@@ -4649,7 +5841,7 @@
     </row>
     <row r="44" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="34">
         <v>7</v>
@@ -4666,20 +5858,20 @@
         <v>10</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44" s="36"/>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="24">
         <v>7</v>
@@ -4696,7 +5888,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I45" s="24">
         <v>12</v>
@@ -4715,7 +5907,7 @@
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="24">
         <v>7</v>
@@ -4741,15 +5933,15 @@
         <v>0</v>
       </c>
       <c r="K46" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="24">
         <v>8</v>
@@ -4766,7 +5958,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="24">
         <v>87</v>
@@ -4785,7 +5977,7 @@
     </row>
     <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="24">
         <v>8</v>
@@ -4821,7 +6013,7 @@
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="24">
         <v>8</v>
@@ -4857,7 +6049,7 @@
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="24">
         <v>8</v>
@@ -4874,7 +6066,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I50" s="24">
         <v>144</v>
@@ -4893,7 +6085,7 @@
     </row>
     <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="24">
         <v>8</v>
@@ -4910,10 +6102,10 @@
         <v>14</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J51" s="24">
         <v>47</v>
@@ -4929,7 +6121,7 @@
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="24">
         <v>8</v>
@@ -4965,7 +6157,7 @@
     </row>
     <row r="53" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="34">
         <v>8</v>
@@ -4982,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53" s="34">
         <v>4</v>
@@ -4995,7 +6187,7 @@
     </row>
     <row r="54" spans="1:12" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="34">
         <v>8</v>
@@ -5012,10 +6204,10 @@
         <v>11</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J54" s="34">
         <v>9</v>
@@ -5025,7 +6217,7 @@
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="24">
         <v>8</v>
@@ -5051,15 +6243,15 @@
         <v>0</v>
       </c>
       <c r="K55" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="24">
         <v>8</v>
@@ -5068,10 +6260,10 @@
         <v>45440</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="24"/>
       <c r="G56" s="24" t="s">
@@ -5087,15 +6279,15 @@
         <v>0</v>
       </c>
       <c r="K56" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L56" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="24">
         <v>8</v>
@@ -5104,10 +6296,10 @@
         <v>45440</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
@@ -5123,15 +6315,15 @@
         <v>0</v>
       </c>
       <c r="K57" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L57" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L57" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="24">
         <v>8</v>
@@ -5140,10 +6332,10 @@
         <v>45440</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
@@ -5159,15 +6351,15 @@
         <v>0</v>
       </c>
       <c r="K58" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L58" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="24">
         <v>8</v>
@@ -5176,10 +6368,10 @@
         <v>45440</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24" t="s">
@@ -5195,15 +6387,15 @@
         <v>0</v>
       </c>
       <c r="K59" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L59" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="24">
         <v>8</v>
@@ -5212,10 +6404,10 @@
         <v>45440</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24" t="s">
@@ -5241,7 +6433,7 @@
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="24">
         <v>8</v>
@@ -5250,10 +6442,10 @@
         <v>45440</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="29" t="s">
@@ -5280,37 +6472,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:J63">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="40" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O59 Q1:R59 B2:C61 H2:J61">
-    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="227">
+    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="227">
       <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="32" operator="containsText" text="220 ">
+    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="220 ">
       <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="216 ">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="216 ">
       <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="34" operator="containsText" text="215">
+    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="215">
       <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="205">
+    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="205">
       <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="b728a">
+    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="b728a">
       <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5324,7 +6516,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="262" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5348,13 +6540,13 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5362,10 +6554,10 @@
         <v>205</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5373,10 +6565,10 @@
         <v>215</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5384,10 +6576,10 @@
         <v>216</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5395,10 +6587,10 @@
         <v>220</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5406,10 +6598,10 @@
         <v>227</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5417,10 +6609,10 @@
         <v>228</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5431,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5442,7 +6634,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5450,10 +6642,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5461,10 +6653,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5472,10 +6664,10 @@
         <v>200</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5483,10 +6675,10 @@
         <v>221</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5497,18 +6689,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC696BC-41C1-2E43-B2FB-647C83615B8F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="23" bestFit="1" customWidth="1"/>
@@ -5519,27 +6711,27 @@
     <col min="10" max="16384" width="17" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>24</v>
@@ -5549,264 +6741,279 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="50">
-        <v>2.1</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="51">
         <v>45421</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="51">
         <v>45422</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="51">
         <v>45423</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="51">
         <v>45424</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="51">
         <v>45425</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="51">
         <v>45426</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="51">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="50">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>45425</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <v>45426</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <v>45427</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>45428</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="51">
         <v>45429</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="51">
         <v>45430</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="51">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>45432</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <v>45433</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <v>45434</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <v>45435</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <v>45436</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <v>45437</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <v>45438</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
-        <v>2.4</v>
-      </c>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <v>45435</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <v>45436</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <v>45437</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <v>45438</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <v>45439</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>45440</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="52">
+      <c r="A6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="51">
         <v>45438</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <v>45439</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>45440</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <v>45441</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <v>45442</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>45443</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="51">
         <v>45444</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
-        <v>2.6</v>
-      </c>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="51">
+        <v>45439</v>
+      </c>
+      <c r="D7" s="51">
+        <v>45440</v>
+      </c>
+      <c r="E7" s="51">
+        <v>45441</v>
+      </c>
+      <c r="F7" s="51">
+        <v>45442</v>
+      </c>
+      <c r="G7" s="51">
+        <v>45443</v>
+      </c>
+      <c r="H7" s="51">
+        <v>45444</v>
+      </c>
+      <c r="I7" s="51">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="52">
-        <v>45439</v>
-      </c>
-      <c r="D7" s="52">
-        <v>45440</v>
-      </c>
-      <c r="E7" s="52">
-        <v>45441</v>
-      </c>
-      <c r="F7" s="52">
+      <c r="C8" s="51">
         <v>45442</v>
       </c>
-      <c r="G7" s="52">
+      <c r="D8" s="51">
         <v>45443</v>
       </c>
-      <c r="H7" s="55">
+      <c r="E8" s="51">
         <v>45444</v>
       </c>
-      <c r="I7" s="55">
+      <c r="F8" s="51">
         <v>45445</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="52">
-        <v>45442</v>
-      </c>
-      <c r="D8" s="52">
-        <v>45443</v>
-      </c>
-      <c r="E8" s="55">
-        <v>45444</v>
-      </c>
-      <c r="F8" s="55">
-        <v>45445</v>
-      </c>
-      <c r="G8" s="55">
+      <c r="G8" s="53">
         <v>45446</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="53">
         <v>45447</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="53">
         <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="57">
-        <v>2.8</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="59">
-        <v>45446</v>
-      </c>
-      <c r="D9" s="59">
-        <v>45447</v>
-      </c>
-      <c r="E9" s="59">
-        <v>45448</v>
-      </c>
-      <c r="F9" s="59">
+      <c r="A9" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="55">
         <v>45449</v>
       </c>
-      <c r="G9" s="59">
+      <c r="D9" s="55">
         <v>45450</v>
       </c>
-      <c r="H9" s="59">
+      <c r="E9" s="55">
         <v>45451</v>
       </c>
-      <c r="I9" s="59">
+      <c r="F9" s="55">
         <v>45452</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="60">
-        <v>2.9</v>
-      </c>
-      <c r="C10" s="59">
-        <v>45449</v>
-      </c>
-      <c r="D10" s="59">
-        <v>45450</v>
-      </c>
-      <c r="E10" s="59">
-        <v>45451</v>
-      </c>
-      <c r="F10" s="59">
+      <c r="G9" s="55">
+        <v>45453</v>
+      </c>
+      <c r="H9" s="55">
+        <v>45454</v>
+      </c>
+      <c r="I9" s="55">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="55">
         <v>45452</v>
       </c>
-      <c r="G10" s="59">
+      <c r="D10" s="55">
         <v>45453</v>
       </c>
-      <c r="H10" s="59">
+      <c r="E10" s="55">
         <v>45454</v>
       </c>
-      <c r="I10" s="59">
+      <c r="F10" s="55">
         <v>45455</v>
       </c>
+      <c r="G10" s="55">
+        <v>45456</v>
+      </c>
+      <c r="H10" s="55">
+        <v>45457</v>
+      </c>
+      <c r="I10" s="55">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5867,25 +7074,25 @@
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5896,25 +7103,25 @@
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5925,25 +7132,25 @@
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5954,7 +7161,7 @@
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5971,7 +7178,7 @@
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5988,7 +7195,7 @@
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6005,7 +7212,7 @@
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6022,7 +7229,7 @@
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97A6FF-8787-2641-BCF6-5D6EEF76D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3901D3-92F3-5D4A-8259-33EEC4E3C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="85">
   <si>
     <t>Strain</t>
   </si>
@@ -296,6 +296,9 @@
   <si>
     <t>205(1)
 215(1)</t>
+  </si>
+  <si>
+    <t>-80 #</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -517,29 +520,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,12 +554,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,13 +561,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,66 +632,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -797,6 +731,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -832,6 +791,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -843,6 +822,21 @@
     <dxf>
       <font>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1208,29 +1202,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="4" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="14" customWidth="1"/>
-    <col min="16" max="16" width="73" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73" style="4" customWidth="1"/>
     <col min="17" max="16384" width="36.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -1238,7 +1232,7 @@
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1288,7 +1282,7 @@
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="6">
@@ -1338,7 +1332,7 @@
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6">
@@ -1388,7 +1382,7 @@
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="6">
@@ -1438,7 +1432,7 @@
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="6">
@@ -1488,7 +1482,7 @@
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="6">
@@ -1538,7 +1532,7 @@
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="6">
@@ -1588,7 +1582,7 @@
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="6">
@@ -1638,7 +1632,7 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="6">
@@ -1688,7 +1682,7 @@
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="6">
@@ -1738,7 +1732,7 @@
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="6">
@@ -1788,7 +1782,7 @@
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="6">
@@ -1827,7 +1821,7 @@
       <c r="N12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="33" t="s">
         <v>46</v>
       </c>
       <c r="P12" s="5"/>
@@ -1836,7 +1830,7 @@
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="6">
@@ -1886,7 +1880,7 @@
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="6">
@@ -1936,7 +1930,7 @@
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="6">
@@ -1986,7 +1980,7 @@
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="6">
@@ -2036,7 +2030,7 @@
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="6">
@@ -2088,7 +2082,7 @@
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="6">
@@ -2138,7 +2132,7 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="6">
@@ -2190,7 +2184,7 @@
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6">
@@ -2242,7 +2236,7 @@
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="6">
@@ -2294,7 +2288,7 @@
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="6">
@@ -2346,7 +2340,7 @@
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="6">
@@ -2396,7 +2390,7 @@
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="6">
@@ -2446,7 +2440,7 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="6">
@@ -2498,7 +2492,7 @@
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="6">
@@ -2550,7 +2544,7 @@
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="6">
@@ -2602,7 +2596,7 @@
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="6">
@@ -2654,7 +2648,7 @@
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="6">
@@ -2704,7 +2698,7 @@
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="6">
@@ -2743,7 +2737,7 @@
       <c r="N30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="33" t="s">
         <v>46</v>
       </c>
       <c r="P30" s="5"/>
@@ -2752,7 +2746,7 @@
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="6">
@@ -2802,7 +2796,7 @@
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="6">
@@ -2852,7 +2846,7 @@
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="6">
@@ -2902,7 +2896,7 @@
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="6">
@@ -2952,7 +2946,7 @@
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6">
@@ -3002,7 +2996,7 @@
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="6">
@@ -3041,7 +3035,7 @@
       <c r="N36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="39" t="s">
+      <c r="O36" s="33" t="s">
         <v>46</v>
       </c>
       <c r="P36" s="5" t="s">
@@ -3052,7 +3046,7 @@
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="6">
@@ -3091,7 +3085,7 @@
       <c r="N37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="33" t="s">
         <v>46</v>
       </c>
       <c r="P37" s="5"/>
@@ -3100,7 +3094,7 @@
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="6">
@@ -3109,10 +3103,10 @@
       <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -3150,7 +3144,7 @@
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="6">
@@ -3159,10 +3153,10 @@
       <c r="D39" s="5">
         <v>200</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -3200,7 +3194,7 @@
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="6">
@@ -3209,10 +3203,10 @@
       <c r="D40" s="5">
         <v>200</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -3250,7 +3244,7 @@
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="6">
@@ -3259,10 +3253,10 @@
       <c r="D41" s="5">
         <v>200</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -3300,7 +3294,7 @@
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="6">
@@ -3309,10 +3303,10 @@
       <c r="D42" s="5">
         <v>200</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -3324,10 +3318,10 @@
       <c r="I42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="51" t="s">
+      <c r="J42" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="51" t="s">
+      <c r="K42" s="43" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="5">
@@ -3350,7 +3344,7 @@
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="6">
@@ -3359,10 +3353,10 @@
       <c r="D43" s="5">
         <v>200</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -3400,7 +3394,7 @@
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="6">
@@ -3409,10 +3403,10 @@
       <c r="D44" s="5">
         <v>200</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3450,7 +3444,7 @@
       <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="6">
@@ -3459,10 +3453,10 @@
       <c r="D45" s="5">
         <v>200</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -3474,10 +3468,10 @@
       <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="51" t="s">
+      <c r="K45" s="43" t="s">
         <v>70</v>
       </c>
       <c r="L45" s="5">
@@ -3500,7 +3494,7 @@
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="6">
@@ -3509,10 +3503,10 @@
       <c r="D46" s="5">
         <v>200</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -3524,10 +3518,10 @@
       <c r="I46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="51" t="s">
+      <c r="J46" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="51" t="s">
+      <c r="K46" s="43" t="s">
         <v>70</v>
       </c>
       <c r="L46" s="5">
@@ -3549,9 +3543,292 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B47" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D47" s="5">
+        <v>221</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D48" s="5">
+        <v>221</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D49" s="5">
+        <v>221</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D50" s="5">
+        <v>221</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D51" s="5">
+        <v>221</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D52" s="5">
+        <v>221</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="5"/>
+    </row>
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D53" s="5">
+        <v>221</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D54" s="5">
+        <v>221</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="5"/>
+    </row>
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="6">
+        <v>45442</v>
+      </c>
+      <c r="D55" s="5">
+        <v>221</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3578,39 +3855,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="between">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:I35">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I35">
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="between">
       <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3683,45 +3960,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:K40">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="between">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="14" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
+      <formula>10</formula>
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThan">
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="greaterThan">
+      <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="lessThan">
       <formula>10</formula>
-      <formula>200</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="30" operator="between">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="30" operator="between">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="32" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
@@ -3735,13 +4012,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7" style="19" bestFit="1" customWidth="1"/>
@@ -5926,169 +6203,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9BB68-6A78-034C-87BB-A9187692B7F0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="262" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="37"/>
+    <col min="1" max="1" width="6.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33">
-        <v>-80</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33" t="s">
+    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="51">
         <v>205</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="38">
+      <c r="A4" s="51">
         <v>215</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="51">
         <v>216</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+      <c r="A6" s="51">
         <v>220</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="49" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="51">
         <v>227</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="51">
         <v>228</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="51">
         <v>194</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="51">
         <v>204</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="51">
         <v>14</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="51">
         <v>6</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="51">
         <v>200</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="51">
         <v>221</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6103,18 +6380,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
@@ -6126,10 +6403,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6155,276 +6432,265 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="37">
         <v>45421</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="37">
         <v>45422</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="37">
         <v>45423</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="37">
         <v>45424</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="37">
         <v>45425</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="37">
         <v>45426</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="37">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="37">
         <v>45425</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="37">
         <v>45426</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="37">
         <v>45427</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="37">
         <v>45428</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="37">
         <v>45429</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="37">
         <v>45430</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="37">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>45432</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="37">
         <v>45433</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <v>45434</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="37">
         <v>45435</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="37">
         <v>45436</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="37">
         <v>45437</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="37">
         <v>45438</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="37">
         <v>45435</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="37">
         <v>45436</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <v>45437</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="37">
         <v>45438</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="37">
         <v>45439</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="37">
         <v>45440</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="37">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="37">
         <v>45438</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="37">
         <v>45439</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <v>45440</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="37">
         <v>45441</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="37">
         <v>45442</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="37">
         <v>45443</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="37">
         <v>45444</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="37">
         <v>45439</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="37">
         <v>45440</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="37">
         <v>45441</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="37">
         <v>45442</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="37">
         <v>45443</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="37">
         <v>45444</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="37">
         <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="37">
         <v>45442</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="37">
         <v>45443</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <v>45444</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="37">
         <v>45445</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="37">
         <v>45446</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="37">
         <v>45447</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="39">
         <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="41">
         <v>45449</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="41">
         <v>45450</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="41">
         <v>45451</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="41">
         <v>45452</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="41">
         <v>45453</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="41">
         <v>45454</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="41">
         <v>45455</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="47">
-        <v>45452</v>
-      </c>
-      <c r="D10" s="47">
+      <c r="C10" s="41">
         <v>45453</v>
       </c>
-      <c r="E10" s="47">
+      <c r="D10" s="41">
         <v>45454</v>
       </c>
-      <c r="F10" s="47">
+      <c r="E10" s="41">
         <v>45455</v>
       </c>
-      <c r="G10" s="47">
+      <c r="F10" s="41">
         <v>45456</v>
       </c>
-      <c r="H10" s="47">
+      <c r="G10" s="41">
         <v>45457</v>
       </c>
-      <c r="I10" s="47">
+      <c r="H10" s="41">
         <v>45458</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="I10" s="41">
+        <v>45459</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3901D3-92F3-5D4A-8259-33EEC4E3C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A97507-DA05-2B40-B6FE-3D28C9A5814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="85">
   <si>
     <t>Strain</t>
   </si>
@@ -588,7 +588,157 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
@@ -651,6 +801,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -671,6 +831,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -696,6 +861,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -711,6 +881,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -721,6 +901,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -736,11 +921,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -751,6 +966,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -761,6 +981,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -771,102 +996,27 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1208,12 +1358,12 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -2987,7 +3137,7 @@
         <v>1375</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" ref="O35:O46" si="2">N35*10^2</f>
+        <f t="shared" ref="O35:O55" si="2">N35*10^2</f>
         <v>137500</v>
       </c>
       <c r="P35" s="5"/>
@@ -3281,7 +3431,7 @@
         <v>32</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" ref="N41:N46" si="3">AVERAGE(L41:M41)*10^2</f>
+        <f t="shared" ref="N41:N50" si="3">AVERAGE(L41:M41)*10^2</f>
         <v>3000</v>
       </c>
       <c r="O41" s="11">
@@ -3564,14 +3714,32 @@
       <c r="G47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="11"/>
+      <c r="H47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L47" s="5">
+        <v>26</v>
+      </c>
+      <c r="M47" s="5">
+        <v>43</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="3"/>
+        <v>3450</v>
+      </c>
+      <c r="O47" s="11">
+        <f t="shared" si="2"/>
+        <v>345000</v>
+      </c>
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3596,14 +3764,32 @@
       <c r="G48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="11"/>
+      <c r="H48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="5">
+        <v>29</v>
+      </c>
+      <c r="M48" s="5">
+        <v>41</v>
+      </c>
+      <c r="N48" s="5">
+        <f>AVERAGE(L48:M48)*10^2</f>
+        <v>3500</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3628,14 +3814,32 @@
       <c r="G49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="11"/>
+      <c r="H49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="5">
+        <v>58</v>
+      </c>
+      <c r="K49" s="5">
+        <v>64</v>
+      </c>
+      <c r="L49" s="5">
+        <v>4</v>
+      </c>
+      <c r="M49" s="5">
+        <v>6</v>
+      </c>
+      <c r="N49" s="5">
+        <f>AVERAGE(J49:K49)*10</f>
+        <v>610</v>
+      </c>
+      <c r="O49" s="11">
+        <f t="shared" si="2"/>
+        <v>61000</v>
+      </c>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3660,14 +3864,32 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="11"/>
+      <c r="H50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" s="5">
+        <v>25</v>
+      </c>
+      <c r="M50" s="5">
+        <v>17</v>
+      </c>
+      <c r="N50" s="5">
+        <f>AVERAGE(L50:M50)*10^2</f>
+        <v>2100</v>
+      </c>
+      <c r="O50" s="11">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3692,14 +3914,32 @@
       <c r="G51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="11"/>
+      <c r="H51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="5">
+        <v>36</v>
+      </c>
+      <c r="N51" s="5">
+        <f>M51*10^2</f>
+        <v>3600</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
       <c r="P51" s="5"/>
     </row>
     <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3724,14 +3964,32 @@
       <c r="G52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="11"/>
+      <c r="H52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="5">
+        <v>25</v>
+      </c>
+      <c r="K52" s="5">
+        <v>14</v>
+      </c>
+      <c r="L52" s="5">
+        <v>2</v>
+      </c>
+      <c r="M52" s="5">
+        <v>3</v>
+      </c>
+      <c r="N52" s="5">
+        <f>AVERAGE(J52:K52)*10</f>
+        <v>195</v>
+      </c>
+      <c r="O52" s="11">
+        <f t="shared" si="2"/>
+        <v>19500</v>
+      </c>
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3756,14 +4014,32 @@
       <c r="G53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="11"/>
+      <c r="H53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="5">
+        <v>106</v>
+      </c>
+      <c r="K53" s="5">
+        <v>106</v>
+      </c>
+      <c r="L53" s="5">
+        <v>14</v>
+      </c>
+      <c r="M53" s="5">
+        <v>13</v>
+      </c>
+      <c r="N53" s="5">
+        <f>(((AVERAGE(J53:K53))*10)+(AVERAGE(L53:M53)*10^2))/2</f>
+        <v>1205</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="2"/>
+        <v>120500</v>
+      </c>
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3788,14 +4064,32 @@
       <c r="G54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="11"/>
+      <c r="H54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L54" s="5">
+        <v>22</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="5">
+        <f>L54*10^2</f>
+        <v>2200</v>
+      </c>
+      <c r="O54" s="11">
+        <f t="shared" si="2"/>
+        <v>220000</v>
+      </c>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3820,185 +4114,313 @@
       <c r="G55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="11"/>
+      <c r="H55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="5">
+        <v>61</v>
+      </c>
+      <c r="M55" s="5">
+        <v>69</v>
+      </c>
+      <c r="N55" s="5">
+        <f>AVERAGE(L55:M55)*10^2</f>
+        <v>6500</v>
+      </c>
+      <c r="O55" s="11">
+        <f t="shared" si="2"/>
+        <v>650000</v>
+      </c>
       <c r="P55" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H38:H42">
-    <cfRule type="cellIs" dxfId="55" priority="33" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="70" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="69" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="63" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="86" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="85" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="84" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I35">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:M100">
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="greaterThan">
+    <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="81" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="80" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="98" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:M34">
-    <cfRule type="containsText" dxfId="35" priority="49" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="82" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="47" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="61" priority="53" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="55" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:K40">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="45" priority="61" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="43" priority="57" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="62" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H55 I51:J51 I47:I50">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I55">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:K55">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
@@ -6160,37 +6582,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:J63">
-    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O59 Q1:R59 B2:C61 H2:J61">
-    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="227">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="227">
       <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="220 ">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="220 ">
       <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="216 ">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="216 ">
       <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="215">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="215">
       <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="205">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="205">
       <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="b728a">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="b728a">
       <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A97507-DA05-2B40-B6FE-3D28C9A5814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408CF24-57AF-0C48-8B97-107B775C1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -440,11 +440,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,12 +566,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +575,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,6 +597,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,16 +622,71 @@
   <dxfs count="86">
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00D8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -611,6 +697,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -621,16 +712,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -641,11 +752,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -661,6 +782,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -671,6 +812,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -681,6 +827,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -696,11 +852,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -711,6 +877,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -721,6 +892,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -731,6 +907,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -741,17 +922,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -761,12 +937,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF00D8"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -786,11 +962,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -801,6 +997,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -811,6 +1012,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -821,6 +1027,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -832,186 +1043,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -1354,8 +1385,8 @@
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
@@ -1364,7 +1395,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
@@ -1432,7 +1463,7 @@
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="6">
@@ -1482,7 +1513,7 @@
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6">
@@ -1532,7 +1563,7 @@
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="6">
@@ -1582,7 +1613,7 @@
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="6">
@@ -1632,7 +1663,7 @@
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="6">
@@ -1682,7 +1713,7 @@
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="6">
@@ -1732,7 +1763,7 @@
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="6">
@@ -1782,7 +1813,7 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="6">
@@ -1832,7 +1863,7 @@
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="6">
@@ -1882,7 +1913,7 @@
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="6">
@@ -1932,7 +1963,7 @@
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="6">
@@ -1980,7 +2011,7 @@
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="6">
@@ -2030,7 +2061,7 @@
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="6">
@@ -2080,7 +2111,7 @@
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="6">
@@ -2130,7 +2161,7 @@
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="6">
@@ -2180,7 +2211,7 @@
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="6">
@@ -2232,7 +2263,7 @@
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="6">
@@ -2282,7 +2313,7 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="6">
@@ -2334,7 +2365,7 @@
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6">
@@ -2386,7 +2417,7 @@
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="6">
@@ -2438,7 +2469,7 @@
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="6">
@@ -2490,7 +2521,7 @@
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="6">
@@ -2540,7 +2571,7 @@
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="6">
@@ -2590,7 +2621,7 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="6">
@@ -2642,7 +2673,7 @@
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="6">
@@ -2694,7 +2725,7 @@
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="6">
@@ -2746,7 +2777,7 @@
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="6">
@@ -2798,7 +2829,7 @@
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="6">
@@ -2848,7 +2879,7 @@
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="6">
@@ -2896,7 +2927,7 @@
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="6">
@@ -2946,7 +2977,7 @@
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="6">
@@ -2996,7 +3027,7 @@
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="6">
@@ -3046,7 +3077,7 @@
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="6">
@@ -3096,7 +3127,7 @@
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6">
@@ -3146,7 +3177,7 @@
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="6">
@@ -3196,7 +3227,7 @@
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="6">
@@ -3244,7 +3275,7 @@
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="6">
@@ -3253,7 +3284,7 @@
       <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -3294,7 +3325,7 @@
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="6">
@@ -3303,7 +3334,7 @@
       <c r="D39" s="5">
         <v>200</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -3344,7 +3375,7 @@
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="6">
@@ -3353,7 +3384,7 @@
       <c r="D40" s="5">
         <v>200</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -3394,7 +3425,7 @@
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="6">
@@ -3403,7 +3434,7 @@
       <c r="D41" s="5">
         <v>200</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -3431,7 +3462,7 @@
         <v>32</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" ref="N41:N50" si="3">AVERAGE(L41:M41)*10^2</f>
+        <f t="shared" ref="N41:N47" si="3">AVERAGE(L41:M41)*10^2</f>
         <v>3000</v>
       </c>
       <c r="O41" s="11">
@@ -3444,7 +3475,7 @@
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="6">
@@ -3453,7 +3484,7 @@
       <c r="D42" s="5">
         <v>200</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -3468,10 +3499,10 @@
       <c r="I42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="5">
@@ -3494,7 +3525,7 @@
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="6">
@@ -3503,7 +3534,7 @@
       <c r="D43" s="5">
         <v>200</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -3544,7 +3575,7 @@
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="6">
@@ -3553,7 +3584,7 @@
       <c r="D44" s="5">
         <v>200</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -3594,7 +3625,7 @@
       <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="6">
@@ -3603,7 +3634,7 @@
       <c r="D45" s="5">
         <v>200</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -3618,10 +3649,10 @@
       <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J45" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="43" t="s">
+      <c r="K45" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L45" s="5">
@@ -3644,7 +3675,7 @@
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="6">
@@ -3653,7 +3684,7 @@
       <c r="D46" s="5">
         <v>200</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -3668,10 +3699,10 @@
       <c r="I46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="43" t="s">
+      <c r="K46" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L46" s="5">
@@ -3696,7 +3727,7 @@
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="6">
@@ -3705,7 +3736,7 @@
       <c r="D47" s="5">
         <v>221</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -3720,10 +3751,10 @@
       <c r="I47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J47" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L47" s="5">
@@ -3746,7 +3777,7 @@
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="6">
@@ -3755,7 +3786,7 @@
       <c r="D48" s="5">
         <v>221</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -3770,10 +3801,10 @@
       <c r="I48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K48" s="43" t="s">
+      <c r="K48" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L48" s="5">
@@ -3796,7 +3827,7 @@
       <c r="A49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="6">
@@ -3805,7 +3836,7 @@
       <c r="D49" s="5">
         <v>221</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -3846,7 +3877,7 @@
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="6">
@@ -3855,7 +3886,7 @@
       <c r="D50" s="5">
         <v>221</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -3870,10 +3901,10 @@
       <c r="I50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="43" t="s">
+      <c r="J50" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K50" s="43" t="s">
+      <c r="K50" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L50" s="5">
@@ -3896,7 +3927,7 @@
       <c r="A51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="6">
@@ -3905,7 +3936,7 @@
       <c r="D51" s="5">
         <v>221</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -3923,7 +3954,7 @@
       <c r="J51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -3946,7 +3977,7 @@
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="6">
@@ -3955,7 +3986,7 @@
       <c r="D52" s="5">
         <v>221</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -3996,7 +4027,7 @@
       <c r="A53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="6">
@@ -4005,7 +4036,7 @@
       <c r="D53" s="5">
         <v>221</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -4046,7 +4077,7 @@
       <c r="A54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="6">
@@ -4055,7 +4086,7 @@
       <c r="D54" s="5">
         <v>221</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -4070,10 +4101,10 @@
       <c r="I54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="43" t="s">
+      <c r="J54" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K54" s="43" t="s">
+      <c r="K54" s="41" t="s">
         <v>70</v>
       </c>
       <c r="L54" s="5">
@@ -4096,7 +4127,7 @@
       <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="6">
@@ -4105,7 +4136,7 @@
       <c r="D55" s="5">
         <v>221</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F55" s="13" t="s">
@@ -4145,25 +4176,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H38:H42">
-    <cfRule type="cellIs" dxfId="85" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="70" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="63" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="64" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="69" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="64" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="63" operator="greaterThan">
-      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
@@ -4207,14 +4238,14 @@
     <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="98" operator="between">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="80" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4228,200 +4259,200 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="cellIs" dxfId="63" priority="47" operator="greaterThan">
-      <formula>200</formula>
+    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="54" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="53" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="52" operator="between">
       <formula>10</formula>
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
     <cfRule type="cellIs" dxfId="57" priority="31" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="lessThan">
       <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="37" operator="containsText" text="TMTC">
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="36" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="between">
       <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I50 H47:H55 I51:J51">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I55">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:K40">
-    <cfRule type="cellIs" dxfId="51" priority="46" operator="between">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="containsText" dxfId="45" priority="61" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="56" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="60" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="57" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="29" priority="61" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="62" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H55 I51:J51 I47:I50">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+  <conditionalFormatting sqref="J55:K55">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="between">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I55">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
-      <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
-      <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:K55">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6582,37 +6613,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:J63">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="40" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O59 Q1:R59 B2:C61 H2:J61">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="227">
+    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="227">
       <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="220 ">
+    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="220 ">
       <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="216 ">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="216 ">
       <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="215">
+    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="215">
       <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="205">
+    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="205">
       <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="b728a">
+    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="b728a">
       <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6625,20 +6656,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9BB68-6A78-034C-87BB-A9187692B7F0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="47"/>
+    <col min="1" max="1" width="6.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6649,145 +6680,145 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="48">
         <v>205</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="A4" s="48">
         <v>215</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
+      <c r="A5" s="48">
         <v>216</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+      <c r="A6" s="48">
         <v>220</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
+      <c r="A7" s="48">
         <v>227</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
+      <c r="A8" s="48">
         <v>228</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="A9" s="48">
         <v>194</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="A10" s="48">
         <v>204</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="A11" s="48">
         <v>14</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="A12" s="48">
         <v>6</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
+      <c r="A13" s="48">
         <v>200</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
+      <c r="A14" s="48">
         <v>221</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6802,18 +6833,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
@@ -7028,10 +7059,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="37">
@@ -7052,67 +7083,70 @@
       <c r="H8" s="37">
         <v>45447</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>45448</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="41">
+      <c r="B9" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="55">
         <v>45449</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="54">
         <v>45450</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="54">
         <v>45451</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="54">
         <v>45452</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="54">
         <v>45453</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="54">
         <v>45454</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="54">
         <v>45455</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="41">
+      <c r="B10" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="39">
         <v>45453</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>45454</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>45455</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <v>45456</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <v>45457</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <v>45458</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="39">
         <v>45459</v>
       </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408CF24-57AF-0C48-8B97-107B775C1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABB160-125A-CB48-9B98-BA77E7AAA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17440" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,17 +363,57 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -466,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,7 +606,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -581,18 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,11 +637,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,11 +1440,11 @@
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6656,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9BB68-6A78-034C-87BB-A9187692B7F0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6669,7 +6724,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6680,145 +6735,145 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="55">
         <v>205</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="52">
         <v>215</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
+      <c r="A5" s="55">
         <v>216</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
+      <c r="A6" s="58">
         <v>220</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
+      <c r="A7" s="55">
         <v>227</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
+      <c r="A8" s="55">
         <v>228</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
+      <c r="A9" s="58">
         <v>194</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
+      <c r="A10" s="55">
         <v>204</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+      <c r="A11" s="52">
         <v>14</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="52">
         <v>6</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
+      <c r="A13" s="55">
         <v>200</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
+      <c r="A14" s="55">
         <v>221</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="57" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7062,7 +7117,7 @@
       <c r="A8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="37">
@@ -7091,28 +7146,28 @@
       <c r="A9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="51">
         <v>45449</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="50">
         <v>45450</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="50">
         <v>45451</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="50">
         <v>45452</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="50">
         <v>45453</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="50">
         <v>45454</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="50">
         <v>45455</v>
       </c>
     </row>
@@ -7120,7 +7175,7 @@
       <c r="A10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="39">
@@ -7146,7 +7201,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
+      <c r="B11" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABB160-125A-CB48-9B98-BA77E7AAA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6504B226-3BDB-C14F-AF48-3CC5F8B0132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="86">
   <si>
     <t>Strain</t>
   </si>
@@ -294,11 +294,13 @@
     <t>Sample/plate</t>
   </si>
   <si>
-    <t>205(1)
-215(1)</t>
-  </si>
-  <si>
     <t>-80 #</t>
+  </si>
+  <si>
+    <t>215(1)</t>
+  </si>
+  <si>
+    <t>205(1)</t>
   </si>
 </sst>
 </file>
@@ -1438,13 +1440,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4228,6 +4230,102 @@
       </c>
       <c r="P55" s="5"/>
     </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="6">
+        <v>45449</v>
+      </c>
+      <c r="D56" s="5">
+        <v>205</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="5"/>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="6">
+        <v>45449</v>
+      </c>
+      <c r="D57" s="5">
+        <v>205</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="6">
+        <v>45449</v>
+      </c>
+      <c r="D58" s="5">
+        <v>205</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H38:H42">
@@ -4520,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A93" zoomScale="138" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6712,7 +6810,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6725,7 +6823,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
@@ -6894,7 +6992,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7142,12 +7240,12 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="51">
         <v>45449</v>
@@ -7201,7 +7299,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="48"/>
+      <c r="B11" s="48" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6504B226-3BDB-C14F-AF48-3CC5F8B0132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB46DF5-4B04-9649-9793-72A9038CCEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="87">
   <si>
     <t>Strain</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>205(1)</t>
+  </si>
+  <si>
+    <t>2-10</t>
   </si>
 </sst>
 </file>
@@ -602,14 +605,8 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,23 +624,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -671,6 +656,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,17 +1445,17 @@
   </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
@@ -1520,7 +1523,7 @@
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="6">
@@ -1570,7 +1573,7 @@
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6">
@@ -1620,7 +1623,7 @@
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="6">
@@ -1670,7 +1673,7 @@
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="6">
@@ -1720,7 +1723,7 @@
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="6">
@@ -1770,7 +1773,7 @@
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="6">
@@ -1820,7 +1823,7 @@
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="6">
@@ -1870,7 +1873,7 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="6">
@@ -1920,7 +1923,7 @@
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="6">
@@ -1970,7 +1973,7 @@
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="6">
@@ -2020,7 +2023,7 @@
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="6">
@@ -2068,7 +2071,7 @@
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="6">
@@ -2118,7 +2121,7 @@
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="6">
@@ -2168,7 +2171,7 @@
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="6">
@@ -2218,7 +2221,7 @@
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="6">
@@ -2268,7 +2271,7 @@
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="6">
@@ -2320,7 +2323,7 @@
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="6">
@@ -2370,7 +2373,7 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="6">
@@ -2422,7 +2425,7 @@
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6">
@@ -2474,7 +2477,7 @@
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="6">
@@ -2526,7 +2529,7 @@
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="6">
@@ -2578,7 +2581,7 @@
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="6">
@@ -2628,7 +2631,7 @@
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="6">
@@ -2678,7 +2681,7 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="6">
@@ -2730,7 +2733,7 @@
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="6">
@@ -2782,7 +2785,7 @@
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="6">
@@ -2834,7 +2837,7 @@
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="6">
@@ -2886,7 +2889,7 @@
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="6">
@@ -2936,7 +2939,7 @@
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="6">
@@ -2984,7 +2987,7 @@
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="6">
@@ -3034,7 +3037,7 @@
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="6">
@@ -3084,7 +3087,7 @@
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="6">
@@ -3134,7 +3137,7 @@
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="6">
@@ -3184,7 +3187,7 @@
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6">
@@ -3234,7 +3237,7 @@
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="6">
@@ -3284,7 +3287,7 @@
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="6">
@@ -3332,7 +3335,7 @@
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="6">
@@ -3341,7 +3344,7 @@
       <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -3382,7 +3385,7 @@
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="6">
@@ -3391,7 +3394,7 @@
       <c r="D39" s="5">
         <v>200</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -3432,7 +3435,7 @@
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="6">
@@ -3441,7 +3444,7 @@
       <c r="D40" s="5">
         <v>200</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -3482,7 +3485,7 @@
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="6">
@@ -3491,7 +3494,7 @@
       <c r="D41" s="5">
         <v>200</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -3532,7 +3535,7 @@
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="6">
@@ -3541,7 +3544,7 @@
       <c r="D42" s="5">
         <v>200</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -3556,10 +3559,10 @@
       <c r="I42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="41" t="s">
+      <c r="J42" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="41" t="s">
+      <c r="K42" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="5">
@@ -3582,7 +3585,7 @@
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="6">
@@ -3591,7 +3594,7 @@
       <c r="D43" s="5">
         <v>200</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -3632,7 +3635,7 @@
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="6">
@@ -3641,7 +3644,7 @@
       <c r="D44" s="5">
         <v>200</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -3682,7 +3685,7 @@
       <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="6">
@@ -3691,7 +3694,7 @@
       <c r="D45" s="5">
         <v>200</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -3706,10 +3709,10 @@
       <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="41" t="s">
+      <c r="J45" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L45" s="5">
@@ -3732,7 +3735,7 @@
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="6">
@@ -3741,7 +3744,7 @@
       <c r="D46" s="5">
         <v>200</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -3756,10 +3759,10 @@
       <c r="I46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="41" t="s">
+      <c r="J46" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="41" t="s">
+      <c r="K46" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L46" s="5">
@@ -3784,7 +3787,7 @@
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="6">
@@ -3793,7 +3796,7 @@
       <c r="D47" s="5">
         <v>221</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -3808,10 +3811,10 @@
       <c r="I47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="41" t="s">
+      <c r="J47" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="41" t="s">
+      <c r="K47" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L47" s="5">
@@ -3834,7 +3837,7 @@
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="6">
@@ -3843,7 +3846,7 @@
       <c r="D48" s="5">
         <v>221</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -3858,10 +3861,10 @@
       <c r="I48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="41" t="s">
+      <c r="J48" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K48" s="41" t="s">
+      <c r="K48" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L48" s="5">
@@ -3884,7 +3887,7 @@
       <c r="A49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="6">
@@ -3893,7 +3896,7 @@
       <c r="D49" s="5">
         <v>221</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -3934,7 +3937,7 @@
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="6">
@@ -3943,7 +3946,7 @@
       <c r="D50" s="5">
         <v>221</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -3958,10 +3961,10 @@
       <c r="I50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="41" t="s">
+      <c r="J50" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K50" s="41" t="s">
+      <c r="K50" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L50" s="5">
@@ -3984,7 +3987,7 @@
       <c r="A51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="6">
@@ -3993,7 +3996,7 @@
       <c r="D51" s="5">
         <v>221</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -4011,7 +4014,7 @@
       <c r="J51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="41" t="s">
+      <c r="K51" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -4034,7 +4037,7 @@
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="6">
@@ -4043,7 +4046,7 @@
       <c r="D52" s="5">
         <v>221</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -4084,7 +4087,7 @@
       <c r="A53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="6">
@@ -4093,7 +4096,7 @@
       <c r="D53" s="5">
         <v>221</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -4134,7 +4137,7 @@
       <c r="A54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="6">
@@ -4143,7 +4146,7 @@
       <c r="D54" s="5">
         <v>221</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -4158,10 +4161,10 @@
       <c r="I54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K54" s="41" t="s">
+      <c r="K54" s="39" t="s">
         <v>70</v>
       </c>
       <c r="L54" s="5">
@@ -4184,7 +4187,7 @@
       <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="6">
@@ -4193,7 +4196,7 @@
       <c r="D55" s="5">
         <v>221</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F55" s="13" t="s">
@@ -4234,7 +4237,7 @@
       <c r="A56" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C56" s="6">
@@ -4266,7 +4269,7 @@
       <c r="A57" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="6">
@@ -4298,7 +4301,7 @@
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C58" s="6">
@@ -6815,14 +6818,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="44"/>
+    <col min="1" max="1" width="6.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6833,145 +6836,145 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
+      <c r="A3" s="49">
         <v>205</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="46">
         <v>215</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="55">
+      <c r="A5" s="49">
         <v>216</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="A6" s="52">
         <v>220</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="55">
+      <c r="A7" s="49">
         <v>227</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="55">
+      <c r="A8" s="49">
         <v>228</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="58">
+      <c r="A9" s="52">
         <v>194</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="49">
         <v>204</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="46">
         <v>14</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
+      <c r="A13" s="49">
         <v>200</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="55">
+      <c r="A14" s="49">
         <v>221</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="51" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6986,18 +6989,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
@@ -7044,25 +7047,25 @@
       <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="55">
         <v>45421</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="55">
         <v>45422</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="55">
         <v>45423</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="55">
         <v>45424</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="55">
         <v>45425</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="55">
         <v>45426</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="55">
         <v>45427</v>
       </c>
     </row>
@@ -7073,25 +7076,25 @@
       <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="55">
         <v>45425</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="55">
         <v>45426</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="55">
         <v>45427</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="55">
         <v>45428</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="55">
         <v>45429</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="55">
         <v>45430</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="55">
         <v>45431</v>
       </c>
     </row>
@@ -7102,25 +7105,25 @@
       <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="55">
         <v>45432</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="55">
         <v>45433</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="55">
         <v>45434</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="55">
         <v>45435</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="55">
         <v>45436</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="55">
         <v>45437</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="55">
         <v>45438</v>
       </c>
     </row>
@@ -7131,25 +7134,25 @@
       <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="55">
         <v>45435</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="55">
         <v>45436</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="55">
         <v>45437</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="55">
         <v>45438</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="55">
         <v>45439</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="55">
         <v>45440</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="55">
         <v>45441</v>
       </c>
     </row>
@@ -7160,25 +7163,25 @@
       <c r="B6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="55">
         <v>45438</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="55">
         <v>45439</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="55">
         <v>45440</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="55">
         <v>45441</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="55">
         <v>45442</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="55">
         <v>45443</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="55">
         <v>45444</v>
       </c>
     </row>
@@ -7189,25 +7192,25 @@
       <c r="B7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="55">
         <v>45439</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="55">
         <v>45440</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="55">
         <v>45441</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="55">
         <v>45442</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="55">
         <v>45443</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="55">
         <v>45444</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="55">
         <v>45445</v>
       </c>
     </row>
@@ -7215,93 +7218,120 @@
       <c r="A8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="55">
         <v>45442</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="55">
         <v>45443</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="55">
         <v>45444</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="55">
         <v>45445</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="55">
         <v>45446</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="55">
         <v>45447</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="55">
         <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="56">
         <v>45449</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="56">
         <v>45450</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="56">
         <v>45451</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="56">
         <v>45452</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="57">
         <v>45453</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="57">
         <v>45454</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="57">
         <v>45455</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="56">
+        <v>45453</v>
+      </c>
+      <c r="D10" s="57">
+        <v>45454</v>
+      </c>
+      <c r="E10" s="57">
+        <v>45455</v>
+      </c>
+      <c r="F10" s="57">
+        <v>45456</v>
+      </c>
+      <c r="G10" s="57">
+        <v>45457</v>
+      </c>
+      <c r="H10" s="57">
+        <v>45458</v>
+      </c>
+      <c r="I10" s="57">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="39">
-        <v>45453</v>
-      </c>
-      <c r="D10" s="39">
-        <v>45454</v>
-      </c>
-      <c r="E10" s="39">
-        <v>45455</v>
-      </c>
-      <c r="F10" s="39">
+      <c r="C11" s="58">
         <v>45456</v>
       </c>
-      <c r="G10" s="39">
+      <c r="D11" s="58">
         <v>45457</v>
       </c>
-      <c r="H10" s="39">
+      <c r="E11" s="58">
         <v>45458</v>
       </c>
-      <c r="I10" s="39">
+      <c r="F11" s="58">
         <v>45459</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="48" t="s">
-        <v>84</v>
-      </c>
+      <c r="G11" s="58">
+        <v>45460</v>
+      </c>
+      <c r="H11" s="58">
+        <v>45461</v>
+      </c>
+      <c r="I11" s="58">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB46DF5-4B04-9649-9793-72A9038CCEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180E64E-3203-2944-B612-E1A4F6DB3C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
@@ -6995,7 +6995,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7262,7 +7262,7 @@
       <c r="F9" s="56">
         <v>45452</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="56">
         <v>45453</v>
       </c>
       <c r="H9" s="57">

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180E64E-3203-2944-B612-E1A4F6DB3C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAFA75-6F05-8E46-B68D-6F0C83D6A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
@@ -1446,10 +1446,10 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4621,7 +4621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="K38" sqref="K38:K40"/>
     </sheetView>
   </sheetViews>
@@ -6813,7 +6813,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6995,7 +6995,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAFA75-6F05-8E46-B68D-6F0C83D6A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFA99C-45B7-C441-B469-2611FFD2A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="26860" windowHeight="17440" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="160" yWindow="1240" windowWidth="26860" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="86">
   <si>
     <t>Strain</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Block</t>
-  </si>
-  <si>
-    <t>P. parallactic</t>
   </si>
   <si>
     <t>P. fluorescence</t>
@@ -511,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -666,15 +663,16 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,11 +1443,11 @@
   </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,13 +1469,13 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2">
         <v>-80</v>
@@ -1516,15 +1514,15 @@
         <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6">
         <v>45421</v>
@@ -1536,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
@@ -1571,10 +1569,10 @@
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6">
         <v>45421</v>
@@ -1586,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>11</v>
@@ -1621,10 +1619,10 @@
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6">
         <v>45421</v>
@@ -1636,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1671,10 +1669,10 @@
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6">
         <v>45421</v>
@@ -1686,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -1721,10 +1719,10 @@
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6">
         <v>45421</v>
@@ -1736,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -1771,10 +1769,10 @@
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="6">
         <v>45421</v>
@@ -1786,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -1821,10 +1819,10 @@
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="6">
         <v>45425</v>
@@ -1836,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>10</v>
@@ -1871,10 +1869,10 @@
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="6">
         <v>45425</v>
@@ -1886,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -1921,10 +1919,10 @@
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6">
         <v>45425</v>
@@ -1936,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>12</v>
@@ -1971,10 +1969,10 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6">
         <v>45425</v>
@@ -1986,7 +1984,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
@@ -2021,10 +2019,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6">
         <v>45425</v>
@@ -2036,7 +2034,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>11</v>
@@ -2060,19 +2058,19 @@
         <v>7</v>
       </c>
       <c r="N12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6">
         <v>45425</v>
@@ -2084,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
@@ -2119,10 +2117,10 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6">
         <v>45425</v>
@@ -2134,7 +2132,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>13</v>
@@ -2169,10 +2167,10 @@
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="6">
         <v>45425</v>
@@ -2184,7 +2182,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>14</v>
@@ -2219,10 +2217,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6">
         <v>45425</v>
@@ -2234,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
@@ -2269,10 +2267,10 @@
     </row>
     <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6">
         <v>45432</v>
@@ -2284,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>10</v>
@@ -2316,15 +2314,15 @@
         <v>8900</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="6">
         <v>45432</v>
@@ -2336,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>11</v>
@@ -2371,10 +2369,10 @@
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="6">
         <v>45432</v>
@@ -2386,7 +2384,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2418,15 +2416,15 @@
         <v>182500</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6">
         <v>45432</v>
@@ -2435,10 +2433,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>10</v>
@@ -2470,15 +2468,15 @@
         <v>13000</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6">
         <v>45432</v>
@@ -2487,10 +2485,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>11</v>
@@ -2522,15 +2520,15 @@
         <v>27000</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6">
         <v>45432</v>
@@ -2539,10 +2537,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>12</v>
@@ -2574,15 +2572,15 @@
         <v>94500</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6">
         <v>45432</v>
@@ -2591,10 +2589,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2629,10 +2627,10 @@
     </row>
     <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6">
         <v>45432</v>
@@ -2641,10 +2639,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>14</v>
@@ -2679,10 +2677,10 @@
     </row>
     <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="6">
         <v>45432</v>
@@ -2691,10 +2689,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>15</v>
@@ -2726,15 +2724,15 @@
         <v>14000</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6">
         <v>45435</v>
@@ -2743,10 +2741,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>10</v>
@@ -2778,15 +2776,15 @@
         <v>4000</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6">
         <v>45435</v>
@@ -2795,10 +2793,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>11</v>
@@ -2830,15 +2828,15 @@
         <v>12000</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6">
         <v>45435</v>
@@ -2847,10 +2845,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>12</v>
@@ -2882,15 +2880,15 @@
         <v>26000</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6">
         <v>45435</v>
@@ -2899,10 +2897,10 @@
         <v>6</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>10</v>
@@ -2937,10 +2935,10 @@
     </row>
     <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6">
         <v>45435</v>
@@ -2949,10 +2947,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>11</v>
@@ -2976,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="N30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="6">
         <v>45435</v>
@@ -2997,10 +2995,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -3035,10 +3033,10 @@
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6">
         <v>45435</v>
@@ -3047,10 +3045,10 @@
         <v>6</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>13</v>
@@ -3080,15 +3078,15 @@
         <v>29</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6">
         <v>45435</v>
@@ -3097,10 +3095,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>14</v>
@@ -3130,15 +3128,15 @@
         <v>29</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6">
         <v>45435</v>
@@ -3147,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
@@ -3180,15 +3178,15 @@
         <v>29</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="6">
         <v>45438</v>
@@ -3197,10 +3195,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>10</v>
@@ -3235,10 +3233,10 @@
     </row>
     <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="6">
         <v>45438</v>
@@ -3247,10 +3245,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>11</v>
@@ -3274,21 +3272,21 @@
         <v>0</v>
       </c>
       <c r="N36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="33" t="s">
-        <v>46</v>
-      </c>
       <c r="P36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6">
         <v>45438</v>
@@ -3297,10 +3295,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -3324,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="N37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="O37" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="6">
         <v>45439</v>
@@ -3345,10 +3343,10 @@
         <v>200</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>10</v>
@@ -3363,7 +3361,7 @@
         <v>176</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="5">
         <v>27</v>
@@ -3383,10 +3381,10 @@
     </row>
     <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="6">
         <v>45439</v>
@@ -3395,10 +3393,10 @@
         <v>200</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>11</v>
@@ -3433,10 +3431,10 @@
     </row>
     <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="6">
         <v>45439</v>
@@ -3445,10 +3443,10 @@
         <v>200</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>12</v>
@@ -3483,10 +3481,10 @@
     </row>
     <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="6">
         <v>45439</v>
@@ -3495,10 +3493,10 @@
         <v>200</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3510,10 +3508,10 @@
         <v>16</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L41" s="5">
         <v>28</v>
@@ -3533,10 +3531,10 @@
     </row>
     <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="6">
         <v>45439</v>
@@ -3545,10 +3543,10 @@
         <v>200</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>14</v>
@@ -3560,10 +3558,10 @@
         <v>16</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K42" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L42" s="5">
         <v>34</v>
@@ -3583,10 +3581,10 @@
     </row>
     <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="6">
         <v>45439</v>
@@ -3595,10 +3593,10 @@
         <v>200</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>15</v>
@@ -3633,10 +3631,10 @@
     </row>
     <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="6">
         <v>45439</v>
@@ -3645,13 +3643,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>16</v>
@@ -3683,10 +3681,10 @@
     </row>
     <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="6">
         <v>45439</v>
@@ -3695,13 +3693,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>16</v>
@@ -3710,10 +3708,10 @@
         <v>16</v>
       </c>
       <c r="J45" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L45" s="5">
         <v>18</v>
@@ -3733,10 +3731,10 @@
     </row>
     <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="6">
         <v>45439</v>
@@ -3745,13 +3743,13 @@
         <v>200</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -3760,10 +3758,10 @@
         <v>16</v>
       </c>
       <c r="J46" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L46" s="5">
         <v>21</v>
@@ -3780,15 +3778,15 @@
         <v>170000</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="6">
         <v>45442</v>
@@ -3797,10 +3795,10 @@
         <v>221</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>10</v>
@@ -3812,10 +3810,10 @@
         <v>16</v>
       </c>
       <c r="J47" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L47" s="5">
         <v>26</v>
@@ -3835,10 +3833,10 @@
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6">
         <v>45442</v>
@@ -3847,10 +3845,10 @@
         <v>221</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>11</v>
@@ -3862,10 +3860,10 @@
         <v>16</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K48" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L48" s="5">
         <v>29</v>
@@ -3885,10 +3883,10 @@
     </row>
     <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="6">
         <v>45442</v>
@@ -3897,10 +3895,10 @@
         <v>221</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>12</v>
@@ -3935,10 +3933,10 @@
     </row>
     <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="6">
         <v>45442</v>
@@ -3947,10 +3945,10 @@
         <v>221</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>13</v>
@@ -3962,10 +3960,10 @@
         <v>16</v>
       </c>
       <c r="J50" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K50" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L50" s="5">
         <v>25</v>
@@ -3985,10 +3983,10 @@
     </row>
     <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="6">
         <v>45442</v>
@@ -3997,10 +3995,10 @@
         <v>221</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>14</v>
@@ -4015,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>29</v>
@@ -4035,10 +4033,10 @@
     </row>
     <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6">
         <v>45442</v>
@@ -4047,10 +4045,10 @@
         <v>221</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>15</v>
@@ -4085,10 +4083,10 @@
     </row>
     <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="6">
         <v>45442</v>
@@ -4097,13 +4095,13 @@
         <v>221</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>16</v>
@@ -4135,10 +4133,10 @@
     </row>
     <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="6">
         <v>45442</v>
@@ -4147,13 +4145,13 @@
         <v>221</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>16</v>
@@ -4162,10 +4160,10 @@
         <v>16</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L54" s="5">
         <v>22</v>
@@ -4185,10 +4183,10 @@
     </row>
     <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="6">
         <v>45442</v>
@@ -4197,13 +4195,13 @@
         <v>221</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>16</v>
@@ -4235,10 +4233,10 @@
     </row>
     <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="6">
         <v>45449</v>
@@ -4247,10 +4245,10 @@
         <v>205</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>10</v>
@@ -4267,10 +4265,10 @@
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="6">
         <v>45449</v>
@@ -4279,10 +4277,10 @@
         <v>205</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>11</v>
@@ -4299,10 +4297,10 @@
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="6">
         <v>45449</v>
@@ -4311,10 +4309,10 @@
         <v>205</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>12</v>
@@ -4642,13 +4640,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="18">
         <v>-80</v>
@@ -4680,7 +4678,7 @@
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="16">
         <v>3</v>
@@ -4700,7 +4698,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="16">
         <v>11</v>
@@ -4716,7 +4714,7 @@
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -4736,7 +4734,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="16">
         <v>17</v>
@@ -4752,7 +4750,7 @@
     </row>
     <row r="4" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="26">
         <v>3</v>
@@ -4772,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="26">
         <v>5</v>
@@ -4782,7 +4780,7 @@
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="16">
         <v>3</v>
@@ -4808,15 +4806,15 @@
         <v>0</v>
       </c>
       <c r="K5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="16">
         <v>3</v>
@@ -4842,15 +4840,15 @@
         <v>0</v>
       </c>
       <c r="K6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="16">
         <v>3</v>
@@ -4876,15 +4874,15 @@
         <v>0</v>
       </c>
       <c r="K7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="16">
         <v>3</v>
@@ -4901,7 +4899,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="16">
         <v>22</v>
@@ -4920,7 +4918,7 @@
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="16">
         <v>3</v>
@@ -4956,7 +4954,7 @@
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="16">
         <v>3</v>
@@ -4982,15 +4980,15 @@
         <v>0</v>
       </c>
       <c r="K10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="16">
         <v>4</v>
@@ -4999,20 +4997,20 @@
         <v>45417</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="16">
         <v>36</v>
@@ -5028,7 +5026,7 @@
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="16">
         <v>4</v>
@@ -5037,17 +5035,17 @@
         <v>45417</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="16">
         <v>24</v>
@@ -5066,7 +5064,7 @@
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="16">
         <v>4</v>
@@ -5075,20 +5073,20 @@
         <v>45417</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="16">
         <v>25</v>
@@ -5104,7 +5102,7 @@
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="16">
         <v>4</v>
@@ -5128,15 +5126,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="16">
         <v>4</v>
@@ -5170,7 +5168,7 @@
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
@@ -5204,7 +5202,7 @@
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="16">
         <v>4</v>
@@ -5230,15 +5228,15 @@
         <v>0</v>
       </c>
       <c r="K17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="16">
         <v>4</v>
@@ -5264,15 +5262,15 @@
         <v>0</v>
       </c>
       <c r="K18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="16">
         <v>4</v>
@@ -5298,15 +5296,15 @@
         <v>0</v>
       </c>
       <c r="K19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="26">
         <v>4</v>
@@ -5323,20 +5321,20 @@
         <v>10</v>
       </c>
       <c r="H20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="K20" s="28"/>
       <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="16">
         <v>4</v>
@@ -5372,7 +5370,7 @@
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="16">
         <v>4</v>
@@ -5408,7 +5406,7 @@
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="16">
         <v>5</v>
@@ -5425,7 +5423,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="16">
         <v>40</v>
@@ -5444,7 +5442,7 @@
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="16">
         <v>5</v>
@@ -5461,7 +5459,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="16">
         <v>36</v>
@@ -5480,7 +5478,7 @@
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="16">
         <v>5</v>
@@ -5497,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="16">
         <v>29</v>
@@ -5516,7 +5514,7 @@
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="16">
         <v>5</v>
@@ -5533,7 +5531,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="16">
         <v>22</v>
@@ -5552,7 +5550,7 @@
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="16">
         <v>5</v>
@@ -5578,15 +5576,15 @@
         <v>0</v>
       </c>
       <c r="K27" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="16">
         <v>5</v>
@@ -5612,15 +5610,15 @@
         <v>0</v>
       </c>
       <c r="K28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="16">
         <v>5</v>
@@ -5637,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29" s="16">
         <v>42</v>
@@ -5656,7 +5654,7 @@
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="16">
         <v>5</v>
@@ -5673,7 +5671,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="16">
         <v>0</v>
@@ -5682,15 +5680,15 @@
         <v>0</v>
       </c>
       <c r="K30" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="16">
         <v>5</v>
@@ -5707,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" s="16">
         <v>38</v>
@@ -5726,7 +5724,7 @@
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="16">
         <v>6</v>
@@ -5743,10 +5741,10 @@
         <v>10</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J32" s="16">
         <v>30</v>
@@ -5762,7 +5760,7 @@
     </row>
     <row r="33" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="26">
         <v>6</v>
@@ -5779,10 +5777,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" s="26">
         <v>4</v>
@@ -5792,7 +5790,7 @@
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="16">
         <v>6</v>
@@ -5815,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="22">
         <f>H34</f>
@@ -5828,7 +5826,7 @@
     </row>
     <row r="35" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="26">
         <v>6</v>
@@ -5845,20 +5843,20 @@
         <v>10</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="28"/>
       <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="16">
         <v>6</v>
@@ -5875,7 +5873,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I36" s="16">
         <v>23</v>
@@ -5894,7 +5892,7 @@
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="16">
         <v>6</v>
@@ -5911,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" s="16">
         <v>65</v>
@@ -5930,7 +5928,7 @@
     </row>
     <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="16">
         <v>7</v>
@@ -5966,7 +5964,7 @@
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="16">
         <v>7</v>
@@ -5983,7 +5981,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="16">
         <v>15</v>
@@ -6002,7 +6000,7 @@
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="16">
         <v>7</v>
@@ -6028,15 +6026,15 @@
         <v>0</v>
       </c>
       <c r="K40" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="16">
         <v>7</v>
@@ -6053,10 +6051,10 @@
         <v>10</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" s="16">
         <v>33</v>
@@ -6072,7 +6070,7 @@
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="16">
         <v>7</v>
@@ -6089,10 +6087,10 @@
         <v>11</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42" s="16">
         <v>47</v>
@@ -6108,7 +6106,7 @@
     </row>
     <row r="43" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="26">
         <v>7</v>
@@ -6125,10 +6123,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="26">
         <v>7</v>
@@ -6138,7 +6136,7 @@
     </row>
     <row r="44" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="26">
         <v>7</v>
@@ -6155,20 +6153,20 @@
         <v>10</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44" s="28"/>
       <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="16">
         <v>7</v>
@@ -6185,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="16">
         <v>12</v>
@@ -6204,7 +6202,7 @@
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="16">
         <v>7</v>
@@ -6230,15 +6228,15 @@
         <v>0</v>
       </c>
       <c r="K46" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="16">
         <v>8</v>
@@ -6255,7 +6253,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I47" s="16">
         <v>87</v>
@@ -6274,7 +6272,7 @@
     </row>
     <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="16">
         <v>8</v>
@@ -6310,7 +6308,7 @@
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="16">
         <v>8</v>
@@ -6346,7 +6344,7 @@
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="16">
         <v>8</v>
@@ -6363,7 +6361,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I50" s="16">
         <v>144</v>
@@ -6382,7 +6380,7 @@
     </row>
     <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="16">
         <v>8</v>
@@ -6399,10 +6397,10 @@
         <v>14</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J51" s="16">
         <v>47</v>
@@ -6418,7 +6416,7 @@
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="16">
         <v>8</v>
@@ -6454,7 +6452,7 @@
     </row>
     <row r="53" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="26">
         <v>8</v>
@@ -6471,7 +6469,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I53" s="26">
         <v>4</v>
@@ -6484,7 +6482,7 @@
     </row>
     <row r="54" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="26">
         <v>8</v>
@@ -6501,10 +6499,10 @@
         <v>11</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54" s="26">
         <v>9</v>
@@ -6514,7 +6512,7 @@
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="16">
         <v>8</v>
@@ -6540,15 +6538,15 @@
         <v>0</v>
       </c>
       <c r="K55" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="16">
         <v>8</v>
@@ -6557,10 +6555,10 @@
         <v>45440</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16" t="s">
@@ -6576,15 +6574,15 @@
         <v>0</v>
       </c>
       <c r="K56" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="16">
         <v>8</v>
@@ -6593,10 +6591,10 @@
         <v>45440</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16" t="s">
@@ -6612,15 +6610,15 @@
         <v>0</v>
       </c>
       <c r="K57" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="16">
         <v>8</v>
@@ -6629,10 +6627,10 @@
         <v>45440</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
@@ -6648,15 +6646,15 @@
         <v>0</v>
       </c>
       <c r="K58" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="16">
         <v>8</v>
@@ -6665,10 +6663,10 @@
         <v>45440</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
@@ -6684,15 +6682,15 @@
         <v>0</v>
       </c>
       <c r="K59" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="16">
         <v>8</v>
@@ -6701,10 +6699,10 @@
         <v>45440</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
@@ -6730,7 +6728,7 @@
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="16">
         <v>8</v>
@@ -6739,10 +6737,10 @@
         <v>45440</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21" t="s">
@@ -6813,7 +6811,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6826,7 +6824,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
@@ -6837,13 +6835,13 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6851,10 +6849,10 @@
         <v>205</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6862,10 +6860,10 @@
         <v>215</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6873,10 +6871,10 @@
         <v>216</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6884,10 +6882,10 @@
         <v>220</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6895,10 +6893,10 @@
         <v>227</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6906,10 +6904,10 @@
         <v>228</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -6920,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6931,7 +6929,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6939,10 +6937,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6950,10 +6948,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6961,10 +6959,10 @@
         <v>200</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6972,10 +6970,10 @@
         <v>221</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6991,11 +6989,11 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7031,7 +7029,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>24</v>
@@ -7042,7 +7040,7 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>22</v>
@@ -7071,7 +7069,7 @@
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>21</v>
@@ -7100,7 +7098,7 @@
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>20</v>
@@ -7129,7 +7127,7 @@
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>19</v>
@@ -7158,10 +7156,10 @@
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="55">
         <v>45438</v>
@@ -7187,10 +7185,10 @@
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="55">
         <v>45439</v>
@@ -7216,10 +7214,10 @@
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="55">
         <v>45442</v>
@@ -7245,10 +7243,10 @@
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="56">
         <v>45449</v>
@@ -7265,7 +7263,7 @@
       <c r="G9" s="56">
         <v>45453</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <v>45454</v>
       </c>
       <c r="I9" s="57">
@@ -7274,15 +7272,15 @@
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="56">
         <v>45453</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>45454</v>
       </c>
       <c r="E10" s="57">
@@ -7303,10 +7301,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="58">
         <v>45456</v>

--- a/pseud_epi_growth_2024summer.xlsx
+++ b/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28CE21B-921E-8A4A-B680-6D8331E4F722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5AE085-649F-DF41-BA5B-7C1374F1511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="560" windowWidth="26860" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="86">
   <si>
     <t>Strain</t>
   </si>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,8 +660,8 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,9 +669,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,16 +679,56 @@
   <dxfs count="92">
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00D8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -710,32 +749,27 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF00D8"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -750,6 +784,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -765,21 +804,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -795,6 +859,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -805,11 +874,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -830,6 +909,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -860,6 +954,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -875,11 +979,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -900,16 +1014,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -925,6 +1059,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -940,6 +1089,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -950,182 +1114,17 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1471,13 +1470,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O58" sqref="A1:O58"/>
+      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,7 +1546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1596,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1647,7 +1646,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -1697,7 +1696,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1746,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1796,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1847,7 +1846,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1897,7 +1896,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1947,7 +1946,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1997,7 +1996,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -2047,7 +2046,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -2095,7 +2094,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2145,7 +2144,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2195,7 +2194,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +2244,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2295,7 +2294,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2397,7 +2396,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2655,7 +2654,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2705,7 +2704,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2963,7 +2962,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -3011,7 +3010,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -3061,7 +3060,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -3111,7 +3110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3261,7 +3260,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3359,7 +3358,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -3409,7 +3408,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3458,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -3509,7 +3508,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -3559,7 +3558,7 @@
       </c>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -3609,7 +3608,7 @@
       </c>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -3659,7 +3658,7 @@
       </c>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
@@ -3709,7 +3708,7 @@
       </c>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
@@ -3861,7 +3860,7 @@
       </c>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
@@ -3911,7 +3910,7 @@
       </c>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
@@ -3961,7 +3960,7 @@
       </c>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
@@ -4011,7 +4010,7 @@
       </c>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -4061,7 +4060,7 @@
       </c>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -4111,7 +4110,7 @@
       </c>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
@@ -4211,7 +4210,7 @@
       </c>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
@@ -4274,14 +4273,14 @@
       <c r="D56" s="5">
         <v>205</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="60" t="s">
+      <c r="F56" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>16</v>
@@ -4324,14 +4323,14 @@
       <c r="D57" s="5">
         <v>205</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>16</v>
@@ -4374,14 +4373,14 @@
       <c r="D58" s="5">
         <v>205</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>16</v>
@@ -4410,6 +4409,102 @@
         <v>465000</v>
       </c>
       <c r="P58" s="5"/>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="6">
+        <v>45453</v>
+      </c>
+      <c r="D59" s="5">
+        <v>215</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="6">
+        <v>45453</v>
+      </c>
+      <c r="D60" s="5">
+        <v>215</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="6">
+        <v>45453</v>
+      </c>
+      <c r="D61" s="5">
+        <v>215</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4418,21 +4513,21 @@
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="69" operator="greaterThan">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="74" operator="between">
+      <formula>10</formula>
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="70" operator="lessThan">
-      <formula>10</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="70" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="69" operator="greaterThan">
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="75" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
@@ -4472,246 +4567,246 @@
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M100">
-    <cfRule type="containsText" dxfId="75" priority="101" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="104" operator="between">
+  <conditionalFormatting sqref="H56:K58">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H56)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="87" operator="lessThan">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H56)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="between">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="86" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:M100">
+    <cfRule type="cellIs" dxfId="69" priority="104" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="87" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:M34">
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="88" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="85" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="containsText" dxfId="69" priority="59" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="53" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="54" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="39" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="44" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I50 H47:H55 I51:J51">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="32" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="36" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I55">
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="13" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:K40">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="51" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="67" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="66" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="63" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="62" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="61" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="between">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:K58">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H56)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H56)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
@@ -6873,37 +6968,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:J63">
-    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="40" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O59 Q1:R59 B2:C61 H2:J61">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="227">
+    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="227">
       <formula>NOT(ISERROR(SEARCH("227",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="220 ">
+    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="220 ">
       <formula>NOT(ISERROR(SEARCH("220 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="216 ">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="216 ">
       <formula>NOT(ISERROR(SEARCH("216 ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="215">
+    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="215">
       <formula>NOT(ISERROR(SEARCH("215",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="205">
+    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="205">
       <formula>NOT(ISERROR(SEARCH("205",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="b728a">
+    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="b728a">
       <formula>NOT(ISERROR(SEARCH("b728a",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6917,7 +7012,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7095,11 +7190,11 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7351,7 +7446,7 @@
       <c r="A9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="57" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="55">
@@ -7392,10 +7487,10 @@
       <c r="E10" s="55">
         <v>45455</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>45456</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="55">
         <v>45457</v>
       </c>
       <c r="H10" s="56">
@@ -7412,26 +7507,26 @@
       <c r="B11" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="57">
-        <v>45456</v>
-      </c>
-      <c r="D11" s="57">
-        <v>45457</v>
-      </c>
-      <c r="E11" s="57">
-        <v>45458</v>
-      </c>
-      <c r="F11" s="57">
-        <v>45459</v>
-      </c>
-      <c r="G11" s="57">
-        <v>45460</v>
-      </c>
-      <c r="H11" s="57">
-        <v>45461</v>
-      </c>
-      <c r="I11" s="57">
-        <v>45462</v>
+      <c r="C11" s="60">
+        <v>45466</v>
+      </c>
+      <c r="D11" s="60">
+        <v>45467</v>
+      </c>
+      <c r="E11" s="60">
+        <v>45468</v>
+      </c>
+      <c r="F11" s="60">
+        <v>45469</v>
+      </c>
+      <c r="G11" s="60">
+        <v>45470</v>
+      </c>
+      <c r="H11" s="60">
+        <v>45471</v>
+      </c>
+      <c r="I11" s="60">
+        <v>45472</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
